--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E479151-A472-4CB0-AAF7-C7ED08DEE80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F876DB-3A2E-4345-9355-BA2198271F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="265">
   <si>
     <t>header1</t>
   </si>
@@ -386,18 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-02a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-25.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-11a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">You will learn when your Defender is updated and how to update Defender. Defender is kept updated by Windows Update. But when the information about emergency vulnerabilities is issued, it is better for us to update Defender.
 Click &amp;quot;Windows Security&amp;quot; listed in the left. Then click &amp;quot;Open Windows Security&amp;quot;.
   </t>
@@ -614,20 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Click &amp;quot;Accept&amp;quot; to accept Windows 10 License Agreement.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose your language to use in your PC. You may choose &amp;quot;English&amp;quot;.
-Click &amp;quot;Yes&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When Windows asks &amp;quot;Get help from your digital assistant&amp;quot; or &amp;quot;Set Cortana to personal assistant&amp;quot;, click &amp;quot;Decline&amp;quot; for now. You can change the configuration later.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&amp;quot;Windows Update&amp;quot; window appears. Windows OS and Microsoft Defender will be updated automatically and periodically. 
 You will know update status of your system. &lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
@@ -660,10 +634,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-13e.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Then the course contents of this course will be displayed in the right. Now click the second content &amp;quot;Checklist worksheet&amp;quot; and open it.
   </t>
     <phoneticPr fontId="1"/>
@@ -685,44 +655,6 @@
   </si>
   <si>
     <t>win10-6-31.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the microphone icon on the bottom left corner of the screen to mute your PC.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Choose &amp;quot;Japan&amp;quot; to set the time zone,&lt;/strong&gt; and Click &amp;quot;Yes&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Skip&amp;quot;, if you do not want to add a second keyboard layout.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Here, you are asked to connect your PC to network. But you do not need to do it now. So, Choose &amp;quot;I don&amp;apos;t have internet&amp;quot; in the bottom left corner of the screen.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Type your password again.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You are asked to create three security questions for your account. You will see them when you forget your password but need to sign in to your PC.
-But this feature is not always the best way to prevent unauthorized access to your PC. We recommend you to create questions and &lt;strong&gt;meeningless&lt;/strong&gt; answers for them. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Face recognition is very useful, but it will take you a long time to set up this function. So click &amp;quot;Skip for now&amp;quot;.
-You can set up to use face recognition later.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When you see &amp;quot;Do more across devices with activity history&amp;quot;, click &amp;quot;No&amp;quot; for now. You can change the configuration later.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -756,10 +688,6 @@
   </si>
   <si>
     <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Microsoft Teams will run automatically. Click x at right up in the window to close the application for now.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -796,76 +724,6 @@
   <si>
     <t>FRESTA-TEXT-2021 Win10 chap.0</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch0-select-language.png</t>
-  </si>
-  <si>
-    <t>ch0-select-region.png</t>
-  </si>
-  <si>
-    <t>ch0-select-keymap0.png</t>
-  </si>
-  <si>
-    <t>Select the keymap fitting to the model of your PC. The most PCs sold in Japanese market has a localized keymap which is incompatible with popular US keymap.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch0-select-keymap-more.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you want to try other keymap, add another one. You can have both of US and Japanese map.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch0-select-keymap-2.png</t>
-  </si>
-  <si>
-    <t>ch0-refuse-wifi-now.png</t>
-  </si>
-  <si>
-    <t>ch0-refuse-wifi-now2.png</t>
-  </si>
-  <si>
-    <t>ch0-license.png</t>
-  </si>
-  <si>
-    <t>ch0-set-first-accountname.png</t>
-  </si>
-  <si>
-    <t>ch0-set-first-account-password.png</t>
-  </si>
-  <si>
-    <t>ch0-skip-faceid.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows asks you &amp;quot; Choose privacy settings for your device&amp;quot;. We recommend &amp;quot;Yes&amp;quot; to &amp;quot;help improve our speech services&amp;quot; and &amp;quot;data to improve location services&amp;quot;, and &amp;quot;No&amp;quot; to others.
-Of course, you can change the configuration later.
-Click &amp;quot;Accept&amp;quot; and wait a few minutes.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch0-restrict-privacy.png</t>
-  </si>
-  <si>
-    <t>Click &amp;quot;Continue with limited setup&amp;quot; in the bottom left corner of the screen. You would be asked again same question in later.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch0-confirm-passwd.png</t>
-  </si>
-  <si>
-    <t>Define user name to use your PC. We recommend to limit the characters to Latin alphabet (without diacritical mark), digits, hyphen and underscore ("_"), without any space, to prevent the trouble caused by the loss of the appropriate keyboard to input the special characters.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Create your password. The good password is easy for you to remember but  difficult for others to guess. Using the characters which you cannot input through bare US keymap is not recommended.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch0-secret-question.png</t>
   </si>
   <si>
     <t>ch4-signin-only-this-application.png</t>
@@ -1015,6 +873,1353 @@
 &lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt; &lt;/dl&gt;
  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCの電源を初めて入れて、デスクトップ画面が表示されるまでの設定手順について説明します。
+一番重要なのは、Windows11の初期設定にはネット環境とMicrosoftアカウントが必要なことです。広島大学の学生は広島大学が管理するMicrosoftアカウントを持ちますが、そのMicrosoftアカウントで初期設定すると卒業後にそのPCが使えなくなってしまいます。
+そのため、広島大学と無関係なMicrosoftアカウントを一時的に作成して初期設定を開始し、さらにネット環境が無くても使えるアカウントに変更します。容量は小さくても良いのでUSBフラッシュメモリを用意しておきましょう。
+すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。 Windows11はバージョン番号が同じでもバリエーションがあったり、出荷時期によって違いがあります。以下の手順の中で拒否しや設定しないで進めるとなっている項目がそもそも表示されないこともありますが、あわてないでください。</t>
+    <rPh sb="3" eb="5">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>ソツギョウゴ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="193" eb="196">
+      <t>ムカンケイ</t>
+    </rPh>
+    <rPh sb="211" eb="214">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="362" eb="364">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="365" eb="366">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="390" eb="391">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="410" eb="412">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="425" eb="427">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="432" eb="434">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windowsで使用する言語を選びます。「日本語」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">住んでいる地域を選びますが、Windows11のバリエーションによってはここから音声ガイダンスが始まります。ちょっとうるさいので不要であれば画面左下のスピーカアイコンをクリックして黙ってもらいましょう。
+  </t>
+    <rPh sb="40" eb="42">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードレイアウトについての質問に答えます。「Microsoft IME」になっていることを確認して、「はい」をクリックしましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードレイアウトの追加についての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
+  </t>
+  </si>
+  <si>
+    <t>古いWindows11 Proを除き、Windows11はネット環境が無いとここから進めることができません。ネット環境に接続してください。接続するとWindowsの更新データをネットからダウンロードしますので、遅いネット環境である場合や、通信データ量に応じて課金されるネット環境しか無い場合は、大学のネット環境を使ってください。</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネット環境に接続されると、「次へ」のボタンが押せるようになるので、押しましょう。</t>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windowsの更新が行われます。</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 11の使用許諾契約が表示されます。
+ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意」をクリックしてください。
+※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のPCに名前を付けるよう促されます。既に決めている名前があれば入力しても良いです。「今はスキップ」で進めても問題ありません。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「このデバイスをどのように設定しますか？」と聞かれます。ここでは「個人用に設定」を選んでください。「職場または学校用に設定する」を選択すると、「組織はこのデバイスを完全に制御できます」とあるように、自宅で使えなくなったり、卒業後に使えなくなったりします。</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>コジンヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ガッコウヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>ソツギョウゴ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Microsoftアカウントを追加しましょう」と尋ねられます。これは、このパソコンに対してMicrosoftアカウントを追加するという意味です。もし貴方が@outlook.comや@outlook.jpといったMicrosoftのメールアドレスを既に持っていたら、既にMicrosoftアカウントを持っています。gmail.comやyahoo.co.jpやdocomo.ne.jpのようなMicrosoftが提供していないメールアドレスしかなければ、新たに作ることになります。以降では、新たに作る手順を示します。</t>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タズ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="252" eb="253">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「作成できます」の「作成」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に持っているメールアドレスでMicrosoftアカウントを作るように案内されますが、混乱を避けるため、「新しいメールアドレスを取得」を選びます。</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コンラン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語で設定している場合、@outlook.jpドメインのメールアドレスを取得することができます。@マークの前の名前部分を決めましょう。
+ここで注意しないといけないのは、この名前部分の最初の5文字がこのパソコンでの貴方のアカウントとして使われるということです。この例だとhirodというアカウントになってしまいます。他の人と名前が衝突しないよう、ある程度特徴的な5文字で始まるようにしてください。</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="177" eb="180">
+      <t>トクチョウテキ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今作ったメールアドレスのパスワードを設定します。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このメールアドレスの所有者の名前を設定します。半角英数で設定するのが安全です。</t>
+    <rPh sb="10" eb="13">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域と生年月日を設定します。</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを忘れたときの連絡先メールアドレスを設定します。携帯電話やスマートフォンのメールアドレスでも構いません。また、メールの追加ではなく、SMSが受け取れる電話番号を登録することもできます。</t>
+    <rPh sb="6" eb="7">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔認証機能を勧められますが、急いで設定する必要はありません。スキップで進めます。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イソ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows11にログインするためのPINコード(暗証番号)を設定します。初期状態では数字のみ使用可能です。1234や1111のような推測され易いものは設定を拒否されます。</t>
+    <rPh sb="26" eb="28">
+      <t>アンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>スイソク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライバシー設定の選択を行います。沢山設定がありますが、最初は全てオフにして情報の提供を拒否します。後から必要に応じて許可しましょう。スクロールしないと全ての項目が見られないので、注意してください。全てオフにしたら「同意」で進めます。</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加機能に関して聞かれますが、広告のためのカスタマイズということなので、スキップで進めましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OneDriveでのバックアップについて聞かれますが、ここでOneDriveを使うと皆さんのデータはお使いのパソコンではなく、先に作ったMicrosoftアカウントに保存されるようになります。先に作ったMicrosoftアカウントは無料アカウントであるため、すぐいっぱいになってしまうので、ここでは「このPCにのみファイルを保存する」を選びましょう。</t>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面が黒くなり、デスクトップ環境の設定がはじまります。しばらく待ちましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デスクトップ環境に入ると、なにかのウィンドウが既に1つ開いています。これは一番下に並んでいるアイコンのうち、Windowsのマークのボタン(スタートボタン)を押すと出てくるウィンドウです。これを以降ではスタートメニューと呼びます。</t>
+    <rPh sb="6" eb="8">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウィンドウの上段にある検索フォームに「bitlocker」と入力し、BitLockerアプリがインストールされているかを調べます。「BitLockerの管理」アプリが見つかった場合はこれを起動します。</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BitLockerがインストールされていない場合はこの項は無視してください。「BitLockerドライブ暗号化」のウィンドウに、「回復キーのバックアップ」があるので、これをクリックします。</t>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BitLockerがインストールされていない場合 はこの項 は無視 してください。「回復キーのバックアップ方法」を選択します。もしUSBフラッシュメモリがあれば、それをコンピュータに取り付け、「ファイルを保存する」で進めます。もし無い場合には「Microsoftアカウントに保存する」を選びます。</t>
+    <rPh sb="42" eb="44">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BitLockerがインストールされていない場合 はこの項 は無視 してください。保存が完了すると「キャンセル」ボタンが「完了」ボタンになります。これを押し、さらにBitLockerドライブ暗号化のウィンドウも閉じます。</t>
+    <rPh sb="41" eb="43">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートメニューから、歯車のようなアイコンの「設定」アプリを起動しましょう</t>
+    <rPh sb="11" eb="13">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左側のリストから「アカウント」を選択し、右側にアカウントに関するメニューを表示させます。さらに「ユーザの情報」に進みます。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ユーザの情報」を選ぶと、現在使っているアカウントの情報が表示されます。その中に「アカウントの設定」があり、「ローカルアカウントでのサインインに切り替える」という機能があります。これをクリックします。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BitLockerがインストールされていた場合は、回復キーをバックアップするように勧められます。先ほどバックアップしたので、この手順はスキップできます。BitLockerがインストールされていない場合は自動的に次に進みます。</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルアカウントに切り替えることの確認を求められます。「次へ」で進めます。</t>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のMicrosoftアカウントにサインインを求められます。パスワードの下にMicrosoftアカウントとして作成したメールアドレスがあることに注意してください。このMicrosoftアカウント用に貴方が作成したパスワードを入力し、「OK」で進めます。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルアカウント名はシステムが提案するものをそのまま使います。パスワード(2回入力します)、またパスワードを思い出すヒントを入力し、「次へ」で進めます。</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のMicrosoftアカウントからサインアウトするよう求められます。「サインアウトと完了」を押します。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows11のログインパネルになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面 の背景 をクリックすると作成したPINコードを求められます。最初に作成したMicrosoftアカウントのPINコードが引き継がれています。先ほど設定したパスワードではないことに注意しましょう。</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-speaker.png</t>
+  </si>
+  <si>
+    <t>win11en-select-keymap.png</t>
+  </si>
+  <si>
+    <t>win11en-select-keymap2.png</t>
+  </si>
+  <si>
+    <t>win11en-connect-internet.png</t>
+  </si>
+  <si>
+    <t>win11en-connect-internet-ok.png</t>
+  </si>
+  <si>
+    <t>win11en-initialization-updating.png</t>
+  </si>
+  <si>
+    <t>win11en-eula.png</t>
+  </si>
+  <si>
+    <t>win11en-pc-name.png</t>
+  </si>
+  <si>
+    <t>win11en-personal-or-office.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-asked.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-create.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-mail-asked.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-new-mail.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-mail-passwd.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-mail-names.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-birthday.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-altmail.png</t>
+  </si>
+  <si>
+    <t>win11en-msaccount-faceid.png</t>
+  </si>
+  <si>
+    <t>win11en-pin.png</t>
+  </si>
+  <si>
+    <t>win11en-privacy.png</t>
+  </si>
+  <si>
+    <t>win11en-experience-customize.png</t>
+  </si>
+  <si>
+    <t>win11en-initialization-onedrive.png</t>
+  </si>
+  <si>
+    <t>win11en-prep-desktop.png</t>
+  </si>
+  <si>
+    <t>win11en-desktop.png</t>
+  </si>
+  <si>
+    <t>win11en-search-bitlocker.png</t>
+  </si>
+  <si>
+    <t>win11en-bitlocker.png</t>
+  </si>
+  <si>
+    <t>win11en-bitlocker-recovery-key.png</t>
+  </si>
+  <si>
+    <t>win11en-bitlocker-recovery-key-ok.png</t>
+  </si>
+  <si>
+    <t>win11en-gear.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-account.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-account-info.png</t>
+  </si>
+  <si>
+    <t>win11en-backup-bitlocker-recovery-key.png</t>
+  </si>
+  <si>
+    <t>win11en-change-to-localaccount.png</t>
+  </si>
+  <si>
+    <t>win11en-signin-msaccount.png</t>
+  </si>
+  <si>
+    <t>win11en-set-localaccount-password.png</t>
+  </si>
+  <si>
+    <t>win11en-set-localaccount-ask-signout.png</t>
+  </si>
+  <si>
+    <t>win11en-login-panel.png</t>
+  </si>
+  <si>
+    <t>win11en-login-pin.png</t>
+  </si>
+  <si>
+    <t>win11en-select-loca.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1437,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1453,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1467,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1485,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1496,7 +2701,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1" phonetic="1"/>
     <col min="5" max="16384" width="8.77734375" phonetic="1"/>
   </cols>
   <sheetData>
@@ -1505,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1513,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1521,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1529,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1544,230 +2749,448 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="183.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>139</v>
+      <c r="B7" s="1" t="s" ph="1">
+        <v>185</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>152</v>
+      <c r="B8" s="1" t="s" ph="1">
+        <v>186</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>153</v>
+      <c r="B9" s="1" t="s" ph="1">
+        <v>187</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D9" t="s" ph="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>178</v>
+      <c r="D9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s" ph="1">
+        <v>188</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s" ph="1">
+        <v>189</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s" ph="1">
+        <v>190</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s" ph="1">
+        <v>191</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s" ph="1">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>138</v>
+      <c r="B15" s="1" t="s" ph="1">
+        <v>193</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>192</v>
+      <c r="B16" s="1" t="s" ph="1">
+        <v>194</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s" ph="1">
+        <v>195</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s" ph="1">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>157</v>
+      <c r="B19" s="1" t="s" ph="1">
+        <v>197</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s" ph="1">
+        <v>198</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s" ph="1">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s" ph="1">
+        <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>140</v>
+      <c r="B22" s="1" t="s" ph="1">
+        <v>200</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>188</v>
+      <c r="B23" s="1" t="s" ph="1">
+        <v>201</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>189</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>167</v>
+      <c r="B24" s="1" t="s" ph="1">
+        <v>202</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>145</v>
-      </c>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s" ph="1">
+        <v>203</v>
+      </c>
+      <c r="C25" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s" ph="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s" ph="1">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" ph="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s" ph="1">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s" ph="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="C28" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" ph="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s" ph="1">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s" ph="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s" ph="1">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" ph="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s" ph="1">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s" ph="1">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s" ph="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s" ph="1">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s" ph="1">
+        <v>211</v>
+      </c>
+      <c r="D32" t="s" ph="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s" ph="1">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s" ph="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s" ph="1">
+        <v>213</v>
+      </c>
+      <c r="D34" t="s" ph="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s" ph="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s" ph="1">
+        <v>215</v>
+      </c>
+      <c r="D36" t="s" ph="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s" ph="1">
+        <v>216</v>
+      </c>
+      <c r="C37" t="s" ph="1">
+        <v>211</v>
+      </c>
+      <c r="D37" t="s" ph="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s" ph="1">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s" ph="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s" ph="1">
+        <v>221</v>
+      </c>
+      <c r="D42" t="s" ph="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s" ph="1">
+        <v>222</v>
+      </c>
+      <c r="D43" t="s" ph="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s" ph="1">
+        <v>223</v>
+      </c>
+      <c r="D44" t="s" ph="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s" ph="1">
+        <v>224</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s" ph="1">
+        <v>225</v>
+      </c>
+      <c r="D46" t="s" ph="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1797,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1821,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1829,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1843,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1938,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1946,12 +3369,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1959,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1973,7 +3396,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2001,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2077,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2131,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2139,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2200,13 +3623,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2233,13 +3656,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2261,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2289,13 +3712,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2303,13 +3726,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +3763,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2356,7 +3779,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2364,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2372,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2391,13 +3814,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,37 +3833,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2448,13 +3871,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2473,7 +3896,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2481,21 +3904,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2503,13 +3926,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,13 +3940,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2531,13 +3954,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2545,13 +3968,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2559,13 +3982,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2628,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2722,13 +4145,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2736,13 +4159,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2750,13 +4173,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2778,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2792,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2853,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2878,7 +4301,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2900,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2948,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2970,7 +4393,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2984,13 +4407,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2998,13 +4421,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3012,13 +4435,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3026,21 +4449,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3067,13 +4490,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3092,10 +4515,10 @@
     </row>
     <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3123,7 +4546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3148,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3156,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3202,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F876DB-3A2E-4345-9355-BA2198271F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEF6AE2-AB2D-483F-BAB4-25D4D5096F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="265">
   <si>
     <t>header1</t>
   </si>
@@ -719,10 +719,6 @@
  Information Media Center, Hiroshima University&lt;br&gt;
  Hiroshima Univesity Coop shop 
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10 chap.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2220,6 +2216,10 @@
   </si>
   <si>
     <t>win11en-select-loca.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win11 chap.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2692,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2754,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -2768,13 +2768,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2782,13 +2782,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2796,21 +2796,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2818,24 +2818,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2843,13 +2843,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -2857,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2871,24 +2871,24 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2896,13 +2896,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2910,24 +2910,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -2935,13 +2935,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2949,13 +2949,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2963,230 +2963,266 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s" ph="1">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s" ph="1">
         <v>210</v>
       </c>
-      <c r="C32" t="s" ph="1">
-        <v>211</v>
-      </c>
       <c r="D32" t="s" ph="1">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="C33" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="C34" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="C35" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="C36" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38"/>
+        <v>216</v>
+      </c>
+      <c r="C38" t="s" ph="1">
+        <v>210</v>
+      </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39"/>
+        <v>217</v>
+      </c>
+      <c r="C39" t="s" ph="1">
+        <v>210</v>
+      </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40"/>
+        <v>218</v>
+      </c>
+      <c r="C40" t="s" ph="1">
+        <v>210</v>
+      </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="C41" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="C42" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="C43" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="C44" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="C45" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C46" t="s" ph="1">
+        <v>210</v>
       </c>
       <c r="D46" t="s" ph="1">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3244,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3252,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3266,7 +3302,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3369,12 +3405,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3554,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3787,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3926,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3946,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3954,13 +3990,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4043,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -4051,7 +4087,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4145,13 +4181,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4165,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4173,13 +4209,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4301,7 +4337,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4323,7 +4359,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -4393,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4407,7 +4443,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4460,7 +4496,7 @@
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
         <v>150</v>
@@ -4579,7 +4615,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4606,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEF6AE2-AB2D-483F-BAB4-25D4D5096F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BACBCA8-3782-464F-A102-A3784ADAE7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -710,18 +710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Win10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
-Mar. 2021&lt;br&gt;
- Information Media Center, Hiroshima University&lt;br&gt;
- Hiroshima Univesity Coop shop 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch4-signin-only-this-application.png</t>
   </si>
   <si>
@@ -2220,6 +2208,18 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2022 Win11 chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows11&lt;/h3&gt;
+Mar. 2022&lt;br&gt;
+ Information Media Center, Hiroshima University&lt;br&gt;
+ Hiroshima Univesity Coop shop 
+ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2617,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2658,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2692,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:C46"/>
     </sheetView>
   </sheetViews>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2754,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -2768,13 +2768,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2782,13 +2782,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2796,21 +2796,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2818,24 +2818,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2843,13 +2843,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -2857,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2871,24 +2871,24 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2896,13 +2896,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2910,24 +2910,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -2935,13 +2935,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2949,13 +2949,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2963,266 +2963,266 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D32" t="s" ph="1">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s" ph="1">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3288,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3302,7 +3302,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3405,12 +3405,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3590,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3962,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3990,13 +3990,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4181,13 +4181,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4201,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4209,13 +4209,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -4429,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4443,7 +4443,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
         <v>150</v>
@@ -4615,7 +4615,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BACBCA8-3782-464F-A102-A3784ADAE7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9800419-382A-4C61-B284-43A676B7BB0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="264">
   <si>
     <t>header1</t>
   </si>
@@ -1005,771 +1005,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Windowsで使用する言語を選びます。「日本語」をクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">住んでいる地域を選びますが、Windows11のバリエーションによってはここから音声ガイダンスが始まります。ちょっとうるさいので不要であれば画面左下のスピーカアイコンをクリックして黙ってもらいましょう。
-  </t>
-    <rPh sb="40" eb="42">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">キーボードレイアウトについての質問に答えます。「Microsoft IME」になっていることを確認して、「はい」をクリックしましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">キーボードレイアウトの追加についての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
-  </t>
-  </si>
-  <si>
-    <t>古いWindows11 Proを除き、Windows11はネット環境が無いとここから進めることができません。ネット環境に接続してください。接続するとWindowsの更新データをネットからダウンロードしますので、遅いネット環境である場合や、通信データ量に応じて課金されるネット環境しか無い場合は、大学のネット環境を使ってください。</t>
-    <rPh sb="0" eb="1">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>カキン</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネット環境に接続されると、「次へ」のボタンが押せるようになるので、押しましょう。</t>
-    <rPh sb="3" eb="5">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windowsの更新が行われます。</t>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows 11の使用許諾契約が表示されます。
-ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意」をクリックしてください。
-※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分のPCに名前を付けるよう促されます。既に決めている名前があれば入力しても良いです。「今はスキップ」で進めても問題ありません。</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「このデバイスをどのように設定しますか？」と聞かれます。ここでは「個人用に設定」を選んでください。「職場または学校用に設定する」を選択すると、「組織はこのデバイスを完全に制御できます」とあるように、自宅で使えなくなったり、卒業後に使えなくなったりします。</t>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>コジンヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>ガッコウヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ソシキ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="111" eb="114">
-      <t>ソツギョウゴ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Microsoftアカウントを追加しましょう」と尋ねられます。これは、このパソコンに対してMicrosoftアカウントを追加するという意味です。もし貴方が@outlook.comや@outlook.jpといったMicrosoftのメールアドレスを既に持っていたら、既にMicrosoftアカウントを持っています。gmail.comやyahoo.co.jpやdocomo.ne.jpのようなMicrosoftが提供していないメールアドレスしかなければ、新たに作ることになります。以降では、新たに作る手順を示します。</t>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>タズ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>アナタ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="244" eb="245">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="252" eb="253">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「作成できます」の「作成」をクリックします。</t>
-    <rPh sb="1" eb="3">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既に持っているメールアドレスでMicrosoftアカウントを作るように案内されますが、混乱を避けるため、「新しいメールアドレスを取得」を選びます。</t>
-    <rPh sb="0" eb="1">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>アンナイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コンラン</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本語で設定している場合、@outlook.jpドメインのメールアドレスを取得することができます。@マークの前の名前部分を決めましょう。
-ここで注意しないといけないのは、この名前部分の最初の5文字がこのパソコンでの貴方のアカウントとして使われるということです。この例だとhirodというアカウントになってしまいます。他の人と名前が衝突しないよう、ある程度特徴的な5文字で始まるようにしてください。</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>アナタ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="177" eb="180">
-      <t>トクチョウテキ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今作ったメールアドレスのパスワードを設定します。</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このメールアドレスの所有者の名前を設定します。半角英数で設定するのが安全です。</t>
-    <rPh sb="10" eb="13">
-      <t>ショユウシャ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>エイスウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>アンゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地域と生年月日を設定します。</t>
-    <rPh sb="0" eb="2">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードを忘れたときの連絡先メールアドレスを設定します。携帯電話やスマートフォンのメールアドレスでも構いません。また、メールの追加ではなく、SMSが受け取れる電話番号を登録することもできます。</t>
-    <rPh sb="6" eb="7">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケイタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顔認証機能を勧められますが、急いで設定する必要はありません。スキップで進めます。</t>
-    <rPh sb="0" eb="1">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イソ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows11にログインするためのPINコード(暗証番号)を設定します。初期状態では数字のみ使用可能です。1234や1111のような推測され易いものは設定を拒否されます。</t>
-    <rPh sb="26" eb="28">
-      <t>アンショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>スイソク</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>キョヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プライバシー設定の選択を行います。沢山設定がありますが、最初は全てオフにして情報の提供を拒否します。後から必要に応じて許可しましょう。スクロールしないと全ての項目が見られないので、注意してください。全てオフにしたら「同意」で進めます。</t>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タクサン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キョヒ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加機能に関して聞かれますが、広告のためのカスタマイズということなので、スキップで進めましょう。</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウコク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OneDriveでのバックアップについて聞かれますが、ここでOneDriveを使うと皆さんのデータはお使いのパソコンではなく、先に作ったMicrosoftアカウントに保存されるようになります。先に作ったMicrosoftアカウントは無料アカウントであるため、すぐいっぱいになってしまうので、ここでは「このPCにのみファイルを保存する」を選びましょう。</t>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面が黒くなり、デスクトップ環境の設定がはじまります。しばらく待ちましょう。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デスクトップ環境に入ると、なにかのウィンドウが既に1つ開いています。これは一番下に並んでいるアイコンのうち、Windowsのマークのボタン(スタートボタン)を押すと出てくるウィンドウです。これを以降ではスタートメニューと呼びます。</t>
-    <rPh sb="6" eb="8">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>chartn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このウィンドウの上段にある検索フォームに「bitlocker」と入力し、BitLockerアプリがインストールされているかを調べます。「BitLockerの管理」アプリが見つかった場合はこれを起動します。</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウダン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>シラ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1851,81 +1087,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタートメニューから、歯車のようなアイコンの「設定」アプリを起動しましょう</t>
-    <rPh sb="11" eb="13">
-      <t>ハグルマ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左側のリストから「アカウント」を選択し、右側にアカウントに関するメニューを表示させます。さらに「ユーザの情報」に進みます。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ユーザの情報」を選ぶと、現在使っているアカウントの情報が表示されます。その中に「アカウントの設定」があり、「ローカルアカウントでのサインインに切り替える」という機能があります。これをクリックします。</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BitLockerがインストールされていた場合は、回復キーをバックアップするように勧められます。先ほどバックアップしたので、この手順はスキップできます。BitLockerがインストールされていない場合は自動的に次に進みます。</t>
     <rPh sb="21" eb="23">
       <t>バアイ</t>
@@ -1953,138 +1114,6 @@
     </rPh>
     <rPh sb="107" eb="108">
       <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカルアカウントに切り替えることの確認を求められます。「次へ」で進めます。</t>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在のMicrosoftアカウントにサインインを求められます。パスワードの下にMicrosoftアカウントとして作成したメールアドレスがあることに注意してください。このMicrosoftアカウント用に貴方が作成したパスワードを入力し、「OK」で進めます。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカルアカウント名はシステムが提案するものをそのまま使います。パスワード(2回入力します)、またパスワードを思い出すヒントを入力し、「次へ」で進めます。</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在のMicrosoftアカウントからサインアウトするよう求められます。「サインアウトと完了」を押します。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows11のログインパネルになります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面 の背景 をクリックすると作成したPINコードを求められます。最初に作成したMicrosoftアカウントのPINコードが引き継がれています。先ほど設定したパスワードではないことに注意しましょう。</t>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2220,6 +1249,142 @@
  Information Media Center, Hiroshima University&lt;br&gt;
  Hiroshima Univesity Coop shop 
  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For first, choose the regional culture which your computer is configured for.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you do not touch the keyboard or mouse, the computer starts to guide you by audio message. If it is bothering for you, please click the speaker icon and disable the audio guide.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Choose the keymap of your computer. If you bought your computer in Japanese market (without detailed instruction of the hardware), please be careful that the keymap can be different from the world-wide US keymap.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The computer ask whether you need the extra keymap. If no need, you can skip.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows11 starts its own updating. It needs 10 minutes or so, depending on your speed of the network environment.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The license of your copy of Windows11 is displayed. Please read it carefully (it is quite long). If you can accept, click the "Accept" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The computer asks for its "computer name". If you have already decided the name for this computer, please give it (it may cause a restart of your computer). If you have no idea at present, click the "Skip for now".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You will be asked to add your "Microsoft account" to your computer. If you already have an email address in "@outlook.com" or "@outlook.jp", it would be an existing "Microsoft account" of you. The email addresses provided by Google, Yahoo, etc are not "Microsoft account", because their services are not provided by Microsoft. In below, we present the procedure to create new email address and reated Microsoft account.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Create one!".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You will be asked to create new Microsoft account by your existing (non-Microsoft) email. But to minimize the possible confusion, please click "Get a new email address".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You will be guided to create new email account at "@outlook.com". Please input the name for that. You should be careful that the first 5 letters would be used as a shorthand account name in your computer (in this case, "hirod" would be it). Please make the first 5 letters of your account sufficiently distinctive.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please set the password for the account.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please set the full name of your account.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please set the region and your birthday.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please set the alternative email address. It would be used when you lost the password of this new email account. Sometimes Microsoft would send onetime passcode to confirm your access.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked to configure the identification by your face. You can skipt it for now.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please set the "PIN" code to login your computer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please configure the privacy setting. Basically it asks you to provide your privacy information to Microsoft and related companies, for the targetting advertisement. You can disable all switches.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked for the customization of your experinece. Again it is the targetting advertisement, you do not have to choose any, please click "Skip".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked to the backup with OneDrive service of your "Microsoft account". The "Microsoft account" you got now is a non-charged account, so its capacity is much little (5GB) which you can exceed it soon. To minimize the trouble caused by the overflow, choose "Only save files to this PC".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The screen would be darken, and the preparation for your desktop environment starts.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the window.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The start menu has a searching form on the top of the window. Please type "BitLocker" in it, and check the availability. If there is...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please open "start menu" window, and click the "gear" icon, and start "setting" application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On the left side list, you can find "Accounts" menu. Please select it and make the right side of the window to "Accounts" pane. Then, click "Your info" in the right side.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In "Account settings", there is "Sign in with a local account instead". Please click it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be confirmed to switch from a Microsoft account to a local account. Please click "Next" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked to sign-in to your Microsoft account. Please input the password for your Microsoft account. As the account info under the password form is related with outlook.com, it is not related with any Hiroshima University system.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked to set the local account name, password (2 times), and the secret question. Please do not change the "User name" from the name drafted by your system. You may expect that it can be changed to longer name. But the system does not change it internally (e.g. your home directory name would not be changed). To avoid the troubles caused by the mismatch, please do not change it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked to sign-out from your current Microsoft account.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Once you signed-out, the desktop is changed to the default login panel of Windows11.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click somewhere of the background of the login panel. You would be asked to input your PIN code (not the password you configured a few minutes ago). If you want to use the password, you can remove the PIN code from "Settings &gt; Accounts &gt; Sign-in options".</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2617,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2650,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2658,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2692,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2734,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2763,79 +1928,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2843,27 +2008,27 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2871,38 +2036,36 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s" ph="1">
-        <v>192</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" ph="1"/>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2910,38 +2073,38 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2949,13 +2112,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2963,266 +2126,266 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s" ph="1">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D40" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s" ph="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s" ph="1">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9800419-382A-4C61-B284-43A676B7BB0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E771C6-1CAD-4411-94E1-9BFDC5B70F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1857,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E771C6-1CAD-4411-94E1-9BFDC5B70F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAEFBC8-517D-4FB4-B7D8-1867599F877A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
   <si>
     <t>header1</t>
   </si>
@@ -1009,115 +1009,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BitLockerがインストールされていない場合はこの項は無視してください。「BitLockerドライブ暗号化」のウィンドウに、「回復キーのバックアップ」があるので、これをクリックします。</t>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ムシ</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BitLockerがインストールされていない場合 はこの項 は無視 してください。「回復キーのバックアップ方法」を選択します。もしUSBフラッシュメモリがあれば、それをコンピュータに取り付け、「ファイルを保存する」で進めます。もし無い場合には「Microsoftアカウントに保存する」を選びます。</t>
-    <rPh sb="42" eb="44">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BitLockerがインストールされていない場合 はこの項 は無視 してください。保存が完了すると「キャンセル」ボタンが「完了」ボタンになります。これを押し、さらにBitLockerドライブ暗号化のウィンドウも閉じます。</t>
-    <rPh sb="41" eb="43">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BitLockerがインストールされていた場合は、回復キーをバックアップするように勧められます。先ほどバックアップしたので、この手順はスキップできます。BitLockerがインストールされていない場合は自動的に次に進みます。</t>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="101" eb="104">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-speaker.png</t>
   </si>
   <si>
@@ -1190,46 +1081,7 @@
     <t>win11en-desktop.png</t>
   </si>
   <si>
-    <t>win11en-search-bitlocker.png</t>
-  </si>
-  <si>
-    <t>win11en-bitlocker.png</t>
-  </si>
-  <si>
-    <t>win11en-bitlocker-recovery-key.png</t>
-  </si>
-  <si>
-    <t>win11en-bitlocker-recovery-key-ok.png</t>
-  </si>
-  <si>
-    <t>win11en-gear.png</t>
-  </si>
-  <si>
     <t>win11en-setting-account.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-account-info.png</t>
-  </si>
-  <si>
-    <t>win11en-backup-bitlocker-recovery-key.png</t>
-  </si>
-  <si>
-    <t>win11en-change-to-localaccount.png</t>
-  </si>
-  <si>
-    <t>win11en-signin-msaccount.png</t>
-  </si>
-  <si>
-    <t>win11en-set-localaccount-password.png</t>
-  </si>
-  <si>
-    <t>win11en-set-localaccount-ask-signout.png</t>
-  </si>
-  <si>
-    <t>win11en-login-panel.png</t>
-  </si>
-  <si>
-    <t>win11en-login-pin.png</t>
   </si>
   <si>
     <t>win11en-select-loca.png</t>
@@ -1348,43 +1200,80 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The start menu has a searching form on the top of the window. Please type "BitLocker" in it, and check the availability. If there is...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please open "start menu" window, and click the "gear" icon, and start "setting" application.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>On the left side list, you can find "Accounts" menu. Please select it and make the right side of the window to "Accounts" pane. Then, click "Your info" in the right side.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>In "Account settings", there is "Sign in with a local account instead". Please click it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You would be confirmed to switch from a Microsoft account to a local account. Please click "Next" button.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You would be asked to sign-in to your Microsoft account. Please input the password for your Microsoft account. As the account info under the password form is related with outlook.com, it is not related with any Hiroshima University system.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You would be asked to set the local account name, password (2 times), and the secret question. Please do not change the "User name" from the name drafted by your system. You may expect that it can be changed to longer name. But the system does not change it internally (e.g. your home directory name would not be changed). To avoid the troubles caused by the mismatch, please do not change it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You would be asked to sign-out from your current Microsoft account.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Once you signed-out, the desktop is changed to the default login panel of Windows11.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click somewhere of the background of the login panel. You would be asked to input your PIN code (not the password you configured a few minutes ago). If you want to use the password, you can remove the PIN code from "Settings &gt; Accounts &gt; Sign-in options".</t>
+    <t>In "Account settings", there is "Family &amp; other users" in the right side list. Please click it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-setting-account-others.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Add account" button on "Other users". If you add a family member, you would be asked to configure parental setting, it is not independent from the current "Microsoft account".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-account-others-add.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked for the method for the new account to sign in. Please choose "I don't have this person's sign-in information".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-new-account-signin-info.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-new-account-create.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked for an email account for the new account. Please choose "Add a new account without a Microsoft account".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked to set the new account name, new password (2 times), and 3 secret questions. It is recommended to set the new account name by alphabets, digits, hyphen "-", plus "+" and underscore "_".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-local-account-setting.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-local-account-listed.png</t>
+  </si>
+  <si>
+    <t>You would find the new account is listed in "Other users". Please expand the list for this new local account.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-local-account-type.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Change account type" in the expanded list.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would receive a dialogue to choose the account type. Please choose the "Administrator" type for future maintenance, and push "OK".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-change-account-type.png</t>
+  </si>
+  <si>
+    <t>win11en-change-account-type-adm.png</t>
+  </si>
+  <si>
+    <t>You would find that the new account is now typed as an Administrator for this computer.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1815,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1823,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1857,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1899,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1933,13 +1822,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1947,13 +1836,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1961,21 +1850,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1983,24 +1872,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2008,13 +1897,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2022,13 +1911,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2036,13 +1925,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2051,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2059,13 +1948,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2073,24 +1962,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2098,13 +1987,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2112,13 +2001,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2126,267 +2015,232 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s" ph="1">
         <v>183</v>
       </c>
       <c r="D32" t="s" ph="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s" ph="1">
-        <v>254</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="C33" t="s" ph="1">
         <v>183</v>
       </c>
-      <c r="D33" t="s" ph="1">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s" ph="1">
-        <v>184</v>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C34" t="s" ph="1">
         <v>183</v>
       </c>
-      <c r="D34" t="s" ph="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D35" t="s" ph="1">
-        <v>214</v>
+        <v>241</v>
+      </c>
+      <c r="D35" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s" ph="1">
+        <v>241</v>
+      </c>
+      <c r="D37" t="s" ph="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s" ph="1">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s" ph="1">
+        <v>241</v>
+      </c>
+      <c r="D38" t="s" ph="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s" ph="1">
+        <v>250</v>
+      </c>
+      <c r="C39" t="s" ph="1">
+        <v>241</v>
+      </c>
+      <c r="D39" t="s" ph="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s" ph="1">
+        <v>252</v>
+      </c>
+      <c r="C40" t="s" ph="1">
+        <v>241</v>
+      </c>
+      <c r="D40" t="s" ph="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s" ph="1">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s" ph="1">
+        <v>241</v>
+      </c>
+      <c r="D41" t="s" ph="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s" ph="1">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s" ph="1">
+        <v>241</v>
+      </c>
+      <c r="D42" t="s" ph="1">
         <v>255</v>
       </c>
-      <c r="C37" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D37" t="s" ph="1">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C39" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s" ph="1">
-        <v>258</v>
-      </c>
-      <c r="C41" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D41" t="s" ph="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s" ph="1">
-        <v>259</v>
-      </c>
-      <c r="C42" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D42" t="s" ph="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s" ph="1">
-        <v>260</v>
-      </c>
-      <c r="C43" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s" ph="1">
-        <v>261</v>
-      </c>
-      <c r="C44" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>223</v>
-      </c>
+    </row>
+    <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" ph="1"/>
     </row>
     <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s" ph="1">
-        <v>262</v>
-      </c>
-      <c r="C45" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s" ph="1">
-        <v>263</v>
-      </c>
-      <c r="C46" t="s" ph="1">
-        <v>183</v>
-      </c>
-      <c r="D46" t="s" ph="1">
-        <v>225</v>
-      </c>
+      <c r="B45" s="1" ph="1"/>
+    </row>
+    <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" ph="1"/>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" ph="1"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAEFBC8-517D-4FB4-B7D8-1867599F877A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2304B5-E993-4FF8-B448-35CEE774C859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="255">
   <si>
     <t>header1</t>
   </si>
@@ -1200,18 +1200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>On the left side list, you can find "Accounts" menu. Please select it and make the right side of the window to "Accounts" pane. Then, click "Your info" in the right side.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In "Account settings", there is "Family &amp; other users" in the right side list. Please click it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-setting-account-others.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please click "Add account" button on "Other users". If you add a family member, you would be asked to configure parental setting, it is not independent from the current "Microsoft account".</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1274,6 +1262,10 @@
   </si>
   <si>
     <t>You would find that the new account is now typed as an Administrator for this computer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On the left side list, you can find "Accounts" menu. Please select it and make the right side of the window to "Accounts" pane. Then, please click "Family &amp; other users" in the right side list.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1746,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2125,7 +2117,7 @@
     </row>
     <row r="33" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s" ph="1">
         <v>183</v>
@@ -2134,26 +2126,26 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s" ph="1">
         <v>238</v>
-      </c>
-      <c r="C34" t="s" ph="1">
-        <v>183</v>
       </c>
       <c r="D34" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s" ph="1">
         <v>240</v>
       </c>
       <c r="C35" t="s" ph="1">
+        <v>238</v>
+      </c>
+      <c r="D35" t="s" ph="1">
         <v>241</v>
-      </c>
-      <c r="D35" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2161,80 +2153,72 @@
         <v>243</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s" ph="1">
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
         <v>247</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
+        <v>249</v>
+      </c>
+      <c r="C39" t="s" ph="1">
+        <v>238</v>
+      </c>
+      <c r="D39" t="s" ph="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s" ph="1">
         <v>250</v>
       </c>
-      <c r="C39" t="s" ph="1">
-        <v>241</v>
-      </c>
-      <c r="D39" t="s" ph="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s" ph="1">
-        <v>252</v>
-      </c>
       <c r="C40" t="s" ph="1">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D40" t="s" ph="1">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
         <v>253</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s" ph="1">
-        <v>256</v>
-      </c>
-      <c r="C42" t="s" ph="1">
-        <v>241</v>
-      </c>
-      <c r="D42" t="s" ph="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" ph="1"/>
+      <c r="B42" s="1" ph="1"/>
+    </row>
+    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" ph="1"/>
     </row>
     <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" ph="1"/>
@@ -2243,7 +2227,7 @@
       <c r="B46" s="1" ph="1"/>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" ph="1"/>
+      <c r="D47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2304B5-E993-4FF8-B448-35CEE774C859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2652F0-C82D-4F71-924F-48F4068D3ACA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
   <si>
     <t>header1</t>
   </si>
@@ -1265,7 +1265,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>On the left side list, you can find "Accounts" menu. Please select it and make the right side of the window to "Accounts" pane. Then, please click "Family &amp; other users" in the right side list.</t>
+    <t>On the left side list, you can find "Accounts" menu. Please select it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the right side of the window to "Accounts" pane. Then, please click "Family &amp; other users" in the right side list.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-gear.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1736,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2115,7 +2123,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>254</v>
       </c>
@@ -2123,102 +2131,110 @@
         <v>183</v>
       </c>
       <c r="D33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s" ph="1">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C34" t="s" ph="1">
-        <v>238</v>
-      </c>
-      <c r="D34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s" ph="1">
-        <v>240</v>
       </c>
       <c r="C35" t="s" ph="1">
         <v>238</v>
       </c>
-      <c r="D35" t="s" ph="1">
-        <v>241</v>
+      <c r="D35" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s" ph="1">
         <v>238</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s" ph="1">
         <v>238</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s" ph="1">
         <v>238</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s" ph="1">
         <v>238</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C40" t="s" ph="1">
         <v>238</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C41" t="s" ph="1">
         <v>238</v>
       </c>
       <c r="D41" t="s" ph="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s" ph="1">
+        <v>253</v>
+      </c>
+      <c r="C42" t="s" ph="1">
+        <v>238</v>
+      </c>
+      <c r="D42" t="s" ph="1">
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" ph="1"/>
-    </row>
-    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" ph="1"/>
+    <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" ph="1"/>
     </row>
     <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" ph="1"/>
@@ -2227,7 +2243,10 @@
       <c r="B46" s="1" ph="1"/>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="D47"/>
+      <c r="B47" s="1" ph="1"/>
+    </row>
+    <row r="48" spans="2:4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2652F0-C82D-4F71-924F-48F4068D3ACA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DAC608-1B33-49D7-9D5E-D59CF6B72F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,10 +1196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the window.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please click "Add account" button on "Other users". If you add a family member, you would be asked to configure parental setting, it is not independent from the current "Microsoft account".</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1265,15 +1261,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>On the left side list, you can find "Accounts" menu. Please select it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>In the right side of the window to "Accounts" pane. Then, please click "Family &amp; other users" in the right side list.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>win11en-gear.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the window. Please click the "gear" icon to start the "setting" application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On the left side list of the "setting" application window, you can find "Accounts" menu. Please select it.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2112,9 +2112,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s" ph="1">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C32" t="s" ph="1">
         <v>183</v>
@@ -2125,18 +2125,18 @@
     </row>
     <row r="33" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C33" t="s" ph="1">
         <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C34" t="s" ph="1">
         <v>183</v>
@@ -2147,90 +2147,90 @@
     </row>
     <row r="35" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s" ph="1">
         <v>237</v>
       </c>
-      <c r="C35" t="s" ph="1">
+      <c r="D35" t="s">
         <v>238</v>
-      </c>
-      <c r="D35" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
+        <v>239</v>
+      </c>
+      <c r="C36" t="s" ph="1">
+        <v>237</v>
+      </c>
+      <c r="D36" t="s" ph="1">
         <v>240</v>
-      </c>
-      <c r="C36" t="s" ph="1">
-        <v>238</v>
-      </c>
-      <c r="D36" t="s" ph="1">
-        <v>241</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
+        <v>243</v>
+      </c>
+      <c r="C38" t="s" ph="1">
+        <v>237</v>
+      </c>
+      <c r="D38" t="s" ph="1">
         <v>244</v>
-      </c>
-      <c r="C38" t="s" ph="1">
-        <v>238</v>
-      </c>
-      <c r="D38" t="s" ph="1">
-        <v>245</v>
       </c>
     </row>
     <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
+        <v>249</v>
+      </c>
+      <c r="C41" t="s" ph="1">
+        <v>237</v>
+      </c>
+      <c r="D41" t="s" ph="1">
         <v>250</v>
-      </c>
-      <c r="C41" t="s" ph="1">
-        <v>238</v>
-      </c>
-      <c r="D41" t="s" ph="1">
-        <v>251</v>
       </c>
     </row>
     <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DAC608-1B33-49D7-9D5E-D59CF6B72F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08126C-0DF9-4ABE-94C2-B329E9E80672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1269,11 +1269,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the window. Please click the "gear" icon to start the "setting" application.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>On the left side list of the "setting" application window, you can find "Accounts" menu. Please select it.</t>
+    <t>Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the window. Please click the "gear" icon to start the "Settings" application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On the left side list of the "Settings" application window, you can find "Accounts" menu. Please select it.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08126C-0DF9-4ABE-94C2-B329E9E80672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE086A3D-DB4C-4F28-811A-13D4F72CE1B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="267">
   <si>
     <t>header1</t>
   </si>
@@ -1274,6 +1274,45 @@
   </si>
   <si>
     <t>On the left side list of the "Settings" application window, you can find "Accounts" menu. Please select it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please open the "start menu" window again, and choose the "Sign out" menu from the lower left "human icon" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-sign-out-button.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-login-panel.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would see the default login panel of Windows11. Please click somewhere on the background.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-login-panel-multi-account.png</t>
+  </si>
+  <si>
+    <t>You would find the list of the available account of this computer. Please choose the account which you have just created. Please remember that new local account was configured without PIN code. Thus, if you've asked "PIN" instead of "password", it would be the Microsoft account.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked the privacy settings again. You can disable them again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Depending with the version of your Windows11, you would be asked about "Windows Hello" for your face recognition. You can skip it again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-winhello.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1746,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2234,16 +2273,59 @@
       </c>
     </row>
     <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" ph="1"/>
-    </row>
-    <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" ph="1"/>
+      <c r="B43" s="1" t="s" ph="1">
+        <v>257</v>
+      </c>
+      <c r="C43" t="s" ph="1">
+        <v>258</v>
+      </c>
+      <c r="D43" t="s" ph="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" t="s" ph="1">
+        <v>258</v>
+      </c>
+      <c r="D44" t="s" ph="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s" ph="1">
+        <v>263</v>
+      </c>
+      <c r="C45" t="s" ph="1">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>262</v>
+      </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" ph="1"/>
-    </row>
-    <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" ph="1"/>
+      <c r="B46" s="1" t="s" ph="1">
+        <v>264</v>
+      </c>
+      <c r="C46" t="s" ph="1">
+        <v>258</v>
+      </c>
+      <c r="D46" t="s" ph="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s" ph="1">
+        <v>265</v>
+      </c>
+      <c r="C47" t="s" ph="1">
+        <v>258</v>
+      </c>
+      <c r="D47" t="s" ph="1">
+        <v>266</v>
+      </c>
     </row>
     <row r="48" spans="2:4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE086A3D-DB4C-4F28-811A-13D4F72CE1B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FFB22-2781-490A-A225-0269834D6CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Know your PC's spec</t>
-  </si>
-  <si>
     <t>win10-1-01.svg</t>
   </si>
   <si>
@@ -442,10 +439,6 @@
   </si>
   <si>
     <t>win10-4-10e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Initial setting of your PC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1313,6 +1306,14 @@
   </si>
   <si>
     <t>win11en-winhello.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Initial setting of your PC (you can execute this chapter before getting your student ID.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Know your PC's spec (you can do this chapter before getting student ID.)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1735,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1743,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1751,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1765,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1783,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1803,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1811,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1819,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1827,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1847,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -1861,13 +1862,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1875,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1889,21 +1890,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s" ph="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s" ph="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1911,24 +1912,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1936,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1950,13 +1951,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1964,13 +1965,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1979,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1987,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2001,24 +2002,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2026,13 +2027,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2040,13 +2041,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2054,281 +2055,278 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s" ph="1">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s" ph="1">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s" ph="1">
+        <v>235</v>
+      </c>
+      <c r="D35" t="s">
         <v>236</v>
-      </c>
-      <c r="C35" t="s" ph="1">
-        <v>237</v>
-      </c>
-      <c r="D35" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
+        <v>255</v>
+      </c>
+      <c r="C43" t="s" ph="1">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s" ph="1">
         <v>257</v>
-      </c>
-      <c r="C43" t="s" ph="1">
-        <v>258</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>259</v>
       </c>
     </row>
     <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s" ph="1">
+        <v>256</v>
+      </c>
+      <c r="D44" t="s" ph="1">
         <v>258</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s" ph="1">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s" ph="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s" ph="1">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s" ph="1">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s" ph="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s" ph="1">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2341,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2366,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2374,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2390,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2404,13 +2402,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -2418,13 +2416,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2432,13 +2430,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -2446,13 +2444,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2499,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2507,12 +2505,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2520,13 +2518,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -2534,13 +2532,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2548,13 +2546,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2562,13 +2560,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2576,13 +2574,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2590,13 +2588,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2604,21 +2602,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2632,13 +2630,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2666,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2684,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2692,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2700,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2711,7 +2709,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2719,13 +2717,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2733,13 +2731,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2747,13 +2745,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2761,13 +2759,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2775,18 +2773,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2794,13 +2792,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2808,13 +2806,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2822,13 +2820,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2836,13 +2834,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2850,13 +2848,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2864,13 +2862,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2901,7 +2899,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2909,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2917,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2925,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2933,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2944,7 +2942,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -2952,18 +2950,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2971,37 +2969,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3009,13 +3007,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3023,18 +3021,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3042,21 +3040,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3064,13 +3062,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3078,13 +3076,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3092,13 +3090,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3106,13 +3104,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3120,13 +3118,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3165,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3181,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -3189,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3200,7 +3198,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3222,13 +3220,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3236,18 +3234,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3269,13 +3267,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,13 +3281,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3297,13 +3295,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3311,13 +3309,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3325,13 +3323,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3339,13 +3337,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3353,13 +3351,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3367,18 +3365,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3400,13 +3398,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3414,13 +3412,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3428,18 +3426,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3461,13 +3459,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3475,13 +3473,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3489,13 +3487,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3503,13 +3501,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3517,13 +3515,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3531,13 +3529,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3545,13 +3543,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3559,13 +3557,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3573,13 +3571,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3587,26 +3585,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3614,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -3628,13 +3626,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3642,21 +3640,21 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3664,13 +3662,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3709,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3717,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3725,7 +3723,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3736,7 +3734,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3744,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3755,7 +3753,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3763,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FFB22-2781-490A-A225-0269834D6CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9639A-0837-4820-917A-74F2C42C45B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -853,151 +853,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PCの電源を初めて入れて、デスクトップ画面が表示されるまでの設定手順について説明します。
-一番重要なのは、Windows11の初期設定にはネット環境とMicrosoftアカウントが必要なことです。広島大学の学生は広島大学が管理するMicrosoftアカウントを持ちますが、そのMicrosoftアカウントで初期設定すると卒業後にそのPCが使えなくなってしまいます。
-そのため、広島大学と無関係なMicrosoftアカウントを一時的に作成して初期設定を開始し、さらにネット環境が無くても使えるアカウントに変更します。容量は小さくても良いのでUSBフラッシュメモリを用意しておきましょう。
-すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。 Windows11はバージョン番号が同じでもバリエーションがあったり、出荷時期によって違いがあります。以下の手順の中で拒否しや設定しないで進めるとなっている項目がそもそも表示されないこともありますが、あわてないでください。</t>
-    <rPh sb="3" eb="5">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="160" eb="163">
-      <t>ソツギョウゴ</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="193" eb="196">
-      <t>ムカンケイ</t>
-    </rPh>
-    <rPh sb="211" eb="214">
-      <t>イチジテキ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="238" eb="239">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="251" eb="253">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="257" eb="259">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="265" eb="266">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="362" eb="364">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="365" eb="366">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="390" eb="391">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="410" eb="412">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="416" eb="417">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="425" eb="427">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="432" eb="434">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>chartn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1314,6 +1169,13 @@
   </si>
   <si>
     <t>Know your PC's spec (you can do this chapter before getting student ID.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In this chapter, the initialization procedure of your computer after the first power-on.
+The most important feature of Windows11 is the requirement of the Internet connectivity, and the requirement of a "Microsoft account". The students of Hirosima University would have a Microsoft account registered for Hiroshima University. But you should not use it for the initialization of your computer. Because when you graduate Hiroshima University, the account would be removed soon, and you would be disabled to use the Microsoft account provided by Hiroshima University, and you would loose the access of your computer. To avoid such trouble, you should obtain a Microsoft account for the initialization which is independent from Hiroshima University.
+In this chapter, you would create a new Microsoft account, and create another local account which is independent from Microsoft. The procedures in the chapter 1 and later should be operated by the local account.
+If you already have the desktop environment, you can skip this chapter and proceed to the chapter 1.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1744,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1752,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1786,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1812,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1828,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1843,12 +1705,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="183.6" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
@@ -1862,13 +1724,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1876,13 +1738,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1890,21 +1752,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1912,24 +1774,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1937,13 +1799,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1951,13 +1813,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1965,13 +1827,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1980,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1988,13 +1850,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2002,24 +1864,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2027,13 +1889,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2041,13 +1903,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2055,277 +1917,277 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" t="s" ph="1">
         <v>234</v>
       </c>
-      <c r="C35" t="s" ph="1">
+      <c r="D35" t="s">
         <v>235</v>
-      </c>
-      <c r="D35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s" ph="1">
+        <v>234</v>
+      </c>
+      <c r="D36" t="s" ph="1">
         <v>237</v>
-      </c>
-      <c r="C36" t="s" ph="1">
-        <v>235</v>
-      </c>
-      <c r="D36" t="s" ph="1">
-        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s" ph="1">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s" ph="1">
         <v>241</v>
-      </c>
-      <c r="C38" t="s" ph="1">
-        <v>235</v>
-      </c>
-      <c r="D38" t="s" ph="1">
-        <v>242</v>
       </c>
     </row>
     <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s" ph="1">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s" ph="1">
         <v>247</v>
-      </c>
-      <c r="C41" t="s" ph="1">
-        <v>235</v>
-      </c>
-      <c r="D41" t="s" ph="1">
-        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
+        <v>254</v>
+      </c>
+      <c r="C43" t="s" ph="1">
         <v>255</v>
       </c>
-      <c r="C43" t="s" ph="1">
+      <c r="D43" t="s" ph="1">
         <v>256</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>257</v>
       </c>
     </row>
     <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s" ph="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C46" t="s" ph="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s" ph="1">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s" ph="1">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s" ph="1">
+        <v>255</v>
+      </c>
+      <c r="D47" t="s" ph="1">
         <v>263</v>
-      </c>
-      <c r="C47" t="s" ph="1">
-        <v>256</v>
-      </c>
-      <c r="D47" t="s" ph="1">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2364,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9639A-0837-4820-917A-74F2C42C45B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E136ADC-0FC7-4F3E-86FC-4BD0D2DCBB04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="9" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="5" r:id="rId4"/>
-    <sheet name="ch3" sheetId="6" r:id="rId5"/>
-    <sheet name="ch4" sheetId="4" r:id="rId6"/>
-    <sheet name="ch5" sheetId="7" r:id="rId7"/>
+    <sheet name="ch2" sheetId="6" r:id="rId4"/>
+    <sheet name="ch3" sheetId="4" r:id="rId5"/>
+    <sheet name="ch4" sheetId="7" r:id="rId6"/>
+    <sheet name="ch5" sheetId="5" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
+    <sheet name="ch7" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="269">
   <si>
     <t>header1</t>
   </si>
@@ -208,9 +209,6 @@
     <t>win10-5-09.svg</t>
   </si>
   <si>
-    <t>Office365, MOMIJI, Bb9, and others…</t>
-  </si>
-  <si>
     <t>Log in to the online services provided in Hiroshima University</t>
   </si>
   <si>
@@ -721,10 +719,6 @@
     <t>ch4-excel-signin-password.png</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">First of all, you will learn how to know your PC&amp;apos;s &amp;quot;spec&amp;quot;. Sometimes the word &amp;quot;spec&amp;quot; indicates some features which tell you the capability of your PC. Here, find these specs in the list below;
 &lt;ol&gt;&lt;li&gt; OS version &lt;/li&gt;
 &lt;li&gt; Main memory capacity &lt;/li&gt;
@@ -739,26 +733,6 @@
 &lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
 When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
    </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10en conclusion</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1176,6 +1150,42 @@
 The most important feature of Windows11 is the requirement of the Internet connectivity, and the requirement of a "Microsoft account". The students of Hirosima University would have a Microsoft account registered for Hiroshima University. But you should not use it for the initialization of your computer. Because when you graduate Hiroshima University, the account would be removed soon, and you would be disabled to use the Microsoft account provided by Hiroshima University, and you would loose the access of your computer. To avoid such trouble, you should obtain a Microsoft account for the initialization which is independent from Hiroshima University.
 In this chapter, you would create a new Microsoft account, and create another local account which is independent from Microsoft. The procedures in the chapter 1 and later should be operated by the local account.
 If you already have the desktop environment, you can skip this chapter and proceed to the chapter 1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office365, Moodle, MOMIJI, Bb9, and others…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appendix</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1598,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1606,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1614,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1628,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1648,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1674,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1682,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1690,14 +1700,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" ph="1"/>
+      <c r="B6" s="1" t="s" ph="1">
+        <v>259</v>
+      </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1705,32 +1717,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D8" t="s" ph="1">
-        <v>206</v>
+      <c r="D8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1738,74 +1750,74 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>211</v>
-      </c>
-      <c r="C9" t="s" ph="1">
+        <v>205</v>
+      </c>
+      <c r="D9" t="s" ph="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s" ph="1">
-        <v>212</v>
-      </c>
       <c r="D10" t="s" ph="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1813,89 +1825,89 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s" ph="1">
-        <v>218</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" ph="1"/>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" ph="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s" ph="1">
+        <v>212</v>
+      </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s" ph="1">
-        <v>4</v>
-      </c>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1903,292 +1915,281 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s" ph="1">
-        <v>4</v>
-      </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s" ph="1">
-        <v>252</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>180</v>
-      </c>
-      <c r="D32" t="s" ph="1">
-        <v>204</v>
+        <v>173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s" ph="1">
+        <v>229</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>234</v>
-      </c>
-      <c r="D35" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+      <c r="D35" t="s" ph="1">
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s" ph="1">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s" ph="1">
         <v>234</v>
       </c>
-      <c r="D37" t="s" ph="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D39" t="s" ph="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s" ph="1">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s" ph="1">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s" ph="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s" ph="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s" ph="1">
-        <v>245</v>
-      </c>
-      <c r="C40" t="s" ph="1">
-        <v>234</v>
-      </c>
-      <c r="D40" t="s" ph="1">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s" ph="1">
-        <v>246</v>
-      </c>
       <c r="C41" t="s" ph="1">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
+        <v>247</v>
+      </c>
+      <c r="C42" t="s" ph="1">
+        <v>248</v>
+      </c>
+      <c r="D42" t="s" ph="1">
         <v>249</v>
       </c>
-      <c r="C42" t="s" ph="1">
-        <v>234</v>
-      </c>
-      <c r="D42" t="s" ph="1">
+    </row>
+    <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" t="s" ph="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s" ph="1">
+      <c r="D43" t="s" ph="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s" ph="1">
+        <v>253</v>
+      </c>
+      <c r="C44" t="s" ph="1">
+        <v>248</v>
+      </c>
+      <c r="D44" t="s" ph="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s" ph="1">
         <v>254</v>
       </c>
-      <c r="C43" t="s" ph="1">
+      <c r="C45" t="s" ph="1">
+        <v>248</v>
+      </c>
+      <c r="D45" t="s" ph="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s" ph="1">
         <v>255</v>
       </c>
-      <c r="D43" t="s" ph="1">
+      <c r="C46" t="s" ph="1">
+        <v>248</v>
+      </c>
+      <c r="D46" t="s" ph="1">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C44" t="s" ph="1">
-        <v>255</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s" ph="1">
-        <v>260</v>
-      </c>
-      <c r="C45" t="s" ph="1">
-        <v>255</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s" ph="1">
-        <v>261</v>
-      </c>
-      <c r="C46" t="s" ph="1">
-        <v>255</v>
-      </c>
-      <c r="D46" t="s" ph="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s" ph="1">
-        <v>262</v>
-      </c>
-      <c r="C47" t="s" ph="1">
-        <v>255</v>
-      </c>
-      <c r="D47" t="s" ph="1">
-        <v>263</v>
-      </c>
+    <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="D47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2202,7 +2203,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2226,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2250,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2264,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2278,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2306,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2323,11 +2324,244 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2343,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2351,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2359,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2367,370 +2601,208 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>102</v>
+    </row>
+    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2741,11 +2813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2761,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2777,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,15 +2857,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2804,26 +2876,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2831,162 +2912,441 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
+      <c r="B15" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s" ph="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2997,11 +3357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3017,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3025,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3033,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3041,511 +3401,152 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>96</v>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3561,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,58 +3578,44 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="198" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3637,4 +3624,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E70A2B-96AA-4C94-9421-5C006AEAF8E2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E136ADC-0FC7-4F3E-86FC-4BD0D2DCBB04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81ECE78-2020-4FC1-AAB0-F36A2584F260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,19 @@
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
     <sheet name="ch2" sheetId="6" r:id="rId4"/>
     <sheet name="ch3" sheetId="4" r:id="rId5"/>
-    <sheet name="ch4" sheetId="7" r:id="rId6"/>
-    <sheet name="ch5" sheetId="5" r:id="rId7"/>
-    <sheet name="ch6" sheetId="8" r:id="rId8"/>
-    <sheet name="ch7" sheetId="10" r:id="rId9"/>
+    <sheet name="ch4" sheetId="11" r:id="rId6"/>
+    <sheet name="ch5" sheetId="7" r:id="rId7"/>
+    <sheet name="ch6" sheetId="12" r:id="rId8"/>
+    <sheet name="ch7" sheetId="5" r:id="rId9"/>
+    <sheet name="ch8" sheetId="8" r:id="rId10"/>
+    <sheet name="ch9" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="303">
   <si>
     <t>header1</t>
   </si>
@@ -49,12 +51,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>win10-1-01.svg</t>
-  </si>
-  <si>
-    <t>win10-1-02.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
@@ -63,12 +59,6 @@
   </t>
   </si>
   <si>
-    <t>win10-1-03.svg</t>
-  </si>
-  <si>
-    <t>win10-1-04.svg</t>
-  </si>
-  <si>
     <t>Install required programs</t>
   </si>
   <si>
@@ -81,9 +71,6 @@
     <t xml:space="preserve">The installation will be completed in a minute!
 &lt;p class="spl"&gt;* You may realize that Microsoft Edge, as the default browser, has already been in Windows 10. But there are some web pages which cannot be displayed successfully by Microsoft Edge. In that case, you can use Google Chrome as the secondary browser.&lt;/p&gt;
   </t>
-  </si>
-  <si>
-    <t>win10-2-11.svg</t>
   </si>
   <si>
     <t>Set up your PC to connect to HINET Wi-Fi.</t>
@@ -164,41 +151,23 @@
   </t>
   </si>
   <si>
-    <t>win10-5-01.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click cog icon in the Start menu.
   </t>
   </si>
   <si>
-    <t>win10-5-02.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click “Update &amp;amp; Security”.
   </t>
   </si>
   <si>
-    <t>win10-5-03.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check the box for &amp;quot;Give me updates for other Microsoft products when I update Windows.&amp;quot; Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Windows Update&amp;quot; window.
   </t>
   </si>
   <si>
-    <t>win10-5-05.svg</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;Microsoft Defender -manual update and a full scan-&lt;/h2&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Click &amp;quot;Virus &amp;amp; threat protection&amp;quot;.
   </t>
-  </si>
-  <si>
-    <t>win10-5-07.svg</t>
-  </si>
-  <si>
-    <t>win10-5-08.svg</t>
   </si>
   <si>
     <t xml:space="preserve">When you click &amp;quot;Check for updates&amp;quot; button, Defender checks if there is the most recent &amp;quot;threat definition&amp;quot;. If so, &amp;quot;threat definition&amp;quot; will be updated. Usually, updates are checked automatically and you do not need to press the button.
@@ -394,9 +363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-17.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Input your &amp;quot;HIRODAI mail&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
   </t>
     <phoneticPr fontId="1"/>
@@ -412,14 +378,6 @@
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;IMC web site&lt;/a&gt;
 . It&amp;apos;s Japanese only. Please check Google translation menu at the bottom of right column.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-04e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-06e.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -488,22 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-2-42.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-43.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-44.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-10a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Click &amp;quot;Accept and Install&amp;quot;
 </t>
     <phoneticPr fontId="1"/>
@@ -532,30 +474,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-5-13a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Click &amp;quot;Yes&amp;quot. to allow this app to make changes to your device.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-12.svg</t>
-  </si>
-  <si>
-    <t>win10-5-23.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Input HIRODAI password and click &amp;quot;Sign in&amp;quot;.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;I agree&amp;quot;.
-Now you can use Microsoft Office applications!&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -574,20 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-4-01.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-41.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; Wait &lt;it&gt;a few&lt;/it&gt; minutes.
-Click &amp;quot;Finish&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Run &amp;quot;Excel&amp;quot; in your PC.
 &lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. Please contact helpdesk. See chapter 6. &lt;/p&gt;</t>
     <phoneticPr fontId="1"/>
@@ -701,22 +607,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ch4-signin-only-this-application.png</t>
-  </si>
-  <si>
-    <t>You don't have to permit the administration of your PC to the organization, proceed by "No, sign in to this app only".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Input HIRODAI mailaddress（b21xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
   </t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch4-excel-signin.png</t>
-  </si>
-  <si>
-    <t>ch4-excel-signin-password.png</t>
   </si>
   <si>
     <t xml:space="preserve">First of all, you will learn how to know your PC&amp;apos;s &amp;quot;spec&amp;quot;. Sometimes the word &amp;quot;spec&amp;quot; indicates some features which tell you the capability of your PC. Here, find these specs in the list below;
@@ -831,18 +724,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-speaker.png</t>
-  </si>
-  <si>
     <t>win11en-select-keymap.png</t>
   </si>
   <si>
     <t>win11en-select-keymap2.png</t>
   </si>
   <si>
-    <t>win11en-connect-internet.png</t>
-  </si>
-  <si>
     <t>win11en-connect-internet-ok.png</t>
   </si>
   <si>
@@ -904,10 +791,6 @@
   </si>
   <si>
     <t>win11en-setting-account.png</t>
-  </si>
-  <si>
-    <t>win11en-select-loca.png</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FRESTA-TEXT-2022 Win11 chap.0</t>
@@ -1026,22 +909,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-account-others-add.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>You would be asked for the method for the new account to sign in. Please choose "I don't have this person's sign-in information".</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-new-account-signin-info.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-new-account-create.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>You would be asked for an email account for the new account. Please choose "Add a new account without a Microsoft account".</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1050,10 +921,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-local-account-setting.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-local-account-listed.png</t>
   </si>
   <si>
@@ -1061,10 +928,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-local-account-type.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please click "Change account type" in the expanded list.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1073,9 +936,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-change-account-type.png</t>
-  </si>
-  <si>
     <t>win11en-change-account-type-adm.png</t>
   </si>
   <si>
@@ -1087,10 +947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-gear.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the window. Please click the "gear" icon to start the "Settings" application.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1107,14 +963,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11en-sign-out-button.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-login-panel.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>You would see the default login panel of Windows11. Please click somewhere on the background.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1131,10 +979,6 @@
   </si>
   <si>
     <t>Depending with the version of your Windows11, you would be asked about "Windows Hello" for your face recognition. You can skip it again.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-winhello.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1157,18 +1001,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11en chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11en chap.3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1187,6 +1023,960 @@
   <si>
     <t>Appendix</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-gear.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-select-lang.png</t>
+  </si>
+  <si>
+    <t>win11en-select-loca.png</t>
+  </si>
+  <si>
+    <t>win11en-gear.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-system.png</t>
+  </si>
+  <si>
+    <t>win11en-account-others-add.png</t>
+  </si>
+  <si>
+    <t>win11en-new-account-signin-info.png</t>
+  </si>
+  <si>
+    <t>win11en-new-account-create.png</t>
+  </si>
+  <si>
+    <t>win11en-local-account-setting.png</t>
+  </si>
+  <si>
+    <t>win11en-local-account-type-menu.png</t>
+  </si>
+  <si>
+    <t>win11en-local-account-type.png</t>
+  </si>
+  <si>
+    <t>win11en-sign-out-button.png</t>
+  </si>
+  <si>
+    <t>win11en-login-panel.png</t>
+  </si>
+  <si>
+    <t>win11en-login-local-account.png</t>
+  </si>
+  <si>
+    <t>win11en-desktop-no-annot.png</t>
+  </si>
+  <si>
+    <t>win11ja-setting-system-only.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-setting-version-info.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-setting-version-detail.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-test-keyboard.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-setting-timezone.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-setting-jpn.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-setting-keyboard.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-setting-keyboard-change.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-windows-update.png</t>
+  </si>
+  <si>
+    <t>win11ja-windows-update-option.png</t>
+  </si>
+  <si>
+    <t>win11ja-setting-security.png</t>
+  </si>
+  <si>
+    <t>win11ja-setting-security2.png</t>
+  </si>
+  <si>
+    <t>win11ja-windows-security.png</t>
+  </si>
+  <si>
+    <t>win11ja-start-full-scan.png</t>
+  </si>
+  <si>
+    <t>win11ja-scan-progress.png</t>
+  </si>
+  <si>
+    <t>win11ja-start-edge-taskbar.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-edge-prep1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-edge-prep2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-edge-prep3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-edge-layout.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-edge-search-chrome.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-google-chrome-download-page.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-edge-download-file.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-explorer.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-google-chrome-desktop.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-chrome-install-check.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11ja-chrome-hello.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学のオンライン学習支援システムMoodleにログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
+    <rPh sb="0" eb="4">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moodleへのログインと多要素認証（MFA）の設定 (学生番号が必要です)</t>
+    <rPh sb="13" eb="18">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresta</t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Windows11 chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学で提供されているオンラインサービスはいくつもありますが、まずオンライン学習支援システムのMoodleにログインしてみましょう。
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;Moodleにログインする&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;多要素認証(MFA)の設定&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="137" eb="142">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;Moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
+    <rPh sb="38" eb="40">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Moodle」は、オープンソースで提供されているオンライン学習支援システムです。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+</t>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+「広大IDでログイン」をクリックしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ガクシュウシエン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するとログイン画面が開きます。
+「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
+入力したら「ログイン」をクリックします。
+ ※ このテキストの第２章などで広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
+    <rPh sb="146" eb="148">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirodaiID-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインしたら、この画面が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
+真ん中に見える「コース概要」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（この図は在学生向けの一例で、新入生に表示されるものとは異なります）
+新入生向けに共通で表示されるものを簡単に説明すると：
+&lt;dl&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;MFA21 MFA設定ガイド&lt;/dt&gt;
+&lt;dd&gt;広島大学ではパスワード窃取・アカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
+</t>
+    <rPh sb="56" eb="57">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="174" eb="177">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="333" eb="335">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="336" eb="337">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="348" eb="349">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="401" eb="403">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="416" eb="420">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="427" eb="429">
+      <t>セッシュ</t>
+    </rPh>
+    <rPh sb="435" eb="436">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="452" eb="453">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="457" eb="460">
+      <t>コウセイイン</t>
+    </rPh>
+    <rPh sb="461" eb="462">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="474" eb="476">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="479" eb="484">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="489" eb="491">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="492" eb="495">
+      <t>ギムヅ</t>
+    </rPh>
+    <rPh sb="507" eb="509">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="515" eb="519">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="523" eb="525">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="526" eb="527">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="531" eb="533">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="534" eb="536">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-top.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;多要素認証(MFA)の設定&lt;/h2&gt; </t>
+    <rPh sb="22" eb="27">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moodleの「コース概要」の中の「MFA21 MFA設定ガイド」をクリックして、まず表示される「広大IDとIMCアカウントの概要」を読んでください。</t>
+    <rPh sb="11" eb="13">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下の方にある「IMCアカウントのMFA設定」の説明に従ってIMCアカウントの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="38" eb="43">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下の方にある「広大IDのMFA設定」の説明に従って広大IDの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="30" eb="35">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Office を使えるようにしましょう。</t>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Officeのサインイン (学生番号が必要です)</t>
+    <rPh sb="24" eb="26">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11 chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Officeにサインインします。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Microsoft Officeのサインイン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>広島大学では、学生の皆さんの個人所有のPCにMicrosoft Office365 Pro Plusを5台までインストールすることができる包括ライセンスを結んでいます。ただし、卒業して学籍を失うと、利用することができなくなってしまいます。ご自分で別途Microsoft Officeを購入してインストールした方は、この章を飛ばしていただいて構いません。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学で情報サービスを使うときに必要な２種類のIDをもういちど確認しましょう。二種類とも学生番号をもとにしています。
+一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
+対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
+IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第6章で紹介します。
+  </t>
+    <rPh sb="21" eb="23">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Microsoft Officeを入れる&lt;/h2&gt;</t>
+    <rPh sb="42" eb="43">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">それでは、まずMicrosoft Officeが既にインストールされているか確認しましょう。タスクバーのスタートボタンを押し、スタートメニューを開きます。その中にWord, Excel, PowerPointなどがあれば既にインストールされているのですが、見つからない場合には検索フォームにExcelなどと入力して探します。Excelが見つからない場合は、まだPCにOfficeがインストールされていないようです。まずダウンロードしてインストールする必要があります。このテキストの後ろにある「（付録A）Officeのダウンロード」の章に進んでください。
+  </t>
+    <rPh sb="24" eb="25">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のMicrosoft OfficeにはMicrosoftアカウントと関係なく使える(買い切り版と言われます)Microsoft Office 2021と、Microsoftアカウントに対して一定期間の使用許諾が与えられる(または購入)できるMicrosoft Office 365の2つがあります。PCショップでOffice2021プリインストールモデルを買った場合はすぐ使える筈ですが、Office365プリインストールの場合にはMicrosoftアカウントとの関連付けが求められます。広島大学のOffice365アカウントを使うために「別のアカウントを使用する」をクリックして進めます。さらに「サインイン」で進めます。
+手動でOffice365をインストールした場合は、「続行」で進めることができます。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="272" eb="273">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="280" eb="282">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="292" eb="293">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="308" eb="309">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="344" eb="345">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMCアカウント(@hiroshima-u.ac.jpを含む)を入力し、パスワードも入力します。</t>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「組織がデバイスを管理できるようにする」のチェックを外し、「いいえ、このアプリのみにサインインします」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
+&lt;p class="spl"&gt;※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものです。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ればいつでも読めるので、時間のある時に読んでおいてください。&lt;/p&gt;
+これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;strong&gt;広島大学のOffice365アカウントは卒業などで学籍を失うと無くなってしまうので、Office365がインストールされたままでも卒業後は使えなくなります。&lt;/strong&gt;
+以上でこの章の作業は終了です。</t>
+    <rPh sb="6" eb="8">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>タド</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-search-excel.png</t>
+  </si>
+  <si>
+    <t>win11en-office-license0a.png</t>
+  </si>
+  <si>
+    <t>win11en-office-license2.png</t>
+  </si>
+  <si>
+    <t>win11en-office-signin-limited.png</t>
+  </si>
+  <si>
+    <t>win11en-office-license-agreement.png</t>
   </si>
 </sst>
 </file>
@@ -1235,12 +2025,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1608,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1616,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1624,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1638,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1654,18 +2447,176 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E70A2B-96AA-4C94-9421-5C006AEAF8E2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
     <col min="4" max="4" width="27.5546875" customWidth="1" phonetic="1"/>
     <col min="5" max="16384" width="8.77734375" phonetic="1"/>
@@ -1676,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1684,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1692,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1700,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -1708,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1722,49 +2673,49 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="D8" t="s" ph="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1772,38 +2723,38 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1811,27 +2762,27 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1840,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1848,13 +2799,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1862,38 +2813,38 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1901,13 +2852,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1915,153 +2866,153 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s" ph="1">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s" ph="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>227</v>
-      </c>
-      <c r="D34" t="s">
-        <v>228</v>
+        <v>194</v>
+      </c>
+      <c r="D34" t="s" ph="1">
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s" ph="1">
         <v>230</v>
@@ -2069,127 +3020,130 @@
     </row>
     <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s" ph="1">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>227</v>
-      </c>
-      <c r="D37" t="s" ph="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s" ph="1">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>252</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s" ph="1">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s" ph="1">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s" ph="1">
-        <v>256</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="D47"/>
+      <c r="B47" s="1" ph="1"/>
+      <c r="D47" t="s" ph="1">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2200,9 +3154,1469 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s" ph="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" ph="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s" ph="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s" ph="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AC582-7A6D-4EA0-8C12-75B8749BA9E2}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s" ph="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45722500-6D63-48B1-B48D-DE8F55297416}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2219,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2227,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2235,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2243,1198 +4657,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3442,13 +4698,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3456,13 +4712,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3470,13 +4726,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3484,13 +4740,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3498,21 +4754,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3526,172 +4782,14 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E70A2B-96AA-4C94-9421-5C006AEAF8E2}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81ECE78-2020-4FC1-AAB0-F36A2584F260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC3606-CC23-454B-94D5-0BDD387FD582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="301">
   <si>
     <t>header1</t>
   </si>
@@ -825,19 +825,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Windows11 starts its own updating. It needs 10 minutes or so, depending on your speed of the network environment.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>The license of your copy of Windows11 is displayed. Please read it carefully (it is quite long). If you can accept, click the "Accept" button.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1027,9 +1019,6 @@
   <si>
     <t>win11ja-gear.png</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-select-lang.png</t>
   </si>
   <si>
     <t>win11en-select-loca.png</t>
@@ -1977,6 +1966,10 @@
   </si>
   <si>
     <t>win11en-office-license-agreement.png</t>
+  </si>
+  <si>
+    <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet. When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2484,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2551,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2567,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2609,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D47"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2659,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2679,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2692,9 +2685,7 @@
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D8" t="s" ph="1">
-        <v>226</v>
-      </c>
+      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
@@ -2723,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2733,8 +2724,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
@@ -2757,7 +2751,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s" ph="1">
         <v>4</v>
       </c>
@@ -2771,13 +2765,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s" ph="1">
-        <v>178</v>
-      </c>
+    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" ph="1"/>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
@@ -2785,8 +2774,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" ph="1"/>
+    <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s" ph="1">
+        <v>177</v>
+      </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
@@ -2794,12 +2788,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
@@ -2808,12 +2802,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s" ph="1">
-        <v>4</v>
-      </c>
+    <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
@@ -2822,9 +2813,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s" ph="1">
+        <v>4</v>
+      </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
@@ -2833,12 +2827,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
@@ -2852,7 +2846,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
@@ -2862,11 +2856,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s" ph="1">
-        <v>4</v>
-      </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -2875,9 +2866,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
@@ -2886,9 +2877,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
@@ -2899,7 +2890,7 @@
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
@@ -2908,9 +2899,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
@@ -2919,9 +2910,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
@@ -2930,9 +2921,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
@@ -2941,9 +2932,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
@@ -2952,197 +2943,191 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s" ph="1">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s" ph="1">
-        <v>205</v>
+    <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C31" t="s" ph="1">
         <v>143</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s" ph="1">
         <v>143</v>
       </c>
       <c r="D32" t="s" ph="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s" ph="1">
         <v>193</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
+        <v>194</v>
+      </c>
+      <c r="C35" t="s" ph="1">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s" ph="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s" ph="1">
         <v>195</v>
       </c>
-      <c r="C35" t="s" ph="1">
-        <v>194</v>
-      </c>
-      <c r="D35" t="s" ph="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s" ph="1">
-        <v>196</v>
-      </c>
       <c r="C36" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s" ph="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
         <v>197</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s" ph="1">
+        <v>192</v>
+      </c>
+      <c r="D38" t="s" ph="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s" ph="1">
         <v>199</v>
       </c>
-      <c r="C38" t="s" ph="1">
-        <v>194</v>
-      </c>
-      <c r="D38" t="s" ph="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s" ph="1">
-        <v>200</v>
-      </c>
       <c r="C39" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
         <v>201</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s" ph="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s" ph="1">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s" ph="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="D42" t="s" ph="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s" ph="1">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s" ph="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s" ph="1">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="D44" t="s" ph="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s" ph="1">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s" ph="1">
+        <v>206</v>
+      </c>
+      <c r="D45" t="s" ph="1">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s" ph="1">
-        <v>203</v>
-      </c>
-      <c r="C41" t="s" ph="1">
-        <v>194</v>
-      </c>
-      <c r="D41" t="s" ph="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s" ph="1">
-        <v>207</v>
-      </c>
-      <c r="C42" t="s" ph="1">
-        <v>208</v>
-      </c>
-      <c r="D42" t="s" ph="1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" t="s" ph="1">
-        <v>208</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s" ph="1">
-        <v>211</v>
-      </c>
-      <c r="C44" t="s" ph="1">
-        <v>208</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s" ph="1">
-        <v>212</v>
-      </c>
-      <c r="C45" t="s" ph="1">
-        <v>208</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s" ph="1">
-        <v>213</v>
-      </c>
-      <c r="C46" t="s" ph="1">
-        <v>208</v>
-      </c>
+    <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" ph="1"/>
       <c r="D46" t="s" ph="1">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" ph="1"/>
       <c r="D47" t="s" ph="1">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3197,7 +3182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3225,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3239,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3253,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3267,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3277,27 +3262,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3385,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3399,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3435,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3443,7 +3428,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3457,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3471,7 +3456,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3485,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3582,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3615,7 +3600,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3623,7 +3608,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3637,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3645,7 +3630,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,7 +3638,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3661,7 +3646,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3675,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3689,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3697,7 +3682,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3711,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3719,7 +3704,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3733,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3764,7 +3749,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3772,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3780,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3788,7 +3773,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3799,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3810,7 +3795,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3818,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3826,10 +3811,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3837,13 +3822,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3851,18 +3836,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3870,7 +3855,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3881,7 +3866,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3892,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3925,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3949,7 +3934,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -4469,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4477,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4485,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4515,12 +4500,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4528,7 +4513,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4539,7 +4524,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4547,21 +4532,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4569,13 +4554,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4583,13 +4568,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4597,13 +4582,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4657,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC3606-CC23-454B-94D5-0BDD387FD582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963C2935-BDF2-4643-AC3F-887C16D78E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="302">
   <si>
     <t>header1</t>
   </si>
@@ -1969,6 +1969,10 @@
   </si>
   <si>
     <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet. When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked about the default backup throught the network (designed for the computer owned by the organization). Please choose "Set up for personal use".</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2602,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2765,8 +2769,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" ph="1"/>
+    <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s" ph="1">
+        <v>301</v>
+      </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963C2935-BDF2-4643-AC3F-887C16D78E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70BAECB-2913-47FE-B482-8D2A8DE6CE5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70BAECB-2913-47FE-B482-8D2A8DE6CE5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A8C4C-ED16-49DB-AA84-5E61C90B610E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="301">
   <si>
     <t>header1</t>
   </si>
@@ -1025,9 +1025,6 @@
   </si>
   <si>
     <t>win11en-gear.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-system.png</t>
   </si>
   <si>
     <t>win11en-account-others-add.png</t>
@@ -2481,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2604,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2718,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -2978,8 +2975,8 @@
       <c r="C32" t="s" ph="1">
         <v>143</v>
       </c>
-      <c r="D32" t="s" ph="1">
-        <v>225</v>
+      <c r="D32" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -2989,8 +2986,8 @@
       <c r="C33" t="s" ph="1">
         <v>192</v>
       </c>
-      <c r="D33" t="s">
-        <v>166</v>
+      <c r="D33" t="s" ph="1">
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3022,7 +3019,7 @@
       <c r="C36" t="s" ph="1">
         <v>192</v>
       </c>
-      <c r="D36" t="s" ph="1">
+      <c r="D36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3033,8 +3030,8 @@
       <c r="C37" t="s" ph="1">
         <v>192</v>
       </c>
-      <c r="D37" t="s">
-        <v>229</v>
+      <c r="D37" t="s" ph="1">
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3045,7 +3042,7 @@
         <v>192</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3067,7 +3064,7 @@
         <v>192</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3078,7 +3075,7 @@
         <v>206</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -3100,7 +3097,7 @@
         <v>206</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3111,7 +3108,7 @@
         <v>206</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3122,18 +3119,13 @@
         <v>206</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>234</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" ph="1"/>
       <c r="D46" t="s" ph="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="D47" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3244,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3258,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3268,27 +3260,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3390,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3426,7 +3418,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3434,7 +3426,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3448,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3462,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3476,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3606,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3614,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3628,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3636,7 +3628,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3644,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3652,7 +3644,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3666,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3680,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3688,7 +3680,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3702,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3710,7 +3702,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3724,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3747,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3763,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,7 +3763,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3790,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3801,7 +3793,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3809,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3817,10 +3809,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
         <v>271</v>
-      </c>
-      <c r="D9" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3828,13 +3820,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>273</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3842,18 +3834,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>275</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3861,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3872,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3883,7 +3875,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -4460,7 +4452,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4468,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4476,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4484,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4495,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4506,12 +4498,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4519,7 +4511,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4530,7 +4522,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4538,21 +4530,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4560,13 +4552,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4574,13 +4566,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4588,13 +4580,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A8C4C-ED16-49DB-AA84-5E61C90B610E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5307523-058E-4509-B5C6-0A70A83EDEE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
     <t>win11en-select-loca.png</t>
   </si>
   <si>
-    <t>win11en-gear.png</t>
+    <t>win11en-setting-system.png</t>
   </si>
   <si>
     <t>win11en-account-others-add.png</t>
@@ -2604,7 +2604,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5307523-058E-4509-B5C6-0A70A83EDEE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA6A27-0B6C-4EB1-8CBC-CE1D86D7151F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="302">
   <si>
     <t>header1</t>
   </si>
@@ -1970,6 +1970,10 @@
   </si>
   <si>
     <t>You would be asked about the default backup throught the network (designed for the computer owned by the organization). Please choose "Set up for personal use".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please change the account which you have just created, the password would be asked because you have not set your PIN code for this local account.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2603,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -3100,9 +3104,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s" ph="1">
-        <v>210</v>
+    <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>206</v>
@@ -3111,9 +3115,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>206</v>
@@ -3122,8 +3126,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" ph="1"/>
+    <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s" ph="1">
+        <v>211</v>
+      </c>
       <c r="D46" t="s" ph="1">
         <v>234</v>
       </c>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA6A27-0B6C-4EB1-8CBC-CE1D86D7151F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A5692-8CB4-48A2-A77E-C1D2EEA4BDEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="300">
   <si>
     <t>header1</t>
   </si>
@@ -966,14 +966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>You would be asked the privacy settings again. You can disable them again.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Depending with the version of your Windows11, you would be asked about "Windows Hello" for your face recognition. You can skip it again.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Initial setting of your PC (you can execute this chapter before getting your student ID.)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1052,9 +1044,6 @@
   </si>
   <si>
     <t>win11en-login-local-account.png</t>
-  </si>
-  <si>
-    <t>win11en-desktop-no-annot.png</t>
   </si>
   <si>
     <t>win11ja-setting-system-only.png</t>
@@ -1974,6 +1963,10 @@
   </si>
   <si>
     <t>Please change the account which you have just created, the password would be asked because you have not set your PIN code for this local account.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be asked the privacy settings again. You can disable them again. Depending with the version of your Windows11, you would be asked about "Windows Hello" for your face recognition. You can skip it again.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2482,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2549,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2565,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2607,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2633,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2657,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2677,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2719,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2772,7 +2765,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -2969,7 +2962,7 @@
         <v>143</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -2991,7 +2984,7 @@
         <v>192</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3002,7 +2995,7 @@
         <v>192</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3013,7 +3006,7 @@
         <v>192</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -3024,7 +3017,7 @@
         <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3046,7 +3039,7 @@
         <v>192</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -3057,7 +3050,7 @@
         <v>192</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3079,7 +3072,7 @@
         <v>206</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -3090,7 +3083,7 @@
         <v>206</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -3106,18 +3099,18 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>206</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>206</v>
@@ -3126,13 +3119,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s" ph="1">
-        <v>211</v>
-      </c>
-      <c r="D46" t="s" ph="1">
-        <v>234</v>
-      </c>
+    <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3170,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3186,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3214,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3228,7 +3216,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3242,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3256,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3266,27 +3254,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3374,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3388,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3424,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3432,7 +3420,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3446,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3460,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3474,7 +3462,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3571,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3604,7 +3592,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3612,7 +3600,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3626,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3634,7 +3622,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3642,7 +3630,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3650,7 +3638,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3664,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3678,7 +3666,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3686,7 +3674,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3700,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3708,7 +3696,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3722,7 +3710,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3753,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3761,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3769,7 +3757,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3777,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3788,7 +3776,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3799,7 +3787,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3807,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3815,10 +3803,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3826,13 +3814,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3840,18 +3828,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3859,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3870,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3881,7 +3869,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3914,7 +3902,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3938,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -4458,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4466,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4482,7 +4470,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,7 +4481,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4504,12 +4492,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4517,7 +4505,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4528,7 +4516,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4536,21 +4524,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,13 +4546,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4572,13 +4560,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4586,13 +4574,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4646,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A5692-8CB4-48A2-A77E-C1D2EEA4BDEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D9579-27FC-4438-A6F6-1724F056BB9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1009,13 +1009,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win11ja-gear.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-select-loca.png</t>
   </si>
   <si>
+    <t>win11en-gear.png</t>
+  </si>
+  <si>
     <t>win11en-setting-system.png</t>
   </si>
   <si>
@@ -1044,38 +1043,6 @@
   </si>
   <si>
     <t>win11en-login-local-account.png</t>
-  </si>
-  <si>
-    <t>win11ja-setting-system-only.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-setting-version-info.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-setting-version-detail.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-test-keyboard.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-setting-timezone.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-setting-jpn.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-setting-keyboard.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-setting-keyboard-change.png</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>win11ja-windows-update.png</t>
@@ -1968,6 +1935,30 @@
   <si>
     <t>You would be asked the privacy settings again. You can disable them again. Depending with the version of your Windows11, you would be asked about "Windows Hello" for your face recognition. You can skip it again.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-setting-system-only.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-version-info.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-version-detail.png</t>
+  </si>
+  <si>
+    <t>win11en-test-keyboard.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-timezone.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-jpn.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-keyboard.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-keyboard-change.png</t>
   </si>
 </sst>
 </file>
@@ -2475,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2558,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2600,7 +2591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B46" sqref="B46:D46"/>
     </sheetView>
   </sheetViews>
@@ -2670,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2712,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2765,7 +2756,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -3099,7 +3090,7 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>206</v>
@@ -3110,7 +3101,7 @@
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>206</v>
@@ -3133,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3202,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3216,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>232</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3230,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>233</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3244,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>234</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3254,27 +3245,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3376,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3412,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,7 +3411,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3434,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3448,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3462,7 +3453,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3592,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3600,7 +3591,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3614,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3622,7 +3613,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3630,7 +3621,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3638,7 +3629,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3652,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3666,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3674,7 +3665,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3688,7 +3679,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3696,7 +3687,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3710,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3741,7 +3732,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3749,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3757,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3776,7 +3767,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3787,7 +3778,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3795,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3803,10 +3794,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3814,13 +3805,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3828,18 +3819,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3847,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3858,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3869,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -4446,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4454,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4462,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4470,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4481,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4492,12 +4483,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4505,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4516,7 +4507,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4524,21 +4515,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4546,13 +4537,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4560,13 +4551,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4574,13 +4565,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D9579-27FC-4438-A6F6-1724F056BB9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EEC27-4F71-4410-8285-F716DF7953ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="301">
   <si>
     <t>header1</t>
   </si>
@@ -619,13 +619,6 @@
 &lt;li&gt; Battery run time &lt;/li&gt;
 &lt;/ol&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Check OS version of your PC, first. Right-click the Start button on the lower left of your desktop.
-&lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
-When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
-   </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1959,6 +1952,17 @@
   </si>
   <si>
     <t>win11en-setting-keyboard-change.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check OS version of your PC, first. Right-click the Start button on the lower left of your desktop.
+&lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
+   </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2007,7 +2011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2017,6 +2021,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2391,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2399,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2466,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2479,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2533,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2549,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2617,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2633,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -2641,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2655,13 +2665,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2669,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -2681,21 +2691,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2703,13 +2713,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2717,13 +2727,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2731,13 +2741,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2745,24 +2755,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2770,13 +2780,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2784,24 +2794,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2809,13 +2819,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2823,13 +2833,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2837,277 +2847,277 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s" ph="1">
         <v>191</v>
       </c>
-      <c r="C33" t="s" ph="1">
-        <v>192</v>
-      </c>
       <c r="D33" t="s" ph="1">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s" ph="1">
         <v>205</v>
       </c>
-      <c r="C41" t="s" ph="1">
-        <v>206</v>
-      </c>
       <c r="D41" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3124,23 +3134,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3148,15 +3158,15 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>211</v>
+      <c r="B2" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3164,108 +3174,111 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="97.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
+      <c r="B7" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s" ph="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D7" s="5" t="s" ph="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="5" t="s" ph="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s" ph="1">
+      <c r="D9" s="5" t="s" ph="1">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" ph="1">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s" ph="1">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" ph="1">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="5" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3333,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3353,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3367,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3403,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3411,7 +3424,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3425,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3439,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3453,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3550,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3583,7 +3596,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3591,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3605,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3613,7 +3626,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3621,7 +3634,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3629,7 +3642,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3643,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3657,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3665,7 +3678,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3679,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3687,7 +3700,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3701,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3740,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3748,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3756,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3767,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3778,7 +3791,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3786,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3794,10 +3807,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
         <v>259</v>
-      </c>
-      <c r="D9" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3805,13 +3818,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>261</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3819,18 +3832,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>263</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3838,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3849,7 +3862,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3860,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3893,7 +3906,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3917,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -3925,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4019,13 +4032,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4039,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4047,13 +4060,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4175,7 +4188,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4197,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -4267,7 +4280,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4281,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4334,7 +4347,7 @@
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -4437,7 +4450,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4445,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4453,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4472,7 +4485,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4483,12 +4496,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4496,7 +4509,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4507,7 +4520,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4515,21 +4528,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4537,13 +4550,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4551,13 +4564,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4565,13 +4578,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4625,12 +4638,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EEC27-4F71-4410-8285-F716DF7953ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509977E-B94C-4B90-9818-891C1FFB0C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="300">
   <si>
     <t>header1</t>
   </si>
@@ -1931,9 +1931,6 @@
   </si>
   <si>
     <t>win11en-setting-system-only.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-version-info.png</t>
   </si>
   <si>
     <t>win11en-setting-version-detail.png</t>
@@ -3132,7 +3129,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -3197,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
         <v>291</v>
@@ -3238,8 +3235,8 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s" ph="1">
-        <v>293</v>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3253,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3274,11 +3271,6 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="5" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509977E-B94C-4B90-9818-891C1FFB0C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D7E26-2481-47DF-878C-C75513ABF81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="294">
   <si>
     <t>header1</t>
   </si>
@@ -329,16 +329,6 @@
 &amp;quot;System type&amp;quot; entry under &amp;quot;Device Specifications&amp;quot; tells you that your PC is running &amp;quot;64-bit operating system&amp;quot;. It means your OS can handle 64-binary-digit data.&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 &amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the battery run time, here.
- Click the battery icon in the taskbar, the battery level and estimated remaining time will be shown. The remaining battery time charged at 100% can be the estimated run time of your battery.
- For example, in the case that it says the battery level is 80% and the remaining time will be 6 hours, your can estimate the run time of your battery as 7.5 hours because 6 devided by 0.8 is 7.5.) 
-&lt;div class="spl"&gt;* You can find the remaining time on a while after system startup and the system usage has become stable. 
-If you do not see it after trying a few times, check the specifications in the catalog etc. and fill it out.
- &lt;/div&gt;
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1934,21 +1924,6 @@
   </si>
   <si>
     <t>win11en-setting-version-detail.png</t>
-  </si>
-  <si>
-    <t>win11en-test-keyboard.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-timezone.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-jpn.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-keyboard.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-keyboard-change.png</t>
   </si>
   <si>
     <t xml:space="preserve">Check OS version of your PC, first. Right-click the Start button on the lower left of your desktop.
@@ -2390,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2398,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2406,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2420,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2465,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2473,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2505,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2540,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2548,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2556,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2616,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2624,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2632,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2640,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -2648,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2662,13 +2637,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2676,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -2688,21 +2663,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2710,13 +2685,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2724,13 +2699,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2738,13 +2713,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2752,24 +2727,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2777,13 +2752,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2791,24 +2766,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2816,13 +2791,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2830,13 +2805,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2844,277 +2819,277 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s" ph="1">
         <v>190</v>
       </c>
-      <c r="C33" t="s" ph="1">
-        <v>191</v>
-      </c>
       <c r="D33" t="s" ph="1">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s" ph="1">
         <v>204</v>
       </c>
-      <c r="C41" t="s" ph="1">
-        <v>205</v>
-      </c>
       <c r="D41" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3129,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3148,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3156,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3172,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3180,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3194,21 +3169,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s" ph="1">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3222,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3239,38 +3214,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="5" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3333,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3358,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3372,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3391,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3408,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3416,7 +3362,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3424,13 +3370,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3444,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3452,13 +3398,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3480,13 +3426,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3494,13 +3440,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3547,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3563,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3582,13 +3528,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3596,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3604,37 +3550,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3642,13 +3588,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3662,15 +3608,15 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3678,21 +3624,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3700,13 +3646,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3745,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3753,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3761,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3772,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3783,7 +3729,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3791,7 +3737,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3799,10 +3745,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s">
         <v>258</v>
-      </c>
-      <c r="D9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3810,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3824,18 +3770,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>262</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3843,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3854,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3865,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3898,7 +3844,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3914,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3922,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -3930,7 +3876,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4024,13 +3970,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4038,13 +3984,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4052,13 +3998,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4080,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -4094,7 +4040,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4155,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -4180,7 +4126,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4202,7 +4148,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -4250,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4272,7 +4218,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4286,13 +4232,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4300,13 +4246,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4314,13 +4260,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4328,21 +4274,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4369,13 +4315,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4394,10 +4340,10 @@
     </row>
     <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4442,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4450,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4458,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4466,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4477,7 +4423,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4488,12 +4434,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4501,7 +4447,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4512,7 +4458,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4520,21 +4466,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4542,13 +4488,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4556,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4570,13 +4516,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4622,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4630,12 +4576,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4643,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4657,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4685,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4727,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4761,7 +4707,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D7E26-2481-47DF-878C-C75513ABF81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A5BF1-301F-4F5D-A0BB-4E6DA71AB03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1028,27 +1028,6 @@
     <t>win11en-login-local-account.png</t>
   </si>
   <si>
-    <t>win11ja-windows-update.png</t>
-  </si>
-  <si>
-    <t>win11ja-windows-update-option.png</t>
-  </si>
-  <si>
-    <t>win11ja-setting-security.png</t>
-  </si>
-  <si>
-    <t>win11ja-setting-security2.png</t>
-  </si>
-  <si>
-    <t>win11ja-windows-security.png</t>
-  </si>
-  <si>
-    <t>win11ja-start-full-scan.png</t>
-  </si>
-  <si>
-    <t>win11ja-scan-progress.png</t>
-  </si>
-  <si>
     <t>win11ja-start-edge-taskbar.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1935,6 +1914,27 @@
     <t xml:space="preserve">When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
    </t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-windows-update.png</t>
+  </si>
+  <si>
+    <t>win11en-windows-update-option.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-security.png</t>
+  </si>
+  <si>
+    <t>win11en-setting-security2.png</t>
+  </si>
+  <si>
+    <t>win11en-windows-security.png</t>
+  </si>
+  <si>
+    <t>win11en-start-full-scan.png</t>
+  </si>
+  <si>
+    <t>win11en-scan-progress.png</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>204</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>204</v>
@@ -3106,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:D15"/>
     </sheetView>
   </sheetViews>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3197,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D16"/>
     </sheetView>
   </sheetViews>
@@ -3304,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3318,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3354,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3362,7 +3362,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3376,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3404,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3534,7 +3534,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3542,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3564,7 +3564,7 @@
         <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3616,7 +3616,7 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3630,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
         <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3707,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3756,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3770,18 +3770,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3800,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3811,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -4388,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4412,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4434,12 +4434,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4447,7 +4447,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4466,21 +4466,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,13 +4488,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4502,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4516,13 +4516,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A5BF1-301F-4F5D-A0BB-4E6DA71AB03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E4F471-9890-41B0-8A97-469821B379D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="284">
   <si>
     <t>header1</t>
   </si>
@@ -147,37 +147,6 @@
     <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Set up Windows Update&lt;/h2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Click the Start button on the lower left of your desktop.
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click cog icon in the Start menu.
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click “Update &amp;amp; Security”.
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the box for &amp;quot;Give me updates for other Microsoft products when I update Windows.&amp;quot; Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Windows Update&amp;quot; window.
-  </t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;Microsoft Defender -manual update and a full scan-&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Virus &amp;amp; threat protection&amp;quot;.
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you click &amp;quot;Check for updates&amp;quot; button, Defender checks if there is the most recent &amp;quot;threat definition&amp;quot;. If so, &amp;quot;threat definition&amp;quot; will be updated. Usually, updates are checked automatically and you do not need to press the button.
-Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Virus &amp;amp; threat protection&amp;quot; window.
-  </t>
-  </si>
-  <si>
-    <t>win10-5-09.svg</t>
-  </si>
-  <si>
     <t>Log in to the online services provided in Hiroshima University</t>
   </si>
   <si>
@@ -340,19 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">You will learn when your Defender is updated and how to update Defender. Defender is kept updated by Windows Update. But when the information about emergency vulnerabilities is issued, it is better for us to update Defender.
-Click &amp;quot;Windows Security&amp;quot; listed in the left. Then click &amp;quot;Open Windows Security&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Now you will learn how to scan your whole PC for viruses. It will take a long time. So do not do it during this workshop.
-The way of scanning whole computer system is called &amp;quot;Full Scan&amp;quot;. There is another called &amp;quot;Quick Scan&amp;quot;. It scans limited parts of the computer system because they are likely to be attacked. Therefore, &amp;quot;Quick Scan&amp;quot; runs quickly.
-In order to run a full scan, click &amp;quot;Scan options&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Input your &amp;quot;HIRODAI mail&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
   </t>
     <phoneticPr fontId="1"/>
@@ -368,14 +324,6 @@
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;IMC web site&lt;/a&gt;
 . It&amp;apos;s Japanese only. Please check Google translation menu at the bottom of right column.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-10e.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-5-11e.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -486,29 +434,6 @@
   <si>
     <t>Run &amp;quot;Excel&amp;quot; in your PC.
 &lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. Please contact helpdesk. See chapter 6. &lt;/p&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;quot;Windows Update&amp;quot; window appears. Windows OS and Microsoft Defender will be updated automatically and periodically. 
-You will know update status of your system. &lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-Now turn on Automatic Updates in Windows Update. Click &amp;quot;Advanced options&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You can see three advanced scans. Choose &amp;quot;Full scan&amp;quot; and click &amp;quot;Scan now&amp;quot; button to run a full scan.&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-But it will take a long time. Do not run a full scan during this workshop. But do it at the earliest opportunity after this workshop and fill out the checklist.
-Click X on the upper right corner of the window to close it.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;quot;Threats&amp;quot; in Defender indicate computer viruses, spyware, or other malware. And &amp;quot;threat definition&amp;quot; is the file that contains the rule to distinguish those &amp;quot;threats&amp;quot; from other programs.
-The information on &amp;quot;threat definition&amp;quot; is displayed on the middle of the window.&lt;span class="check"&gt;check-5,6&lt;/span&gt;
-In order to update &amp;quot;threat definition&amp;quot;, click &amp;quot;Protection updates&amp;quot;.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1935,6 +1860,26 @@
   </si>
   <si>
     <t>win11en-scan-progress.png</t>
+  </si>
+  <si>
+    <t>After the installation of the available update, click "Advanced options", and enable "Receive updates for other Microsoft products". Please check additional updates by "Chek for update" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In "Setting" application, please check "Privacy &amp; Security" button, then "Open Windows Security" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click start button and open "Setting" application. Then click "Windows Update" in the left list, and click "Check for update" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Virus &amp; threat protection". Should not touch with "Set up OneDrive" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Scan options", and choose "Full scan", then click "Scan now".</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2365,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2373,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2381,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2395,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2432,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2440,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2448,12 +2393,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -2461,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2472,7 +2417,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2480,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2515,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2523,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2531,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2542,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2599,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2607,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2615,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -2623,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2637,13 +2582,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2651,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -2663,21 +2608,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2685,13 +2630,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2699,13 +2644,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2713,13 +2658,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2727,24 +2672,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2752,13 +2697,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2766,24 +2711,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2791,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2805,13 +2750,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2819,277 +2764,277 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3123,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3139,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3155,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3169,21 +3114,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s" ph="1">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3191,13 +3136,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3228,10 +3173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3239,7 +3184,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3263,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3271,7 +3216,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3279,12 +3224,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3298,13 +3243,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>287</v>
+      <c r="D8" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3312,141 +3257,91 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3493,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3501,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3509,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3528,13 +3423,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3542,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3550,37 +3445,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3588,13 +3483,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3608,15 +3503,15 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3624,21 +3519,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3646,13 +3541,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3691,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3699,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3707,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3718,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3729,7 +3624,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3737,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3745,10 +3640,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3756,13 +3651,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3770,18 +3665,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3789,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3800,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3811,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3844,7 +3739,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3852,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3860,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3868,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -3876,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3887,7 +3782,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3909,13 +3804,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3923,18 +3818,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,13 +3851,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3970,13 +3865,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3984,13 +3879,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3998,13 +3893,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4012,13 +3907,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4026,13 +3921,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4040,13 +3935,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4054,18 +3949,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,13 +3982,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4101,13 +3996,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4115,18 +4010,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4148,13 +4043,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4162,13 +4057,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4176,13 +4071,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4190,13 +4085,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4204,13 +4099,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -4218,13 +4113,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4232,13 +4127,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4246,13 +4141,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4260,13 +4155,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4274,26 +4169,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4301,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -4315,13 +4210,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4329,21 +4224,21 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4351,13 +4246,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4396,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4412,7 +4307,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +4318,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4434,12 +4329,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4447,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4458,7 +4353,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4466,21 +4361,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,13 +4383,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4502,13 +4397,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4516,13 +4411,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4568,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4576,12 +4471,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4589,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4603,7 +4498,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4631,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4673,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4707,7 +4602,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E4F471-9890-41B0-8A97-469821B379D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E094C11-A37E-4581-8111-5A4C592A71EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="285">
   <si>
     <t>header1</t>
   </si>
@@ -1866,10 +1866,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>In "Setting" application, please check "Privacy &amp; Security" button, then "Open Windows Security" button.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please click start button and open "Setting" application. Then click "Windows Update" in the left list, and click "Check for update" button.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1879,6 +1875,14 @@
   </si>
   <si>
     <t>Please click "Scan options", and choose "Full scan", then click "Scan now".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In "Setting" application, please check "Privacy &amp; Security" button, then click "Windows Security" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Open Windows Security" button.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3176,7 +3180,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3243,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3279,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3290,7 +3294,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>275</v>
@@ -3301,7 +3305,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3313,6 +3317,9 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E094C11-A37E-4581-8111-5A4C592A71EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402E8B7F-548D-4BF3-9096-C3ED4CD197F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="286">
   <si>
     <t>header1</t>
   </si>
@@ -1883,6 +1883,10 @@
   </si>
   <si>
     <t>Please click "Open Windows Security" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Progress bar would be shown. The time needed for full scanning would be longer than 30 minutes.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3180,7 +3184,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3331,6 +3335,9 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>278</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402E8B7F-548D-4BF3-9096-C3ED4CD197F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDD5EF-16A6-4C1C-89B1-EF3CA5F19856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -953,54 +953,6 @@
     <t>win11en-login-local-account.png</t>
   </si>
   <si>
-    <t>win11ja-start-edge-taskbar.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-edge-prep1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-edge-prep2.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-edge-prep3.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-edge-layout.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-edge-search-chrome.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-google-chrome-download-page.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-edge-download-file.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-explorer.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-google-chrome-desktop.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-chrome-install-check.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11ja-chrome-hello.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11en chap.8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1888,6 +1840,42 @@
   <si>
     <t>Progress bar would be shown. The time needed for full scanning would be longer than 30 minutes.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-start-edge-taskbar.png</t>
+  </si>
+  <si>
+    <t>win11en-edge-prep1.png</t>
+  </si>
+  <si>
+    <t>win11en-edge-prep2.png</t>
+  </si>
+  <si>
+    <t>win11en-edge-prep3.png</t>
+  </si>
+  <si>
+    <t>win11en-edge-layout.png</t>
+  </si>
+  <si>
+    <t>win11en-edge-search-chrome.png</t>
+  </si>
+  <si>
+    <t>win11en-google-chrome-download-page.png</t>
+  </si>
+  <si>
+    <t>win11en-edge-download-file.png</t>
+  </si>
+  <si>
+    <t>win11en-explorer.png</t>
+  </si>
+  <si>
+    <t>win11en-google-chrome-desktop.png</t>
+  </si>
+  <si>
+    <t>win11en-chrome-install-check.png</t>
+  </si>
+  <si>
+    <t>win11en-chrome-hello.png</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2484,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2638,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2691,7 +2679,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -3025,7 +3013,7 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>189</v>
@@ -3036,7 +3024,7 @@
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>189</v>
@@ -3122,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3133,10 +3121,10 @@
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3150,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3183,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3251,13 +3239,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3265,13 +3253,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3287,21 +3275,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3309,13 +3297,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3323,13 +3311,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3337,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3369,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3443,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3451,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3465,7 +3453,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3473,7 +3461,7 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3481,7 +3469,7 @@
         <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3489,7 +3477,7 @@
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3503,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3517,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3525,7 +3513,7 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3539,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3547,7 +3535,7 @@
         <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3561,7 +3549,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3580,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3600,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3608,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3616,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3627,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3638,7 +3626,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3646,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3654,10 +3642,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3665,13 +3653,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3679,18 +3667,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3698,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3709,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3720,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -4297,7 +4285,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4313,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4321,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4332,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4343,12 +4331,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4356,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4367,7 +4355,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4375,21 +4363,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4397,13 +4385,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4411,13 +4399,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4425,13 +4413,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDD5EF-16A6-4C1C-89B1-EF3CA5F19856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428416C-C749-4E16-8481-DCDA51C3A505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="274">
   <si>
     <t>header1</t>
   </si>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;Before starting this chapter&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Install Google Chrome&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The installation will be completed in a minute!
-&lt;p class="spl"&gt;* You may realize that Microsoft Edge, as the default browser, has already been in Windows 10. But there are some web pages which cannot be displayed successfully by Microsoft Edge. In that case, you can use Google Chrome as the secondary browser.&lt;/p&gt;
-  </t>
   </si>
   <si>
     <t>Set up your PC to connect to HINET Wi-Fi.</t>
@@ -357,42 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;You need your HIRODAI ID(student ID) and HIRODAI Password to go on this chapter.&lt;/strong&gt;
-Again, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
-One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
-Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
-Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in Chapter 5.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's download Google Chrome from official site
-&lt;a href="https://www.google.com/intl/en_us/chrome/"&gt;https://www.google.com/intl/en_us/chrome/&lt;/a&gt;
-and click &amp;quot;Download Chrome&amp;quot; in the site.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Accept and Install&amp;quot;
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Activate Microsoft Office&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Here, you will set up Windows Update which keeps your Wndows10 and Office updated. 
 Furthermore, you will learn how to use Microsoft Defender&amp;apos;s full scan.
 &lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Set up Windows Update &lt;/a&gt;
@@ -404,19 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Run the installer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When you see blinking sheeld icon in the task bar, click it. (appear in down area of display)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Yes&amp;quot. to allow this app to make changes to your device.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
 In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
 &lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
@@ -432,11 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Run &amp;quot;Excel&amp;quot; in your PC.
-&lt;p class="spl"&gt; * If you cannot run &amp;quot;Excel&amp;quot; for now, you have to download Office to your PC. Please contact helpdesk. See chapter 6. &lt;/p&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-10&lt;/span&gt;
   </t>
     <phoneticPr fontId="1"/>
@@ -512,18 +450,6 @@
   </si>
   <si>
     <t>fresta_en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">If you see a prompt for sign in and set Office(see the screenshot), you need to activate Office on your PC.
-Click &amp;quot;Sign in&amp;quot;,
-&lt;p class="spl"&gt;* If you can use Excel without seeing any prompt to sign in,  go on next chapter.&lt;/p&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input HIRODAI mailaddress（b21xxxxx@hiroshima-u.ac.jp）and click &amp;quot;Next&amp;quot;.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1857,25 +1783,42 @@
     <t>win11en-edge-layout.png</t>
   </si>
   <si>
-    <t>win11en-edge-search-chrome.png</t>
-  </si>
-  <si>
     <t>win11en-google-chrome-download-page.png</t>
   </si>
   <si>
-    <t>win11en-edge-download-file.png</t>
-  </si>
-  <si>
-    <t>win11en-explorer.png</t>
-  </si>
-  <si>
-    <t>win11en-google-chrome-desktop.png</t>
-  </si>
-  <si>
-    <t>win11en-chrome-install-check.png</t>
-  </si>
-  <si>
-    <t>win11en-chrome-hello.png</t>
+    <t xml:space="preserve">Please install Google Chrome on your PC.
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please start "Microsoft Edge", the default and only web browser of Windows11. If you cannot find it in the start menu or the task bar, please search it in the Windows Search form.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In your first execution of Microsoft Edge, it tries to import some data from other web browsers. But there is no, please uncheck it and proceed as "Start without user data".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uncheck the customization of your experience for targetting advertisement. Then click "Confirm" button to proceed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open new tab by clicking "+" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "gear" icon, and change the layout to "Focussed" to reduce the unwanted news feeds.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please search "google chrome download", and install it.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2306,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2314,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2322,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2336,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2373,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2381,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2389,12 +2332,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -2402,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2413,7 +2356,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2421,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2456,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2464,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2472,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2483,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2532,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2540,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2548,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2556,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -2564,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2578,13 +2521,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2592,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -2604,21 +2547,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2626,13 +2569,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2640,13 +2583,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2654,13 +2597,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2668,24 +2611,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2693,13 +2636,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2707,24 +2650,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2732,13 +2675,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2689,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2760,277 +2703,277 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3064,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3072,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3080,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3088,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3096,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3110,21 +3053,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s" ph="1">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3132,13 +3075,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3188,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3204,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3212,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3220,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3231,7 +3174,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3239,13 +3182,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3253,13 +3196,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3275,21 +3218,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,13 +3240,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,10 +3268,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3357,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3374,7 +3317,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3390,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3398,15 +3341,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3420,136 +3363,96 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C19" t="s">
         <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3588,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3596,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3604,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3615,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3626,7 +3529,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3634,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3642,10 +3545,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3653,13 +3556,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3667,18 +3570,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3686,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3697,7 +3600,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3708,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3741,7 +3644,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3749,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3757,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -3773,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3784,7 +3687,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3806,13 +3709,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3820,18 +3723,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3853,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3867,13 +3770,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3881,13 +3784,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3895,13 +3798,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3909,13 +3812,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3923,13 +3826,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3937,13 +3840,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3951,18 +3854,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,13 +3887,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3998,13 +3901,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4012,18 +3915,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,13 +3948,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4059,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4073,13 +3976,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4087,13 +3990,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4101,13 +4004,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -4115,13 +4018,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4129,13 +4032,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4143,13 +4046,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4157,13 +4060,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4171,26 +4074,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4198,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -4212,13 +4115,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4226,21 +4129,21 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4248,13 +4151,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4188,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4293,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4301,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4320,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4331,12 +4234,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4344,18 +4247,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4363,21 +4266,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4385,13 +4288,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4399,13 +4302,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4413,13 +4316,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4352,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4457,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4465,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4473,12 +4376,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4486,13 +4389,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -4500,13 +4403,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4514,13 +4417,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4528,13 +4431,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4542,13 +4445,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4556,13 +4459,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4570,21 +4473,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -4598,13 +4501,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428416C-C749-4E16-8481-DCDA51C3A505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4A894-BCA2-4016-A575-147F21D50A5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="272">
   <si>
     <t>header1</t>
   </si>
@@ -823,6 +823,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>FRESTA-TEXT-2021 Win11en chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>FRESTA-TEXT-2021 Win11en chap.3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -883,169 +887,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広島大学のオンライン学習支援システムMoodleにログインし、その中にある説明に従って多要素認証（MFA）の設定を行いましょう。</t>
-    <rPh sb="0" eb="4">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="43" eb="48">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Moodleへのログインと多要素認証（MFA）の設定 (学生番号が必要です)</t>
-    <rPh sb="13" eb="18">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fresta</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Windows11 chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学で提供されているオンラインサービスはいくつもありますが、まずオンライン学習支援システムのMoodleにログインしてみましょう。
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;Moodleにログインする&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mfa"&gt;多要素認証(MFA)の設定&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <rPh sb="137" eb="142">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;Moodle (オンライン学習支援システム)&lt;/h2&gt; </t>
-    <rPh sb="38" eb="40">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「Moodle」は、オープンソースで提供されているオンライン学習支援システムです。広島大学ではMoodleを広大IDでログインして利用できるようにしています。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-</t>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のリンクから広島大学オンライン学習支援システム（Moodle）にアクセスしてください。
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-「広大IDでログイン」をクリックしましょう。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ガクシュウシエン</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ヒロダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>moodle-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>するとログイン画面が開きます。
-「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
-入力したら「ログイン」をクリックします。
- ※ このテキストの第２章などで広大IDとパスワードを使ってログインしたあと続けて同じブラウザで作業している場合、この画面が出ずに次の画面に進むことがあります。これは「シングルサインオン」といい、何度も同じログイン作業をしなくて済む機能なのでそのまま作業を進めても大丈夫です。</t>
-    <rPh sb="146" eb="148">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1818,6 +1663,31 @@
   </si>
   <si>
     <t>Please search "google chrome download", and install it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login to Moodle and set multifactor authentication.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login to Moodle and set multifactor authentication (student ID is needed)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hiroshima University provides several online services for the student. For first, please login the "Moodle", and configure your account for the multifactor authentication (MFA).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Through following URL, please access to the home page of the "Moodle" in Hiroshima University.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
+Please click green button titled "広大IDでログイン".</t>
+    <rPh sb="247" eb="249">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please input "Hirodai ID", password.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2332,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2399,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2415,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2527,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2569,7 +2439,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2622,7 +2492,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -2819,7 +2689,7 @@
         <v>113</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -2841,7 +2711,7 @@
         <v>162</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2852,7 +2722,7 @@
         <v>162</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2863,7 +2733,7 @@
         <v>162</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2874,7 +2744,7 @@
         <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2896,7 +2766,7 @@
         <v>162</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2777,7 @@
         <v>162</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -2929,7 +2799,7 @@
         <v>176</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -2940,7 +2810,7 @@
         <v>176</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2956,18 +2826,18 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>176</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>176</v>
@@ -3031,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3053,21 +2923,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s" ph="1">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3081,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3155,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3182,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3196,13 +3066,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3218,21 +3088,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3240,13 +3110,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3254,13 +3124,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3268,10 +3138,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3300,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3341,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3349,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3368,21 +3238,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3390,37 +3260,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AC582-7A6D-4EA0-8C12-75B8749BA9E2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3475,15 +3345,15 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3491,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3499,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3507,62 +3377,58 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>213</v>
+      <c r="D10" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3570,18 +3436,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>215</v>
+      <c r="D11" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3589,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3600,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3611,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -4188,7 +4054,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4204,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4212,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4234,12 +4100,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4247,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4258,7 +4124,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4266,21 +4132,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4288,13 +4154,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4302,13 +4168,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4316,13 +4182,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4A894-BCA2-4016-A575-147F21D50A5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C40058-3DD8-415E-9E91-8124B924EE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="262">
   <si>
     <t>header1</t>
   </si>
@@ -139,134 +139,28 @@
     <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Set up Windows Update&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>Log in to the online services provided in Hiroshima University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;MOMIJI: Student portal&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various information for Hiroshima University students are collected into student portal, MOMIJI.
-Type &amp;quot;momiji hiroshima university&amp;quot; in the search box, find &amp;quot;MOMIJI Hiroshima Univ. もみじ-広島大学&amp;quot;, and click the link.
-  </t>
-  </si>
-  <si>
     <t>win10-6-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">MOMIJI top page will be displayed. You can get useful information there.
-You can see many banners on the right of the page. In this chapter, we will explain &amp;quot;Web Mail&amp;quot;, &amp;quot;My MOMIJI&amp;quot; and &amp;quot;Bb9&amp;quot;.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365: Web mail service and online storage&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Web Mail&amp;quot; banner, first.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office 365 applications are listed. Click &amp;quot;Outlook&amp;quot;.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-27.svg</t>
-  </si>
-  <si>
-    <t>win10-6-07.svg</t>
-  </si>
-  <si>
-    <t>win10-6-08.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OneDrive provides you 1 TB of storage. You can keep your backup data here. Or you can access files here even when you are off campus.
-There is also the OneDrive smartphone app. So you can use this storage on your smartphone.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-09.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login to My MOMIJI (Students)&amp;quot; button.
-  </t>
-  </si>
-  <si>
-    <t>win10-6-10.svg</t>
-  </si>
-  <si>
     <t>win10-6-11.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
-  </t>
-  </si>
-  <si>
     <t>win10-6-12.svg</t>
   </si>
   <si>
     <t>win10-6-13.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Click Bb9 banner again.
-  </t>
-  </si>
-  <si>
     <t>win10-6-14.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Bb9 login page will be displayed.
-Click the globe icon on the upper left corner of the window and choose &amp;quot;English&amp;quot; to change your language setting on Bb9. 
-  </t>
-  </si>
-  <si>
-    <t>win10-6-28.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Bb9 login page in English is displayed, log in to Bb9 with your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot;.
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For your first login, this page will be shown. Click &amp;quot;Close&amp;quot;.
-  </t>
-  </si>
-  <si>
     <t>win10-6-16.svg</t>
   </si>
   <si>
     <t>win10-6-17.svg</t>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;Others&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contents in this section will not be introduced in this lecture. You can read them later.
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OneDrive
-There is OneDrive app for PC, quite similar to DropBox, very famous online storage service. If you install it to your PC, your contents in OneDrive are automatically synced to those in a certain folder on your PC. In the case of OneDrive mobile app, it will not happen. The reason of this may be the small storage capacities of smartphones or tablets.
-You can get OneDrive apps on OneDrive web site.
-You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;IMC web site&lt;/a&gt;
-. 
-  </t>
-  </si>
-  <si>
     <t>win10-6-25.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VPN
-When you view your grades on MOMIJI or print your works in IMC, you need to connect your PC to campus network. If you are off campus and want to use those services, you can connect your PC to campus network via VPN (Vertual Private Network). See IMC web page which shows how to connect to VPN.
-You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;IMC web site&lt;/a&gt;
-. 
-  </t>
   </si>
   <si>
     <t>win10-6-26.svg</t>
@@ -301,26 +195,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail&amp;quot; in the box and click &amp;quot;Next&amp;quot;, 
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-24a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Printers
-If your PC is connected to campus network, you can use university printers to print your documents. At first, save your document as PDF, and send it to print server using Web browser. Then find the nearest university printer, and print your PDF.
-At that time you need to pay printing fee with MYple, Co-op&amp;apos;s electronic money put on student ID card. It costs you 4 JPY per sheet in monochrome print, and 13 JPY in color print. So you need to charge your student ID card in advance.
-You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;IMC web site&lt;/a&gt;
-. It&amp;apos;s Japanese only. Please check Google translation menu at the bottom of right column.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In recent versions of Windows 10, Microsoft Teams run automatically when you sign in your PC. Teams is a comminication tool provided by Microsoft. You can use Teams with your HIRODAI mailaddress and password. Or, you can dismiss Teams from your PC setting (Settings -&gt; Apps -&gt; Startup)
-You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;&amp;quot;Microsoft Teams&amp;quot;&lt;/a&gt;.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -375,73 +250,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-10&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-13e.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the course contents of this course will be displayed in the right. Now click the second content &amp;quot;Checklist worksheet&amp;quot; and open it.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Look at the picture in the right, you can read what PDF contains. However, sometimes you cannot. It depends on the software which you use to read PDFs.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
-&lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-32.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-31.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Mail page will be opened. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-9&lt;/span&gt;
-You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let us move to OneDrive, online storage service in Office365. Click the icon in the upper left corner of the window, and the list of applications in Office365 will be shown. Click &amp;quot;OneDrive&amp;quot; in the list.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-36.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-34.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do at this workshop.
 &lt;ol&gt; &lt;/ol&gt;
 * Some screenshots in this text are displayed in Japanese. Sorry for inconvenience. </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-35.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>If you turn on your PC for the first time, follow this chapter to see your Desktop in your PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-15e.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -460,75 +275,6 @@
 &lt;li&gt; Battery run time &lt;/li&gt;
 &lt;/ol&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Bb9 course &amp;quot;Laptop checklist 2021&amp;quot;, and submit the checklist!&lt;/strong&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
-Several courses should be introduced here.
-&lt;dl&gt;
-&lt;dt&gt;Laptop checklist 2021&lt;/dt&gt;
-&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.&lt;/dd&gt;&lt;dt&gt;Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dt&gt;
-&lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
-&lt;p class="spl"&gt;* Because of COVID-19, this course will be performed not as usual. Please check your &amp;quot;My MOMIJI&amp;quot;.&lt;/p&gt;
- &lt;/dl&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
-Click &amp;quot;Laptop checklist 2021&amp;quot; in the &amp;quot;Course List&amp;quot; (screenshot is older one, but you would find new one).
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let us log in to the online services provided by university, such as MOMIJI, Office365, or Bb9.
-You need a browser to use these services. Microsoft Edge has already been in Windows10. Then double-click its icon to open it.
-&lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mail"&gt;Office365: Web mail service and online storage&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mymomiji"&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#bb9"&gt;Bb9: Learning management system&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#omake"&gt;Others&lt;/a&gt;
-&lt;/li&gt;
-&lt;ul&gt; &lt;/ul&gt;
-&lt;/ul&gt;
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Learning management system&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-signin-password.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;HIRODAI password&amp;quot;. And click &amp;quot;Sign in&amp;quot;, blue button.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-hirodai-login.png</t>
-  </si>
-  <si>
-    <t>office365-portal.png</t>
-  </si>
-  <si>
-    <t>Click the link to portal.office.com.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
-Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
-(The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -815,14 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Office365, Moodle, MOMIJI, Bb9, and others…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11en chap.4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1689,6 +1427,488 @@
   <si>
     <t>Please input "Hirodai ID", password.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
+  </si>
+  <si>
+    <t>大学のオンラインサービスへのログイン (学生番号が必要です)</t>
+    <rPh sb="20" eb="22">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11 chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
+&lt;strong&gt;この章の内容は、学生番号とそれに付属しているパスワードが必要です。この2つを入手してから実施してください。ただし、ネットワークは自宅のものでも、大学のものでも構いません。&lt;/strong&gt;
+これらのサービスを利用するにはWebブラウザを使います。
+WindowsではMicrosoft Edgeというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;もみじ (広大学生用ポータルサイト)&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mail"&gt;Office365 (Webメールとオンラインストレージ)&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mymomiji"&gt;MYもみじ (履修登録や掲示板など)&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#bb9"&gt;Bb9 (学習支援システム )&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#omake"&gt;おまけ&lt;/a&gt;
+&lt;/li&gt;
+&lt;ul&gt; &lt;/ul&gt;
+&lt;/ul&gt;
+</t>
+    <rPh sb="114" eb="115">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじ (広大学生用ポータルサイト)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
+GoogleなどのWeb検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「もみじ」はこのような画面です。以下では、右側に並んでいるバナーのうち、「Webメール」について説明します。次に、履修登録などを行う「MYもみじ」について、最後に「Bb9」について説明します。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t>microsoft.comにアクセスします。画面の一番上に広告が出てくることがありますが、「結構です」で消しておきましょう。右上に「サインイン」と注された人型アイコンがあるので、クリックします。URLフォームの横にある人型アイコンではないことに注意してください。</t>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMCアカウントを「@hiroshima-u.ac.jp」つきで入力し、さらにパスワードも入力します。このサイトはMicrosoftのサイトなので、「@hiroshima-u.ac.jp」がついていないと貴方の学生番号がどの大学のものか判らないため、「@hiroshima-u.ac.jp」を加える必要があります。</t>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edgeがパスワードを保存するかどうか確認してきますが、初期パスワードを変更する可能性がありますので、「なし」にしましょう。サインインの状態は保持しても構いません。</t>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインインが完了すると、右上の人型のマークが社員証のマークに変わっています。これをクリックしてサブメニューを表示させ、さらに「アカウントを表示」に進みます。「マイアカウント」というページに移動します。</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒトガタ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シャインショウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マイアカウント」のページの左上に3x3個の点が並んでいるアイコンがあるので、これをクリックしてサブメニューを表示させます。その中の「Office」をクリックすると、「マイアカウント」から「Office365」のページに移動します。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office365のページの左側にブラウザ内で使用できるアプリのアイコンが並びます。「O」の文字があるOutlook for Webをクリックします。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outlook for Webのページが開き、新着メールを確認することができます。大学からのメール連絡は広大メールに来ますので、常にメールチェックするようにしてください。</t>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
+するとOffice365で使用できるアプリケーション一覧が表示されます。その中にある「OneDrive」をクリックしましょう
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここにはひとりあたり１TBまで、データを置いておくことができます。
+データのバックアップをとっておいたり、外出先でもデータを取り出したりできるようになるので、活用しましょう。
+OneDriveにもアプリがありますので、スマホでも活用できます。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
+まず「Myもみじへログイン」をクリックしてください。
+   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大IDとパスワードを入力し、「ログイン」をクリックします。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-10&lt;/span&gt;
+履修登録をしたり、成績を確認することができます。
+また「掲示」では、授業や学部からの連絡が表示されます。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)    </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右側にかわいいイラストのバナーがありますね。これをクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとログイン画面が開きます。
+「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
+入力したら「ログイン」をクリックします。
+   </t>
+  </si>
+  <si>
+    <t>win10-6-15.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
+「閉じる」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。</t>
+    <rPh sb="71" eb="73">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キョウザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">まず、大学のプリンタへの印刷について。
+学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚4円、カラー印刷は1枚13円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
+で。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているGoogleDriveやDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
+OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
+で。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Teams について。最近のWindows10パソコンでは、サインイン時にMicrosoft Teams が自動的に起動します。これはMicrosoftが提供しているグループチャットアプリで、広大メールアドレスとパスワードでサインインして使うことができます。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;「Microsft Teams」&lt;/a&gt;で。
+また、使わない場合は画面左下のウィンドウアイコンから「設定」→「アプリ」→「スタートアップ」と進んでTeamsのスイッチを「オフ」にすると、自動起動を止めることができます。</t>
+    <rPh sb="21" eb="23">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-0-13a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最後に、VPNについて。「もみじ」で成績を見る時や、前述のプリンタ利用の時など、いくつかのサービスは学内ネットワークからしか利用ができません。自宅や帰省先でこういったサービスを使いたい場合は、VPNが使えます。設定のしかたについてはメディアセンターの説明ページを参照してください。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;「VPN(SSL-VPN)サービス」&lt;/a&gt;
+で。
+  </t>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login0.png</t>
+  </si>
+  <si>
+    <t>win11en-ms-signin.png</t>
+  </si>
+  <si>
+    <t>win11en-ms-signin2.png</t>
+  </si>
+  <si>
+    <t>win11en-ms-signin3.png</t>
+  </si>
+  <si>
+    <t>win11en-ms-myaccount.png</t>
+  </si>
+  <si>
+    <t>win11en-ms-office365.png</t>
+  </si>
+  <si>
+    <t>win11en-office365-outlook-start.png</t>
+  </si>
+  <si>
+    <t>win11en-outlook-for-web.png</t>
+  </si>
+  <si>
+    <t>win11en-office365-from-outlook-to-onedrive.png</t>
+  </si>
+  <si>
+    <t>win11en-onedrive-in-browser.png</t>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login.png</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1754,6 +1974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2119,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2135,7 +2356,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2149,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2186,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2202,12 +2423,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -2215,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2226,7 +2447,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2234,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2269,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2277,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2285,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2296,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2345,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2353,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2361,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2369,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -2377,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2391,13 +2612,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2405,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -2417,21 +2638,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2439,13 +2660,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2453,13 +2674,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2467,13 +2688,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2481,24 +2702,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2506,13 +2727,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2520,24 +2741,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2545,13 +2766,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2559,13 +2780,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2573,277 +2794,277 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>166</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>201</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>178</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -2877,7 +3098,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2885,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2893,7 +3114,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2909,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2923,21 +3144,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s" ph="1">
-        <v>192</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2945,13 +3166,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>237</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3017,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3025,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3033,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3052,13 +3273,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3066,13 +3287,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3088,21 +3309,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3110,13 +3331,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3124,13 +3345,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3138,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3187,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3219,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3238,21 +3459,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3260,37 +3481,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3336,7 +3557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AC582-7A6D-4EA0-8C12-75B8749BA9E2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
@@ -3353,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3361,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3369,7 +3590,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3377,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3388,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3411,10 +3632,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3422,13 +3643,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3436,18 +3657,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3455,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3466,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3477,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3491,26 +3712,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3518,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3526,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3534,15 +3755,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3553,7 +3774,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3570,37 +3791,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3617,60 +3838,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
+      <c r="B15" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
+      <c r="B16" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3678,163 +3884,145 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
+      <c r="B24" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3842,188 +4030,133 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
+      <c r="B36" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="D38" t="s" ph="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
+      <c r="D39" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4062,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4070,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4078,7 +4211,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4089,7 +4222,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4100,12 +4233,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4113,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4124,7 +4257,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4132,21 +4265,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4154,13 +4287,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4168,13 +4301,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4182,13 +4315,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4242,12 +4375,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4255,7 +4388,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4269,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4297,7 +4430,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4339,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4373,7 +4506,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C40058-3DD8-415E-9E91-8124B924EE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20838F3-F336-451D-93E6-26026F0DC793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="255">
   <si>
     <t>header1</t>
   </si>
@@ -74,60 +74,10 @@
     <t>win10-4-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Here, you will set up your PC to connect to &amp;quot;HINET Wi-Fi&amp;quot;.
-Find Wi-Fi icon on the lower right area of the desktop. When Wi-Fi is disabled, the icon looks like &lt;img height="30px" src="image/win10-wifi-indicator_3.png" /&gt;. Click the icon, click Wi-Fi button to turn on Wi-Fi. 
-The appearance of the Wi-Fi icon is changed to &lt;img height="30px" src="image/win10-wifi-indicator_1.png" /&gt;
-  </t>
-  </si>
-  <si>
-    <t>win10-4-02.svg</t>
-  </si>
-  <si>
-    <t>win10-4-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click &amp;quot;Connect&amp;quot;. 
-If you check the box for &amp;quot;Connect automatically&amp;quot;, your PC will connect to the chosen Wi-Fi AP automatically next time.
-  </t>
-  </si>
-  <si>
-    <t>win10-4-04.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input your &amp;quot;IMC account&amp;quot; in the upper box and its &amp;quot;HIRODAI password&amp;quot; in the lower one. 
-&lt;p class="spl"&gt;* &amp;quot;IMC account&amp;quot; is similar to student number but its first letter is in lowercaser.&lt;/p&gt;
-&lt;p class="spl"&gt;* When you need to type capital letter, press &amp;quot;Shift&amp;quot; key and letter key at the same time.&lt;/p&gt;
-Click &amp;quot;OK&amp;quot;
-   </t>
-  </si>
-  <si>
-    <t>win10-4-05.svg</t>
-  </si>
-  <si>
-    <t>win10-4-06.svg</t>
-  </si>
-  <si>
     <t>win10-4-07.svg</t>
   </si>
   <si>
     <t>panel panel-warning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="panel-heading"&gt;&lt;span class="glyphicon glyphicon-warning-sign"&gt;&lt;/span&gt;
- If you change your &amp;quot;HIRODAI password&amp;quot;, …&lt;/div&gt;
-&lt;div class="panel-body" style="padding:10px"&gt;Contrary to the mention above, you need to set up Wi-Fi connection in your PC again, when you change your &amp;quot;HIRODAI password&amp;quot;. &lt;/div&gt;
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you have finished to set up your PC to your chosen &amp;quot;HU-CUPxx&amp;quot;, you can connect your PC to the same one without inputting your &amp;quot;IMC account&amp;quot; and &amp;quot;HIRODAI password&amp;quot; next time. That is because your PC keep the information to connect to the Wi-Fi and use it to make a connection automatically.
-Therefore, when you change your &amp;quot;HIRODAI password&amp;quot;, you cannot connect your PC to Wi-Fi with the password which your PC keeps. In that case, you will not get the message like, &amp;quot;The user name or password is incorrect.&amp;quot; But you will simply face the fact that you cannot connect to Wi-Fi. Then some people make inquiries like, &amp;quot;I cannot connect to the network! What is wrong with my PC?&amp;quot;
-If you change your &amp;quot;HIRODAI password&amp;quot;, change the Wi-Fi setup in the following way;
-&lt;ol&gt;&lt;li&gt;Click Wi-Fi icon in the taskbar &lt;/li&gt;
-&lt;li&gt;Right-click &amp;quot;HU-CUPxx&amp;quot; and choose &amp;quot;Forget&amp;quot;&lt;br&gt;
- * You need to do it for every &amp;quot;HU-CUPxx&amp;quot;. &lt;/li&gt;
-&lt;li&gt;When unconnected &amp;quot;HU-CUPxx&amp;quot; appears in the list again, set up Wi-Fi connection again &lt;/li&gt;
-&lt;/ol&gt;
-  </t>
   </si>
   <si>
     <t>Set up Windows Update so that your Windows10 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
@@ -188,18 +138,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">When you are asked to continue connecting, click &amp;quot;Connect&amp;quot;. 
-When your PC has successfully connected to the Wi-Fi, you will see the word &amp;quot;Connected&amp;quot; under the name of the Wi-Fi. &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-24a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-10e.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -241,12 +180,6 @@
  &lt;/li&gt;
 &lt;/ul&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Now you can see the list of Wi-Fi AP (access points) which your PC can detect. Choose Wi-Fi AP named like &amp;quot;HU-CUPxx&amp;quot;. Here, each x represents a number. The two-digit number is different from the area in the campus. For examples, you will find &amp;quot;HU-CUP30&amp;quot; near School of Integrated Arts and Sciences, &amp;quot;HU-CUP40&amp;quot; in Kasumi campus, or &amp;quot;HU-CUP50&amp;quot; in Higashisneda campus.
-&lt;p class="spl"&gt;&amp;ast; If your PC could not detect Wi-Fi AP named &amp;quot;HU-CUPxx&amp;quot; in classroom, it possiblly does not meet system requirement, it should support 5GHz Wi-Fi. Please contact IMC staff.&lt;/p&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1909,6 +1842,28 @@
   </si>
   <si>
     <t>win11en-momiji-before-login.png</t>
+  </si>
+  <si>
+    <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUPxx" station (xx would be 2 digit numbers).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you can find HU-CUPxx station, please click it, and proceed to "connect" process. Please enter your IMC account (without @hiroshima-u.ac.jp) and password. Then click "connect" again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.
+When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUPxx" icon, and choose "forget" menu to clear it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-wifi-select.png</t>
+  </si>
+  <si>
+    <t>win11en-wifi-auth.png</t>
+  </si>
+  <si>
+    <t>win11en-wifi-connected.png</t>
   </si>
 </sst>
 </file>
@@ -2340,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2348,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2356,7 +2311,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2370,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2407,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2415,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2423,12 +2378,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -2436,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2447,7 +2402,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2455,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2490,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2498,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2506,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2517,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2574,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2582,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2590,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -2598,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2612,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2626,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -2638,21 +2593,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2660,13 +2615,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2674,13 +2629,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2688,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2702,24 +2657,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2727,13 +2682,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2741,24 +2696,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2766,13 +2721,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2780,13 +2735,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2794,277 +2749,277 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s" ph="1">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3098,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3106,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3114,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3122,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3130,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3144,21 +3099,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s" ph="1">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D8" s="5" t="s" ph="1">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3166,13 +3121,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s" ph="1">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3222,7 +3177,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3238,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3246,7 +3201,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3254,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3265,7 +3220,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3273,13 +3228,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3287,13 +3242,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3309,21 +3264,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,13 +3286,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3345,13 +3300,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3359,10 +3314,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3408,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3424,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3432,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3440,7 +3395,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3459,21 +3414,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3481,37 +3436,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3574,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3582,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3590,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3609,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3632,10 +3587,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3643,13 +3598,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3657,18 +3612,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3676,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3687,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3698,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3714,7 +3669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D7" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -3731,7 +3686,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3739,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3755,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3763,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3774,7 +3729,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3796,13 +3751,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3810,18 +3765,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,10 +3798,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3854,18 +3809,18 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3873,10 +3828,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3884,10 +3839,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3895,18 +3850,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3914,13 +3869,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3928,18 +3883,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3961,21 +3916,21 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3983,13 +3938,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3997,18 +3952,18 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4030,13 +3985,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4044,13 +3999,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4058,13 +4013,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4072,13 +4027,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4086,13 +4041,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4100,7 +4055,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -4114,13 +4069,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4128,21 +4083,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4150,13 +4105,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4171,7 +4126,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4187,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4195,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4203,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4211,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4222,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4233,12 +4188,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4246,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4257,7 +4212,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4265,21 +4220,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4287,13 +4242,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4301,13 +4256,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4315,13 +4270,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4334,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4367,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,12 +4330,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4388,13 +4343,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -4402,7 +4357,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4411,102 +4366,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20838F3-F336-451D-93E6-26026F0DC793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A65EED-629A-4836-A299-D2E3C6C1E0A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="241">
   <si>
     <t>header1</t>
   </si>
@@ -89,9 +89,6 @@
     <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Set up Windows Update&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>win10-6-01.svg</t>
-  </si>
-  <si>
     <t>win10-6-11.svg</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
   </si>
   <si>
     <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t>win10-6-25.svg</t>
-  </si>
-  <si>
-    <t>win10-6-26.svg</t>
   </si>
   <si>
     <t>Conclusion</t>
@@ -135,10 +126,6 @@
 &lt;/span&gt;
 &amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-24a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1362,455 +1349,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
-  </si>
-  <si>
-    <t>大学のオンラインサービスへのログイン (学生番号が必要です)</t>
-    <rPh sb="20" eb="22">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11 chap.6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
-&lt;strong&gt;この章の内容は、学生番号とそれに付属しているパスワードが必要です。この2つを入手してから実施してください。ただし、ネットワークは自宅のものでも、大学のものでも構いません。&lt;/strong&gt;
-これらのサービスを利用するにはWebブラウザを使います。
-WindowsではMicrosoft Edgeというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;もみじ (広大学生用ポータルサイト)&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mail"&gt;Office365 (Webメールとオンラインストレージ)&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mymomiji"&gt;MYもみじ (履修登録や掲示板など)&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#bb9"&gt;Bb9 (学習支援システム )&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#omake"&gt;おまけ&lt;/a&gt;
-&lt;/li&gt;
-&lt;ul&gt; &lt;/ul&gt;
-&lt;/ul&gt;
-</t>
-    <rPh sb="114" eb="115">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじ (広大学生用ポータルサイト)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
-GoogleなどのWeb検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「もみじ」はこのような画面です。以下では、右側に並んでいるバナーのうち、「Webメール」について説明します。次に、履修登録などを行う「MYもみじ」について、最後に「Bb9」について説明します。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t>microsoft.comにアクセスします。画面の一番上に広告が出てくることがありますが、「結構です」で消しておきましょう。右上に「サインイン」と注された人型アイコンがあるので、クリックします。URLフォームの横にある人型アイコンではないことに注意してください。</t>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウコク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ケッコウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IMCアカウントを「@hiroshima-u.ac.jp」つきで入力し、さらにパスワードも入力します。このサイトはMicrosoftのサイトなので、「@hiroshima-u.ac.jp」がついていないと貴方の学生番号がどの大学のものか判らないため、「@hiroshima-u.ac.jp」を加える必要があります。</t>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>アナタ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Edgeがパスワードを保存するかどうか確認してきますが、初期パスワードを変更する可能性がありますので、「なし」にしましょう。サインインの状態は保持しても構いません。</t>
-    <rPh sb="11" eb="13">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サインインが完了すると、右上の人型のマークが社員証のマークに変わっています。これをクリックしてサブメニューを表示させ、さらに「アカウントを表示」に進みます。「マイアカウント」というページに移動します。</t>
-    <rPh sb="6" eb="8">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒトガタ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>シャインショウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マイアカウント」のページの左上に3x3個の点が並んでいるアイコンがあるので、これをクリックしてサブメニューを表示させます。その中の「Office」をクリックすると、「マイアカウント」から「Office365」のページに移動します。</t>
-    <rPh sb="14" eb="16">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Office365のページの左側にブラウザ内で使用できるアプリのアイコンが並びます。「O」の文字があるOutlook for Webをクリックします。</t>
-    <rPh sb="14" eb="16">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Outlook for Webのページが開き、新着メールを確認することができます。大学からのメール連絡は広大メールに来ますので、常にメールチェックするようにしてください。</t>
-    <rPh sb="20" eb="21">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シンチャク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ツネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
-するとOffice365で使用できるアプリケーション一覧が表示されます。その中にある「OneDrive」をクリックしましょう
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ここにはひとりあたり１TBまで、データを置いておくことができます。
-データのバックアップをとっておいたり、外出先でもデータを取り出したりできるようになるので、活用しましょう。
-OneDriveにもアプリがありますので、スマホでも活用できます。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
-まず「Myもみじへログイン」をクリックしてください。
-   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広大IDとパスワードを入力し、「ログイン」をクリックします。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-10&lt;/span&gt;
-履修登録をしたり、成績を確認することができます。
-また「掲示」では、授業や学部からの連絡が表示されます。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)    </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">右側にかわいいイラストのバナーがありますね。これをクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">するとログイン画面が開きます。
-「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
-入力したら「ログイン」をクリックします。
-   </t>
-  </si>
-  <si>
     <t>win10-6-15.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
-「閉じる」をクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。</t>
-    <rPh sb="71" eb="73">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>キョウザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">まず、大学のプリンタへの印刷について。
-学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚4円、カラー印刷は1枚13円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
-で。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているGoogleDriveやDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
-OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
-で。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Microsoft Teams について。最近のWindows10パソコンでは、サインイン時にMicrosoft Teams が自動的に起動します。これはMicrosoftが提供しているグループチャットアプリで、広大メールアドレスとパスワードでサインインして使うことができます。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;「Microsft Teams」&lt;/a&gt;で。
-また、使わない場合は画面左下のウィンドウアイコンから「設定」→「アプリ」→「スタートアップ」と進んでTeamsのスイッチを「オフ」にすると、自動起動を止めることができます。</t>
-    <rPh sb="21" eb="23">
-      <t>サイキン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="264" eb="266">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="304" eb="305">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-0-13a.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最後に、VPNについて。「もみじ」で成績を見る時や、前述のプリンタ利用の時など、いくつかのサービスは学内ネットワークからしか利用ができません。自宅や帰省先でこういったサービスを使いたい場合は、VPNが使えます。設定のしかたについてはメディアセンターの説明ページを参照してください。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;「VPN(SSL-VPN)サービス」&lt;/a&gt;
-で。
-  </t>
-  </si>
-  <si>
     <t>win11en-momiji-before-login0.png</t>
   </si>
   <si>
@@ -1824,9 +1369,6 @@
   </si>
   <si>
     <t>win11en-ms-myaccount.png</t>
-  </si>
-  <si>
-    <t>win11en-ms-office365.png</t>
   </si>
   <si>
     <t>win11en-office365-outlook-start.png</t>
@@ -1864,6 +1406,102 @@
   </si>
   <si>
     <t>win11en-wifi-connected.png</t>
+  </si>
+  <si>
+    <t>Office365 for Web (Outlook and OneDrive), Momiji, Bb9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Online services (student ID is required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For first, please let us sign in to Office365 for Web. You would have the access with your mail address assigned by Hiroshima University, and would have the access of "OneDrive" online storage. Please start "Microsoft Edge" (or Google Chrome) and connect to "microsoft.com". Please click "sign in" icon on the page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edge would ask for the permission to store your password, please choose "never". But you can cache your sign in status by "Yes" to "Stay signed in".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The sign-in icon would be changed as "ID card" like icon. Please click it to expand the submenu, the proceed to "View account". You would be guided to Microsoft 365 web page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "dots" at the upper left corneer to expand the submenu. In the expaned menu, you would find "Outlook" icon.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be able to check the messages addressed to your email address assigned by Hiroshima University.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Again please click the "dots" at the upper left corner to expand the submenu. In the expanded menu, you would find "OneDrive" icon.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The size of "OneDrive" for Hiroshima University students is 1TB. Please backup your important files here. It is also useful to share it with your teacher, classmates, etc in the university.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Office365 (Outlook and OneDrive)&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Momiji&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The syllabus, the selection of the lectures are maganed by "Momiji" website. Please search "Hiroshima University momiji", in web search, and visit.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "Login to MyMOMIJI"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter your HIRODAI ID and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your personal status of the lectures you choosed are displayed like this.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "logout" button at the upper right corner.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Bb9&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The web site looks like this. This is non-personal page, which is often called as "Momiji top page". There are some links at the right sides.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "Blackboard learn" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bb9 is a previous learning management system. Within 2022, some teachers would use it. Please visit "Bb9" from the links at the right side buttons on the "Momiji Top Page"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter Hirodai ID and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your personal page looks like this.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In next login to Bb9, you would see the list of the courses which the lecturer invited you for their courses. Please note that some lecturer would use Bb9, others would use Moodle.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1886,18 +1524,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1912,12 +1544,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1929,7 +1558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2295,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2303,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2311,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2325,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2362,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2370,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2378,12 +2006,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -2391,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2402,7 +2030,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2410,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2445,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2453,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2461,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2472,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2521,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2529,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2537,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2545,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
@@ -2553,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -2567,13 +2195,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2581,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -2593,21 +2221,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2615,13 +2243,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2629,13 +2257,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2643,13 +2271,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2657,24 +2285,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -2682,13 +2310,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2696,24 +2324,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -2721,13 +2349,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2735,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -2749,277 +2377,277 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s" ph="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s" ph="1">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s" ph="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s" ph="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s" ph="1">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s" ph="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s" ph="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s" ph="1">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s" ph="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s" ph="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s" ph="1">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s" ph="1">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s" ph="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s" ph="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s" ph="1">
         <v>95</v>
-      </c>
-      <c r="D37" t="s" ph="1">
-        <v>99</v>
       </c>
     </row>
     <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s" ph="1">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s" ph="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s" ph="1">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s" ph="1">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s" ph="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s" ph="1">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s" ph="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s" ph="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s" ph="1">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s" ph="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s" ph="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s" ph="1">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s" ph="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s" ph="1">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s" ph="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s" ph="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s" ph="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s" ph="1">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s" ph="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
@@ -3043,54 +2671,54 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>114</v>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>119</v>
+      <c r="B4" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3098,49 +2726,49 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>169</v>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s" ph="1">
-        <v>123</v>
+      <c r="D7" s="4" t="s" ph="1">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="5" t="s" ph="1">
-        <v>167</v>
+      <c r="B8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="4" t="s" ph="1">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s" ph="1">
-        <v>168</v>
+      <c r="D9" s="4" t="s" ph="1">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3169,7 +2797,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3193,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3209,12 +2837,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3228,13 +2856,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>171</v>
+      <c r="D8" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3242,13 +2870,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>172</v>
+      <c r="D9" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3264,21 +2892,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>173</v>
+      <c r="D11" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3286,13 +2914,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>175</v>
+      <c r="D13" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3300,13 +2928,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>176</v>
+      <c r="D14" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3314,10 +2942,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3363,7 +2991,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3379,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3387,7 +3015,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3395,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3414,21 +3042,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3436,37 +3064,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3521,7 +3149,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3529,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3545,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3553,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3564,12 +3192,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3587,10 +3215,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>136</v>
+        <v>197</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,13 +3226,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>137</v>
+      <c r="D10" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
@@ -3612,18 +3240,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>139</v>
+      <c r="D11" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3631,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3642,7 +3270,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3653,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3667,10 +3295,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3681,12 +3309,12 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3694,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3702,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3710,15 +3338,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3727,9 +3355,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,71 +3371,59 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
         <v>208</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3809,29 +3431,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3839,10 +3458,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3850,269 +3472,151 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>221</v>
+      <c r="B24" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>222</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D32" ph="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" t="s" ph="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D48" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4142,7 +3646,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4150,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4158,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4166,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4177,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4188,12 +3692,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4201,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4212,7 +3716,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4220,21 +3724,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4242,13 +3746,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4256,27 +3760,27 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>157</v>
+      <c r="B15" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4289,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4322,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4330,12 +3834,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4343,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4357,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4371,13 +3875,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4385,13 +3889,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4399,13 +3903,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A65EED-629A-4836-A299-D2E3C6C1E0A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB259B8-DC64-40D2-B974-95E9747A5720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="235">
   <si>
     <t>header1</t>
   </si>
@@ -796,384 +796,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Microsoft Office を使えるようにしましょう。</t>
-    <rPh sb="18" eb="19">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Microsoft Officeのサインイン (学生番号が必要です)</t>
-    <rPh sb="24" eb="26">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11 chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Officeにサインインします。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Microsoft Officeのサインイン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>広島大学では、学生の皆さんの個人所有のPCにMicrosoft Office365 Pro Plusを5台までインストールすることができる包括ライセンスを結んでいます。ただし、卒業して学籍を失うと、利用することができなくなってしまいます。ご自分で別途Microsoft Officeを購入してインストールした方は、この章を飛ばしていただいて構いません。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ムス</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ウシナ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学で情報サービスを使うときに必要な２種類のIDをもういちど確認しましょう。二種類とも学生番号をもとにしています。
-一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
-対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
-IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第6章で紹介します。
-  </t>
-    <rPh sb="21" eb="23">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="335" eb="336">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="337" eb="338">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Microsoft Officeを入れる&lt;/h2&gt;</t>
-    <rPh sb="42" eb="43">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">それでは、まずMicrosoft Officeが既にインストールされているか確認しましょう。タスクバーのスタートボタンを押し、スタートメニューを開きます。その中にWord, Excel, PowerPointなどがあれば既にインストールされているのですが、見つからない場合には検索フォームにExcelなどと入力して探します。Excelが見つからない場合は、まだPCにOfficeがインストールされていないようです。まずダウンロードしてインストールする必要があります。このテキストの後ろにある「（付録A）Officeのダウンロード」の章に進んでください。
-  </t>
-    <rPh sb="24" eb="25">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>サガ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="266" eb="267">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="268" eb="269">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在のMicrosoft OfficeにはMicrosoftアカウントと関係なく使える(買い切り版と言われます)Microsoft Office 2021と、Microsoftアカウントに対して一定期間の使用許諾が与えられる(または購入)できるMicrosoft Office 365の2つがあります。PCショップでOffice2021プリインストールモデルを買った場合はすぐ使える筈ですが、Office365プリインストールの場合にはMicrosoftアカウントとの関連付けが求められます。広島大学のOffice365アカウントを使うために「別のアカウントを使用する」をクリックして進めます。さらに「サインイン」で進めます。
-手動でOffice365をインストールした場合は、「続行」で進めることができます。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="236" eb="237">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="266" eb="267">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="272" eb="273">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="280" eb="282">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="292" eb="293">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="308" eb="309">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="314" eb="316">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="335" eb="337">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="340" eb="342">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="344" eb="345">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IMCアカウント(@hiroshima-u.ac.jpを含む)を入力し、パスワードも入力します。</t>
-    <rPh sb="28" eb="29">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「組織がデバイスを管理できるようにする」のチェックを外し、「いいえ、このアプリのみにサインインします」をクリックします。</t>
-    <rPh sb="1" eb="3">
-      <t>ソシキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
-&lt;p class="spl"&gt;※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものです。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ればいつでも読めるので、時間のある時に読んでおいてください。&lt;/p&gt;
-これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;strong&gt;広島大学のOffice365アカウントは卒業などで学籍を失うと無くなってしまうので、Office365がインストールされたままでも卒業後は使えなくなります。&lt;/strong&gt;
-以上でこの章の作業は終了です。</t>
-    <rPh sb="6" eb="8">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ホンライ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ケイヤクショ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>タド</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-search-excel.png</t>
   </si>
   <si>
@@ -1501,6 +1123,34 @@
   </si>
   <si>
     <t>In next login to Bb9, you would see the list of the courses which the lecturer invited you for their courses. Please note that some lecturer would use Bb9, others would use Moodle.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sign in to your Office365 app.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sign in to your Office365 app (student ID is required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please open "start menu" and search "Excel" (or "Word" or "PowerPoint") icon. If you have preinstalled one, it might be pinned. If you cannot find such, please install Office365 app from Microsoft365 web page (which you have visited for Outlook and OneDrive), and return to the following process.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please open the "Excel". If your preinstalled one is provided without the license, there would be a dialog saying "This account doesn't have Office yet" or "welcome to Office". Please proceed to sign in for Office365 sign in.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter IMC account (including "@hiroshima-u.ac.jp") and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please uncheck "Allow my organization to manage...", and click "No, sign in this app only".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2243,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -2296,7 +1946,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -2630,7 +2280,7 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>105</v>
@@ -2641,7 +2291,7 @@
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>105</v>
@@ -2727,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2738,10 +2388,10 @@
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2755,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2856,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2870,13 +2520,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2892,21 +2542,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2914,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2928,13 +2578,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2942,10 +2592,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3023,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3042,21 +2692,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3064,37 +2714,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3157,7 +2807,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3165,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3215,7 +2865,7 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>132</v>
@@ -3226,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3297,7 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:D29"/>
     </sheetView>
   </sheetViews>
@@ -3314,7 +2964,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3346,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3360,10 +3010,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,18 +3021,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3390,10 +3040,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3401,10 +3051,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3412,18 +3062,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3431,13 +3081,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3450,7 +3100,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3458,7 +3108,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3472,10 +3122,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3483,18 +3133,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
         <v>133</v>
@@ -3505,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -3519,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -3533,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -3547,7 +3197,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -3558,7 +3208,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -3569,10 +3219,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3580,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -3591,7 +3241,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -3627,10 +3277,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45722500-6D63-48B1-B48D-DE8F55297416}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3646,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3654,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,117 +3320,77 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="132" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="132" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3793,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3875,13 +3485,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3889,13 +3499,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3903,13 +3513,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB259B8-DC64-40D2-B974-95E9747A5720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D44C83A-C6D4-42AB-B815-5EB9A7F67916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="236">
   <si>
     <t>header1</t>
   </si>
@@ -1126,14 +1126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sign in to your Office365 app.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sign in to your Office365 app (student ID is required)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please open "start menu" and search "Excel" (or "Word" or "PowerPoint") icon. If you have preinstalled one, it might be pinned. If you cannot find such, please install Office365 app from Microsoft365 web page (which you have visited for Outlook and OneDrive), and return to the following process.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1151,6 +1143,18 @@
   </si>
   <si>
     <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Activate your Office365 app.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Activate your Office365 app (student ID is required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter. Hiroshima University provides Office365 license uptp 5 devices per single student, but it would be expired as soon as you graduate Hiroshima University. To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3277,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45722500-6D63-48B1-B48D-DE8F55297416}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3304,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3329,40 +3333,31 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3370,26 +3365,40 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>234</v>
+      <c r="B11" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>145</v>
       </c>
     </row>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D44C83A-C6D4-42AB-B815-5EB9A7F67916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBFEA90-DB5F-42F3-AF6D-647DB3636CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,7 +1154,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter. Hiroshima University provides Office365 license uptp 5 devices per single student, but it would be expired as soon as you graduate Hiroshima University. To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter.&lt;br&gt;Hiroshima University provides Office365 license uptp 5 devices per single student, but it would be expired as soon as your graduation.&lt;br&gt;To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3284,7 +3284,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBFEA90-DB5F-42F3-AF6D-647DB3636CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988BEDB-0D91-4AB2-B9DD-5C8173CF1E28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="232">
   <si>
     <t>header1</t>
   </si>
@@ -556,239 +556,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ログインしたら、この画面が出ます。&lt;span class="check"&gt;check-8&lt;/span&gt;
-真ん中に見える「コース概要」に、あなたがアクセスできるコースが表示されています。これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。（この図は在学生向けの一例で、新入生に表示されるものとは異なります）
-新入生向けに共通で表示されるものを簡単に説明すると：
-&lt;dl&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
-&lt;dt&gt;MFA21 MFA設定ガイド&lt;/dt&gt;
-&lt;dd&gt;広島大学ではパスワード窃取・アカウント乗っ取りの防止策として、広大IDを持つ全ての構成員に対しIMCアカウントおよび広大IDの多要素認証（MFA）設定を義務付けています。この「MFA設定ガイド」で、広島大学でMFA設定を行うための手順を説明しています&lt;/dd&gt; &lt;/dl&gt;
-</t>
-    <rPh sb="56" eb="57">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>リシュウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="174" eb="177">
-      <t>シンニュウセイ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="330" eb="332">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="333" eb="335">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="336" eb="337">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="348" eb="349">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="357" eb="358">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="401" eb="403">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="416" eb="420">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="427" eb="429">
-      <t>セッシュ</t>
-    </rPh>
-    <rPh sb="435" eb="436">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="437" eb="438">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="447" eb="449">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="452" eb="453">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="454" eb="455">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="457" eb="460">
-      <t>コウセイイン</t>
-    </rPh>
-    <rPh sb="461" eb="462">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="474" eb="476">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="479" eb="484">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="489" eb="491">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="492" eb="495">
-      <t>ギムヅ</t>
-    </rPh>
-    <rPh sb="507" eb="509">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="515" eb="519">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="523" eb="525">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="526" eb="527">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="531" eb="533">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="534" eb="536">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>moodle-top.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;多要素認証(MFA)の設定&lt;/h2&gt; </t>
-    <rPh sb="22" eb="27">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Moodleの「コース概要」の中の「MFA21 MFA設定ガイド」をクリックして、まず表示される「広大IDとIMCアカウントの概要」を読んでください。</t>
-    <rPh sb="11" eb="13">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下の方にある「IMCアカウントのMFA設定」の説明に従ってIMCアカウントの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="38" eb="43">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下の方にある「広大IDのMFA設定」の説明に従って広大IDの多要素認証（MFA）設定を行ってください。&lt;span class="check"&gt;check-10&lt;/span&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="30" eb="35">
-      <t>タヨウソニンショウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1155,6 +923,19 @@
   </si>
   <si>
     <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter.&lt;br&gt;Hiroshima University provides Office365 license uptp 5 devices per single student, but it would be expired as soon as your graduation.&lt;br&gt;To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When you login the Moodle, such page would be shown.&lt;span class="check"&gt;check-8&lt;/span&gt;
+"Course overview" would list the courses which you can register.
+For the freshman students, following 2 courses (and more) would be listed.
+&lt;dl&gt;
+&lt;dt&gt;Laptop checklist 2021&lt;/dt&gt;
+&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.
+Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dd&gt;
+&lt;dt&gt;MFA21 Guidance for Multi-Factor Authentication&lt;/dt&gt;
+&lt;dd&gt;All members of Hiroshima University are requested to configure the multi-factor authentication for the accounts provided by the university, to prevent the password phising. If your account is left without MFA configuration, your account would be locked by 90 days later. Detailed process is described in this course.&lt;/dd&gt; &lt;/dl&gt;
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1627,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1743,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1798,7 +1579,7 @@
     <col min="5" max="16384" width="8.77734375" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
@@ -1830,7 +1611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="204" ph="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -1897,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1950,7 +1731,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -2284,7 +2065,7 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>105</v>
@@ -2295,7 +2076,7 @@
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>105</v>
@@ -2381,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2392,10 +2173,10 @@
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2409,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2510,13 +2291,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2524,13 +2305,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,21 +2327,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2568,13 +2349,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2582,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2596,10 +2377,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2677,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2696,21 +2477,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2718,37 +2499,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2794,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AC582-7A6D-4EA0-8C12-75B8749BA9E2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2811,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2819,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2846,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2869,7 +2650,7 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>132</v>
@@ -2880,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2889,54 +2670,46 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -2944,6 +2717,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2968,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2976,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2992,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3000,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3014,10 +2788,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3025,18 +2799,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3044,10 +2818,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3055,10 +2829,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3066,18 +2840,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3085,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3104,7 +2878,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3112,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3126,10 +2900,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3137,18 +2911,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
         <v>133</v>
@@ -3159,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -3173,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -3187,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -3201,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -3212,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -3223,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3234,7 +3008,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -3245,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -3283,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45722500-6D63-48B1-B48D-DE8F55297416}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3300,7 +3074,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3308,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3324,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3335,7 +3109,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3343,21 +3117,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3365,13 +3139,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3379,13 +3153,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3393,13 +3167,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3412,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3494,13 +3268,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3508,13 +3282,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3522,13 +3296,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988BEDB-0D91-4AB2-B9DD-5C8173CF1E28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8043D34-233E-4B07-803D-29BD52DF5F06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -545,9 +545,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fresta</t>
-  </si>
-  <si>
     <t>moodle-login.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -936,6 +933,10 @@
 &lt;dt&gt;MFA21 Guidance for Multi-Factor Authentication&lt;/dt&gt;
 &lt;dd&gt;All members of Hiroshima University are requested to configure the multi-factor authentication for the accounts provided by the university, to prevent the password phising. If your account is left without MFA configuration, your account would be locked by 90 days later. Detailed process is described in this course.&lt;/dd&gt; &lt;/dl&gt;
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresta_en</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1408,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1493,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E70A2B-96AA-4C94-9421-5C006AEAF8E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B46" sqref="B46:D46"/>
     </sheetView>
   </sheetViews>
@@ -1678,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1731,7 +1732,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -2065,7 +2066,7 @@
     </row>
     <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s" ph="1">
         <v>105</v>
@@ -2076,7 +2077,7 @@
     </row>
     <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s" ph="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s" ph="1">
         <v>105</v>
@@ -2162,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2173,10 +2174,10 @@
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2190,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2223,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2291,13 +2292,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2305,13 +2306,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2327,21 +2328,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2349,13 +2350,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,13 +2364,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,10 +2378,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2477,21 +2478,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2499,37 +2500,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2575,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AC582-7A6D-4EA0-8C12-75B8749BA9E2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2592,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2600,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2608,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2627,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2650,10 +2651,10 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2661,13 +2662,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
@@ -2675,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2725,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2742,7 +2743,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2750,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2766,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2788,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2799,18 +2800,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2818,10 +2819,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2829,10 +2830,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2840,18 +2841,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2859,13 +2860,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2878,7 +2879,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2886,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2900,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2911,21 +2912,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2933,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2947,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -2961,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2975,7 +2976,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -2986,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -2997,10 +2998,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3008,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -3019,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -3058,7 +3059,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3074,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3082,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3090,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3109,7 +3110,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3117,21 +3118,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3139,13 +3140,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3153,13 +3154,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3167,13 +3168,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3268,13 +3269,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3282,13 +3283,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3296,13 +3297,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8043D34-233E-4B07-803D-29BD52DF5F06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F9DA84-79E4-4F30-B371-E3986B04A692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="9" r:id="rId2"/>
-    <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="6" r:id="rId4"/>
-    <sheet name="ch3" sheetId="4" r:id="rId5"/>
+    <sheet name="ch1" sheetId="4" r:id="rId3"/>
+    <sheet name="ch2" sheetId="3" r:id="rId4"/>
+    <sheet name="ch3" sheetId="6" r:id="rId5"/>
     <sheet name="ch4" sheetId="11" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
     <sheet name="ch6" sheetId="12" r:id="rId8"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="235">
   <si>
     <t>header1</t>
   </si>
@@ -493,10 +493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11en chap.7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -509,9 +505,6 @@
   </si>
   <si>
     <t>win11en-gear.png</t>
-  </si>
-  <si>
-    <t>win11en-setting-system.png</t>
   </si>
   <si>
     <t>win11en-account-others-add.png</t>
@@ -708,14 +701,6 @@
   </si>
   <si>
     <t>Please search "google chrome download", and install it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login to Moodle and set multifactor authentication.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login to Moodle and set multifactor authentication (student ID is needed)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -937,6 +922,34 @@
   </si>
   <si>
     <t>fresta_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11 chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-account-type-check2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-account-type-check.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win11 chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creating a local account for the lectures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In this chapter, you would create a local account for the lectures. If you are using a local account already, and it is an administrator, you can skip this chapter. Please confirm the type of your current account in following procedure.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your current account information is displayed at the top of the right side. If your current account is a local account and an administrator, you can jump to the next chapter.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1442,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1494,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E70A2B-96AA-4C94-9421-5C006AEAF8E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1509,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1525,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1567,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:D46"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1637,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1679,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1732,7 +1745,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -1921,172 +1934,52 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s" ph="1">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s" ph="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s" ph="1">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s" ph="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s" ph="1">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s" ph="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s" ph="1">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s" ph="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s" ph="1">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s" ph="1">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s" ph="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s" ph="1">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D38" t="s" ph="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s" ph="1">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s" ph="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s" ph="1">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s" ph="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s" ph="1">
-        <v>104</v>
-      </c>
-      <c r="C41" t="s" ph="1">
-        <v>105</v>
-      </c>
-      <c r="D41" t="s" ph="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s" ph="1">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s" ph="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s" ph="1">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s" ph="1">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" t="s" ph="1">
-        <v>105</v>
-      </c>
-      <c r="D44" t="s" ph="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s" ph="1">
-        <v>143</v>
-      </c>
-      <c r="C45" t="s" ph="1">
-        <v>105</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" ph="1"/>
     </row>
   </sheetData>
@@ -2097,11 +1990,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A1" t="s" ph="1">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" ph="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" ph="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A5" ph="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A6" ph="1"/>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" ph="1"/>
+      <c r="B7" s="1" t="s" ph="1">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s" ph="1">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s" ph="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s" ph="1">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s" ph="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s" ph="1">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s" ph="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s" ph="1">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s" ph="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s" ph="1">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s" ph="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s" ph="1">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s" ph="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s" ph="1">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s" ph="1">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s" ph="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s" ph="1">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s" ph="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s" ph="1">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s" ph="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s" ph="1">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s" ph="1">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s" ph="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s" ph="1">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s" ph="1">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s" ph="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s" ph="1">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s" ph="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s" ph="1">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s" ph="1">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s" ph="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s" ph="1">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s" ph="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s" ph="1">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s" ph="1">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s" ph="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2163,21 +2335,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2191,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2220,12 +2392,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2265,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2292,13 +2464,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2306,13 +2478,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2328,21 +2500,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2350,13 +2522,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2364,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2378,10 +2550,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,172 +2568,6 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2577,13 +2583,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
   </cols>
@@ -2593,24 +2599,27 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2619,82 +2628,90 @@
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>4</v>
+      <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,15 +2722,10 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
       <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2724,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2743,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2751,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2759,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2767,119 +2779,113 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
-      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>206</v>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2887,13 +2893,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2901,68 +2904,64 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
+      <c r="B19" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2976,32 +2975,32 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>217</v>
+      <c r="B26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>219</v>
+      <c r="B27" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3009,43 +3008,118 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D32" ph="1"/>
+      <c r="B31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D48" ph="1"/>
+      <c r="B33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D39" ph="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D55" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3075,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3083,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3091,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3099,7 +3173,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3110,7 +3184,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3118,21 +3192,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3140,13 +3214,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3154,13 +3228,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,13 +3242,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3269,13 +3343,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3283,13 +3357,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3297,13 +3371,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F9DA84-79E4-4F30-B371-E3986B04A692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A250C6FD-93A0-4B11-A4AF-17289C9C9E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="236">
   <si>
     <t>header1</t>
   </si>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>On the left side list of the "Settings" application window, you can find "Accounts" menu. Please select it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please open the "start menu" window again, and choose the "Sign out" menu from the lower left "human icon" button.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -950,6 +946,14 @@
   </si>
   <si>
     <t>Your current account information is displayed at the top of the right side. If your current account is a local account and an administrator, you can jump to the next chapter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the desktop. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "gear" icon to start the "Settings" application. On the left side list of the "Settings" application window, you can find "Accounts" menu. Please select it.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1455,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1522,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1630,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1650,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1692,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1745,7 +1749,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -1933,51 +1937,6 @@
       <c r="D30" t="s" ph="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" ph="1"/>
@@ -1994,7 +1953,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2010,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2018,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2034,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2043,13 +2002,13 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>42</v>
@@ -2058,26 +2017,26 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>42</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>42</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2102,7 +2061,7 @@
         <v>91</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2113,7 +2072,7 @@
         <v>91</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2124,7 +2083,7 @@
         <v>91</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -2135,7 +2094,7 @@
         <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2157,7 +2116,7 @@
         <v>91</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -2168,10 +2127,10 @@
         <v>91</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
         <v>100</v>
       </c>
@@ -2184,54 +2143,54 @@
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s" ph="1">
         <v>104</v>
       </c>
-      <c r="C20" t="s" ph="1">
-        <v>105</v>
-      </c>
       <c r="D20" t="s" ph="1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s" ph="1">
         <v>60</v>
@@ -2297,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2335,21 +2294,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2363,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2437,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2464,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2478,13 +2437,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2500,21 +2459,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,13 +2481,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2495,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,10 +2509,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2639,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2659,21 +2618,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2681,37 +2640,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2755,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2763,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2771,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2779,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2787,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2808,12 +2767,12 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,27 +2780,27 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="224.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2849,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2863,10 +2822,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2874,18 +2833,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2893,10 +2852,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2904,10 +2863,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2915,18 +2874,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2934,13 +2893,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2953,7 +2912,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2961,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2975,10 +2934,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,21 +2945,21 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3008,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -3022,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -3036,7 +2995,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -3050,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -3061,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -3072,10 +3031,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3083,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -3094,7 +3053,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -3149,7 +3108,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3157,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3165,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3184,7 +3143,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3192,21 +3151,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,13 +3173,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3228,13 +3187,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3242,13 +3201,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3343,13 +3302,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3357,13 +3316,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3371,13 +3330,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A250C6FD-93A0-4B11-A4AF-17289C9C9E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE300F1-D485-41BF-B775-4C62319A3817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
   <si>
     <t>header1</t>
   </si>
@@ -77,9 +77,6 @@
     <t>win10-4-07.svg</t>
   </si>
   <si>
-    <t>panel panel-warning</t>
-  </si>
-  <si>
     <t>Set up Windows Update so that your Windows10 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
   </si>
   <si>
@@ -107,16 +104,10 @@
     <t>win10-6-17.svg</t>
   </si>
   <si>
-    <t>Conclusion</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>&lt;h3&gt;Helpdesk&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;F3S workshop&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
@@ -146,10 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Install Google Chrome and activate Microsoft Office.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Here, you will set up Windows Update which keeps your Wndows10 and Office updated. 
 Furthermore, you will learn how to use Microsoft Defender&amp;apos;s full scan.
 &lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Set up Windows Update &lt;/a&gt;
@@ -157,15 +144,6 @@
 &lt;li&gt;&lt;a href="#defender"&gt;Microsoft Defender -manual update and a full scan-&lt;/a&gt;
 &lt;/li&gt;
  &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
-In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
  </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -727,16 +705,10 @@
     <t>win11en-momiji-before-login0.png</t>
   </si>
   <si>
-    <t>win11en-ms-signin.png</t>
-  </si>
-  <si>
     <t>win11en-ms-signin2.png</t>
   </si>
   <si>
     <t>win11en-ms-signin3.png</t>
-  </si>
-  <si>
-    <t>win11en-ms-myaccount.png</t>
   </si>
   <si>
     <t>win11en-office365-outlook-start.png</t>
@@ -784,19 +756,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>For first, please let us sign in to Office365 for Web. You would have the access with your mail address assigned by Hiroshima University, and would have the access of "OneDrive" online storage. Please start "Microsoft Edge" (or Google Chrome) and connect to "microsoft.com". Please click "sign in" icon on the page.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Edge would ask for the permission to store your password, please choose "never". But you can cache your sign in status by "Yes" to "Stay signed in".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The sign-in icon would be changed as "ID card" like icon. Please click it to expand the submenu, the proceed to "View account". You would be guided to Microsoft 365 web page.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -954,6 +918,44 @@
   </si>
   <si>
     <t>Please click the "gear" icon to start the "Settings" application. On the left side list of the "Settings" application window, you can find "Accounts" menu. Please select it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How to install Office365 application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If your PC does not have preinstalled Office365, you can download it from your Office365 web page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-imc-office365-portal.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit.there.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You can find "Install Office" button on the upper right. Please click it to expand its submenu, and check "Office 365 apps". You can download the network installer onto your PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-download.png</t>
+  </si>
+  <si>
+    <t>When you start the installer, it would ask you to confirm your decition to change your computer. After checking that the verified publisher is Microsoft, please click "Yes" to proceed the installation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-install.png</t>
+  </si>
+  <si>
+    <t>Install Google Chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1376,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1392,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1406,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1424,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,45 +1461,63 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1532,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1526,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1553,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1602,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1610,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1618,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1626,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1634,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1648,13 +1668,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1662,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1674,21 +1694,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1696,13 +1716,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1710,13 +1730,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1724,13 +1744,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1738,24 +1758,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1763,13 +1783,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1777,24 +1797,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -1802,13 +1822,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1816,13 +1836,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1830,112 +1850,112 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
@@ -1952,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1969,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1977,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1985,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1993,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2002,41 +2022,41 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2044,156 +2064,156 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s" ph="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2272,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2280,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2294,21 +2314,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2316,13 +2336,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2372,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2380,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2404,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2415,7 +2435,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2423,13 +2443,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2437,13 +2457,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2459,21 +2479,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,13 +2501,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2495,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2509,10 +2529,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2542,7 +2562,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2558,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2576,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3"/>
     </row>
@@ -2585,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2598,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2618,21 +2638,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2640,37 +2660,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2695,10 +2715,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2714,7 +2734,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2722,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2730,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2738,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2746,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2769,10 +2789,10 @@
     </row>
     <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2780,13 +2800,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="224.4" x14ac:dyDescent="0.2">
@@ -2794,13 +2814,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2808,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2817,15 +2837,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2833,18 +2853,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2852,10 +2872,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2863,56 +2883,59 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2920,46 +2943,46 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>211</v>
+      <c r="B25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>207</v>
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2976,40 +2999,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -3020,10 +3040,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3031,32 +3051,26 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3064,21 +3078,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D39" ph="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D55" ph="1"/>
+    <row r="38" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D38" ph="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D54" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3092,7 +3101,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3116,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3124,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3132,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,7 +3152,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3151,21 +3160,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,13 +3182,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3187,13 +3196,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3218,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3253,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,12 +3270,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3274,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3288,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3302,13 +3311,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3316,13 +3325,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3330,13 +3339,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3345,18 +3354,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE300F1-D485-41BF-B775-4C62319A3817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE14FA-D43C-4EC1-9400-845E1D501BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE14FA-D43C-4EC1-9400-845E1D501BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927CE56-D585-4749-9C03-2666C7F2B457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,10 +921,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>How to install Office365 application.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>If your PC does not have preinstalled Office365, you can download it from your Office365 web page.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -956,6 +952,10 @@
   </si>
   <si>
     <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appendix: How to install Office365 application.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1501,23 +1501,23 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
         <v>231</v>
-      </c>
-      <c r="D9" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
         <v>233</v>
-      </c>
-      <c r="D10" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2842,10 +2842,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927CE56-D585-4749-9C03-2666C7F2B457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E8A21-F678-458A-BBD1-1B010B224E60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="239">
   <si>
     <t>header1</t>
   </si>
@@ -957,6 +957,12 @@
   <si>
     <t>Appendix: How to install Office365 application.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
+  </si>
+  <si>
+    <t>mymomiji-1stlogin-en.png</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2715,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2972,17 +2978,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
+      <c r="B27" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2990,49 +2990,52 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3040,10 +3043,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3051,26 +3054,32 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3078,16 +3087,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D38" ph="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D54" ph="1"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D39" ph="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D55" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E8A21-F678-458A-BBD1-1B010B224E60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="240">
   <si>
     <t>header1</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
-Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
-HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
-  </t>
   </si>
   <si>
     <t>Install required programs</t>
@@ -963,6 +957,17 @@
   </si>
   <si>
     <t>mymomiji-1stlogin-en.png</t>
+  </si>
+  <si>
+    <t>win11en-check-storage-size.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
+Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
+HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1384,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1392,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1400,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1414,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1451,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,12 +1472,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1480,18 +1485,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1499,31 +1504,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
         <v>230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
         <v>232</v>
-      </c>
-      <c r="D10" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1560,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1568,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1579,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1628,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1636,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1644,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1652,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1660,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1674,13 +1679,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1688,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1700,21 +1705,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1722,13 +1727,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1736,13 +1741,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1750,13 +1755,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1764,24 +1769,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1789,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1803,24 +1808,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -1828,13 +1833,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1842,13 +1847,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1856,112 +1861,112 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
@@ -1995,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2003,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2011,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2019,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2028,41 +2033,41 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2070,156 +2075,156 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s" ph="1">
         <v>85</v>
       </c>
-      <c r="C12" t="s" ph="1">
-        <v>86</v>
-      </c>
       <c r="D12" t="s" ph="1">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s" ph="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s" ph="1">
         <v>98</v>
       </c>
-      <c r="C20" t="s" ph="1">
-        <v>99</v>
-      </c>
       <c r="D20" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2257,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2274,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2282,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2290,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2306,7 +2311,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2320,21 +2325,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2342,13 +2347,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2356,13 +2361,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2398,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2406,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2414,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2422,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2430,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2441,7 +2446,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2449,13 +2454,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2463,13 +2468,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2485,21 +2490,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2507,13 +2512,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2521,13 +2526,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2535,10 +2540,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,7 +2589,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2593,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2"/>
     </row>
@@ -2602,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3"/>
     </row>
@@ -2611,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2624,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2635,7 +2640,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7"/>
     </row>
@@ -2644,21 +2649,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2666,37 +2671,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2723,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
@@ -2740,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2748,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2756,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2764,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2772,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2795,10 +2800,10 @@
     </row>
     <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2806,13 +2811,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="224.4" x14ac:dyDescent="0.2">
@@ -2820,13 +2825,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2848,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2859,18 +2864,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2878,10 +2883,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2889,18 +2894,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2908,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2927,7 +2932,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2935,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -2949,10 +2954,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2960,29 +2965,29 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" t="s">
         <v>237</v>
-      </c>
-      <c r="D27" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2990,13 +2995,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3004,13 +3009,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3018,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -3032,10 +3037,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3043,10 +3048,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3054,10 +3059,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3065,10 +3070,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3076,10 +3081,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3139,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3155,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3166,7 +3171,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3174,21 +3179,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,13 +3201,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,13 +3215,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3224,13 +3229,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3268,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3276,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3284,12 +3289,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3297,13 +3302,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -3311,13 +3316,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3325,13 +3330,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3339,13 +3344,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3353,13 +3358,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3369,12 +3374,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2022_03\fresta2022\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BCFB3C-0CA0-4DD6-BB13-A453F2582538}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="3975" windowWidth="18225" windowHeight="11872" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,13 @@
     <sheet name="ch6" sheetId="12" r:id="rId8"/>
     <sheet name="ch7" sheetId="5" r:id="rId9"/>
     <sheet name="ch8" sheetId="8" r:id="rId10"/>
-    <sheet name="ch9" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="242">
   <si>
     <t>header1</t>
   </si>
@@ -62,9 +61,6 @@
     <t>Set up your PC to connect to HINET Wi-Fi.</t>
   </si>
   <si>
-    <t>Connect your PC to campus network</t>
-  </si>
-  <si>
     <t>win10-4-01.svg</t>
   </si>
   <si>
@@ -96,12 +92,6 @@
   </si>
   <si>
     <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Helpdesk&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
@@ -167,11 +157,6 @@
 &lt;li&gt; Battery run time &lt;/li&gt;
 &lt;/ol&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
-If you can connect your PC to Internet already, you may use it now and go on next chapter. The procesure in below should be operated after April 2nd, the day all related services are enabled.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -465,10 +450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Appendix</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-select-loca.png</t>
   </si>
   <si>
@@ -515,10 +496,6 @@
   </si>
   <si>
     <t>moodle-top.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.9</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -672,197 +649,293 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hiroshima University provides several online services for the student. For first, please login the "Moodle", and configure your account for the multifactor authentication (MFA).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Through following URL, please access to the home page of the "Moodle" in Hiroshima University.
+    <t>Please input "Hirodai ID", password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11 chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-15.svg</t>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login0.png</t>
+  </si>
+  <si>
+    <t>win11en-ms-signin2.png</t>
+  </si>
+  <si>
+    <t>win11en-ms-signin3.png</t>
+  </si>
+  <si>
+    <t>win11en-office365-outlook-start.png</t>
+  </si>
+  <si>
+    <t>win11en-outlook-for-web.png</t>
+  </si>
+  <si>
+    <t>win11en-office365-from-outlook-to-onedrive.png</t>
+  </si>
+  <si>
+    <t>win11en-onedrive-in-browser.png</t>
+  </si>
+  <si>
+    <t>win11en-momiji-before-login.png</t>
+  </si>
+  <si>
+    <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUPxx" station (xx would be 2 digit numbers).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you can find HU-CUPxx station, please click it, and proceed to "connect" process. Please enter your IMC account (without @hiroshima-u.ac.jp) and password. Then click "connect" again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.
+When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUPxx" icon, and choose "forget" menu to clear it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-wifi-select.png</t>
+  </si>
+  <si>
+    <t>win11en-wifi-auth.png</t>
+  </si>
+  <si>
+    <t>win11en-wifi-connected.png</t>
+  </si>
+  <si>
+    <t>Office365 for Web (Outlook and OneDrive), Momiji, Bb9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Online services (student ID is required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edge would ask for the permission to store your password, please choose "never". But you can cache your sign in status by "Yes" to "Stay signed in".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "dots" at the upper left corneer to expand the submenu. In the expaned menu, you would find "Outlook" icon.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be able to check the messages addressed to your email address assigned by Hiroshima University.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Again please click the "dots" at the upper left corner to expand the submenu. In the expanded menu, you would find "OneDrive" icon.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The size of "OneDrive" for Hiroshima University students is 1TB. Please backup your important files here. It is also useful to share it with your teacher, classmates, etc in the university.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Office365 (Outlook and OneDrive)&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Momiji&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The syllabus, the selection of the lectures are maganed by "Momiji" website. Please search "Hiroshima University momiji", in web search, and visit.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "Login to MyMOMIJI"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter your HIRODAI ID and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your personal status of the lectures you choosed are displayed like this.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "logout" button at the upper right corner.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Bb9&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The web site looks like this. This is non-personal page, which is often called as "Momiji top page". There are some links at the right sides.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "Blackboard learn" button.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bb9 is a previous learning management system. Within 2022, some teachers would use it. Please visit "Bb9" from the links at the right side buttons on the "Momiji Top Page"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter Hirodai ID and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your personal page looks like this.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please open "start menu" and search "Excel" (or "Word" or "PowerPoint") icon. If you have preinstalled one, it might be pinned. If you cannot find such, please install Office365 app from Microsoft365 web page (which you have visited for Outlook and OneDrive), and return to the following process.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please open the "Excel". If your preinstalled one is provided without the license, there would be a dialog saying "This account doesn't have Office yet" or "welcome to Office". Please proceed to sign in for Office365 sign in.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter IMC account (including "@hiroshima-u.ac.jp") and password.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please uncheck "Allow my organization to manage...", and click "No, sign in this app only".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Activate your Office365 app.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Activate your Office365 app (student ID is required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter.&lt;br&gt;Hiroshima University provides Office365 license uptp 5 devices per single student, but it would be expired as soon as your graduation.&lt;br&gt;To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresta_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win11 chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-account-type-check2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-account-type-check.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win11 chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creating a local account for the lectures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In this chapter, you would create a local account for the lectures. If you are using a local account already, and it is an administrator, you can skip this chapter. Please confirm the type of your current account in following procedure.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your current account information is displayed at the top of the right side. If your current account is a local account and an administrator, you can jump to the next chapter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the desktop. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "gear" icon to start the "Settings" application. On the left side list of the "Settings" application window, you can find "Accounts" menu. Please select it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If your PC does not have preinstalled Office365, you can download it from your Office365 web page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-imc-office365-portal.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit.there.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You can find "Install Office" button on the upper right. Please click it to expand its submenu, and check "Office 365 apps". You can download the network installer onto your PC.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-download.png</t>
+  </si>
+  <si>
+    <t>When you start the installer, it would ask you to confirm your decition to change your computer. After checking that the verified publisher is Microsoft, please click "Yes" to proceed the installation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win11en-office365-install.png</t>
+  </si>
+  <si>
+    <t>Install Google Chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appendix: How to install Office365 application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-1stlogin-en.png</t>
+  </si>
+  <si>
+    <t>win11en-check-storage-size.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
+Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
+HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Hirodai moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In next login to Bb9, you would see the list of the courses which the lecturer invited you for their courses. Please note that some lecturer would use Bb9, others would use Hirodai moodle.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hiroshima University provides several online services for the student. For first, please login the "Hirodai moodle", and configure your account for the multifactor authentication (MFA).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Through following URL, please access to the home page of the "Hirodai moodle".
 &lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
 Please click green button titled "広大IDでログイン".</t>
-    <rPh sb="247" eb="249">
+    <rPh sb="231" eb="233">
       <t>ヒロダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please input "Hirodai ID", password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11 chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-15.svg</t>
-  </si>
-  <si>
-    <t>win11en-momiji-before-login0.png</t>
-  </si>
-  <si>
-    <t>win11en-ms-signin2.png</t>
-  </si>
-  <si>
-    <t>win11en-ms-signin3.png</t>
-  </si>
-  <si>
-    <t>win11en-office365-outlook-start.png</t>
-  </si>
-  <si>
-    <t>win11en-outlook-for-web.png</t>
-  </si>
-  <si>
-    <t>win11en-office365-from-outlook-to-onedrive.png</t>
-  </si>
-  <si>
-    <t>win11en-onedrive-in-browser.png</t>
-  </si>
-  <si>
-    <t>win11en-momiji-before-login.png</t>
-  </si>
-  <si>
-    <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUPxx" station (xx would be 2 digit numbers).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you can find HU-CUPxx station, please click it, and proceed to "connect" process. Please enter your IMC account (without @hiroshima-u.ac.jp) and password. Then click "connect" again.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.
-When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUPxx" icon, and choose "forget" menu to clear it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-wifi-select.png</t>
-  </si>
-  <si>
-    <t>win11en-wifi-auth.png</t>
-  </si>
-  <si>
-    <t>win11en-wifi-connected.png</t>
-  </si>
-  <si>
-    <t>Office365 for Web (Outlook and OneDrive), Momiji, Bb9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Online services (student ID is required)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Edge would ask for the permission to store your password, please choose "never". But you can cache your sign in status by "Yes" to "Stay signed in".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click the "dots" at the upper left corneer to expand the submenu. In the expaned menu, you would find "Outlook" icon.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You would be able to check the messages addressed to your email address assigned by Hiroshima University.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Again please click the "dots" at the upper left corner to expand the submenu. In the expanded menu, you would find "OneDrive" icon.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The size of "OneDrive" for Hiroshima University students is 1TB. Please backup your important files here. It is also useful to share it with your teacher, classmates, etc in the university.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Office365 (Outlook and OneDrive)&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Momiji&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The syllabus, the selection of the lectures are maganed by "Momiji" website. Please search "Hiroshima University momiji", in web search, and visit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click the "Login to MyMOMIJI"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please enter your HIRODAI ID and password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Your personal status of the lectures you choosed are displayed like this.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click "logout" button at the upper right corner.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Bb9&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The web site looks like this. This is non-personal page, which is often called as "Momiji top page". There are some links at the right sides.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click the "Blackboard learn" button.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bb9 is a previous learning management system. Within 2022, some teachers would use it. Please visit "Bb9" from the links at the right side buttons on the "Momiji Top Page"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please enter Hirodai ID and password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Your personal page looks like this.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In next login to Bb9, you would see the list of the courses which the lecturer invited you for their courses. Please note that some lecturer would use Bb9, others would use Moodle.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please open "start menu" and search "Excel" (or "Word" or "PowerPoint") icon. If you have preinstalled one, it might be pinned. If you cannot find such, please install Office365 app from Microsoft365 web page (which you have visited for Outlook and OneDrive), and return to the following process.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please open the "Excel". If your preinstalled one is provided without the license, there would be a dialog saying "This account doesn't have Office yet" or "welcome to Office". Please proceed to sign in for Office365 sign in.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please enter IMC account (including "@hiroshima-u.ac.jp") and password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please uncheck "Allow my organization to manage...", and click "No, sign in this app only".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Activate your Office365 app.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Activate your Office365 app (student ID is required)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter.&lt;br&gt;Hiroshima University provides Office365 license uptp 5 devices per single student, but it would be expired as soon as your graduation.&lt;br&gt;To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When you login the Moodle, such page would be shown.&lt;span class="check"&gt;check-8&lt;/span&gt;
+    <t xml:space="preserve">When you login Hirodai moodle, such page would be shown.&lt;span class="check"&gt;check-8&lt;/span&gt;
 "Course overview" would list the courses which you can register.
 For the freshman students, following 2 courses (and more) would be listed.
 &lt;dl&gt;
@@ -875,98 +948,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fresta_en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11 chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-account-type-check2.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-account-type-check.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win11 chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Creating a local account for the lectures</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In this chapter, you would create a local account for the lectures. If you are using a local account already, and it is an administrator, you can skip this chapter. Please confirm the type of your current account in following procedure.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Your current account information is displayed at the top of the right side. If your current account is a local account and an administrator, you can jump to the next chapter.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Once the preparation is finished, you receive vanilla desktop environment with single "launcher" like window. This window is corresponding to the "start menu" in older Windows system. You can open this window by clicking the "window" button on the task bar at the lowest part of the desktop. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click the "gear" icon to start the "Settings" application. On the left side list of the "Settings" application window, you can find "Accounts" menu. Please select it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your PC does not have preinstalled Office365, you can download it from your Office365 web page.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-imc-office365-portal.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please visit a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit.there.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You can find "Install Office" button on the upper right. Please click it to expand its submenu, and check "Office 365 apps". You can download the network installer onto your PC.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-office365-download.png</t>
-  </si>
-  <si>
-    <t>When you start the installer, it would ask you to confirm your decition to change your computer. After checking that the verified publisher is Microsoft, please click "Yes" to proceed the installation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win11en-office365-install.png</t>
-  </si>
-  <si>
-    <t>Install Google Chrome</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The installation itself is finished, but it is not activated yet. Please back to the chaper "Activate your Office365 app."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Appendix: How to install Office365 application.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
-  </si>
-  <si>
-    <t>mymomiji-1stlogin-en.png</t>
-  </si>
-  <si>
-    <t>win11en-check-storage-size.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
-Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
-HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
-  </t>
+    <t>Connect your PC to campus network, and submit Laptop Checklist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow this link to login to Hirodai moodle by your HIRODAI ID.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you have finished to set/check your PC with Chapter 1 to &lt;it&gt;here&lt;/it&gt; of this startup instruction, let&amp;apos;s open the Hirodai moodle course &amp;quot;Laptop checklist&amp;quot;, and submit the checklist.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Submit the Laptop checklist from &amp;quot;Laptop checklist&amp;quot; in &amp;quot;My Course tree&amp;quot;.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="hinetwifi"&gt;&lt;/a&gt;Connect HINET Wi-Fi&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In this chaper, we explain how to connect your PC to HINET Wi-Fi (Wi-Fi network in Hiroshima Univ,).
+If you can connect your PC to Internet already, you may use it now and go on next chapter. The procesure in below should be operated after April 1st, the day all related services are enabled.
+When you have setup your laptop PC by following this text from chap.1 to here, &lt;strong&gt;you can finish this workshop by submitting the Laptop checklist from Hirodai moodle!&lt;/strong&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#hinetwifi"&gt;Connect HINET Wi-Fi&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#checklist"&gt;Submit laptop checklist&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#helpdesk"&gt;helpdesk&lt;/a&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="checklist"&gt;&lt;/a&gt;Submit the Laptop checklist&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="helpdesk"&gt;&lt;/a&gt;Helpdesk&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1368,7 +1389,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1376,7 +1397,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,28 +1405,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1414,12 +1435,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1443,7 +1464,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1451,163 +1472,90 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E70A2B-96AA-4C94-9421-5C006AEAF8E2}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1619,53 +1567,53 @@
       <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="74.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
+    <col min="4" max="4" width="27.53125" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.796875" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="267.75" ph="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1674,302 +1622,302 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="76.5" ph="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s" ph="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s" ph="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="76.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s" ph="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="95.65" ph="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s" ph="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" ph="1"/>
     </row>
   </sheetData>
@@ -1987,247 +1935,247 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A5" ph="1"/>
     </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1" ht="19.149999999999999" ph="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" ph="1">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s" ph="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s" ph="1">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s" ph="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s" ph="1">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s" ph="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" customFormat="1" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s" ph="1">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s" ph="1">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s" ph="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" customFormat="1" ht="19.149999999999999" ph="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s" ph="1">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s" ph="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s" ph="1">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s" ph="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s" ph="1">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s" ph="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s" ph="1">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s" ph="1">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s" ph="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s" ph="1">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s" ph="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s" ph="1">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s" ph="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s" ph="1">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s" ph="1">
+      <c r="C21" t="s" ph="1">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s" ph="1">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s" ph="1">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="22" spans="2:4" customFormat="1" ht="76.5" ph="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s" ph="1">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s" ph="1">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s" ph="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s" ph="1">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s" ph="1">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s" ph="1">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s" ph="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s" ph="1">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s" ph="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s" ph="1">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s" ph="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s" ph="1">
+    <row r="24" spans="2:4" customFormat="1" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s" ph="1">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s" ph="1">
         <v>94</v>
       </c>
-      <c r="C19" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s" ph="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s" ph="1">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s" ph="1">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s" ph="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s" ph="1">
-        <v>98</v>
-      </c>
-      <c r="D21" t="s" ph="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s" ph="1">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s" ph="1">
-        <v>98</v>
-      </c>
-      <c r="D22" t="s" ph="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s" ph="1">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s" ph="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s" ph="1">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s" ph="1">
-        <v>98</v>
-      </c>
       <c r="D24" t="s" ph="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2262,56 +2210,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.53125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.46484375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2320,57 +2268,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="97.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="97.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2338,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2398,44 +2346,44 @@
     <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2444,119 +2392,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2576,24 +2524,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" customWidth="1"/>
+    <col min="2" max="2" width="66.53125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2602,34 +2550,34 @@
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2638,73 +2586,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2714,7 +2662,7 @@
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
@@ -2728,384 +2676,384 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="76.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="216.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
         <v>166</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" t="s">
         <v>168</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="224.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="D39" ph="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="D55" ph="1"/>
     </row>
   </sheetData>
@@ -3123,7 +3071,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
@@ -3131,111 +3079,111 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3246,13 +3194,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -3260,7 +3208,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3268,118 +3216,141 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BCFB3C-0CA0-4DD6-BB13-A453F2582538}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD2DCA1-8327-4778-AD21-23BD80B3AF0F}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3975" windowWidth="18225" windowHeight="11872" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="-15450" windowWidth="18225" windowHeight="11880" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -568,10 +568,6 @@
     <t>win11en-scan-progress.png</t>
   </si>
   <si>
-    <t>After the installation of the available update, click "Advanced options", and enable "Receive updates for other Microsoft products". Please check additional updates by "Chek for update" button.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please click start button and open "Setting" application. Then click "Windows Update" in the left list, and click "Check for update" button.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -580,10 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please click "Scan options", and choose "Full scan", then click "Scan now".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>In "Setting" application, please check "Privacy &amp; Security" button, then click "Windows Security" button.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -614,17 +606,6 @@
     <t>win11en-google-chrome-download-page.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Please install Google Chrome on your PC.
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Activate Microsoft Office&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please start "Microsoft Edge", the default and only web browser of Windows11. If you cannot find it in the start menu or the task bar, please search it in the Windows Search form.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -692,11 +673,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.
-When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUPxx" icon, and choose "forget" menu to clear it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-wifi-select.png</t>
   </si>
   <si>
@@ -726,10 +702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>You would be able to check the messages addressed to your email address assigned by Hiroshima University.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Again please click the "dots" at the upper left corner to expand the submenu. In the expanded menu, you would find "OneDrive" icon.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -758,10 +730,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Your personal status of the lectures you choosed are displayed like this.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please click "logout" button at the upper right corner.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -803,10 +771,6 @@
   </si>
   <si>
     <t>Please uncheck "Allow my organization to manage...", and click "No, sign in this app only".</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -915,10 +879,6 @@
   </si>
   <si>
     <t>In the first login to MyMOMIJI, you would be asked about the permission to use your statistic info gathered in Momiji, Hirodai moodle, etc by Hiroshima University (you don't have to permit). For detail, please refer the FAQ linked in the page.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In next login to Bb9, you would see the list of the courses which the lecturer invited you for their courses. Please note that some lecturer would use Bb9, others would use Hirodai moodle.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -988,6 +948,44 @@
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="helpdesk"&gt;&lt;/a&gt;Helpdesk&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.&lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;&lt;/span&gt;
+When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUPxx" icon, and choose "forget" menu to clear it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.&lt;span class="check"&gt;check-12&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You would be able to check the messages addressed to your email address assigned by Hiroshima University.&lt;span class="check"&gt;check-11&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your personal status of the lectures you choosed are displayed like this.&lt;span class="check"&gt;check-13&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In next login to Bb9, you would see the list of the courses which the lecturer invited you for their courses. Please note that some lecturer would use Bb9, others would use Hirodai moodle.&lt;span class="check"&gt;check-14&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Please install Google Chrome on your PC.
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After the installation of the available update, click "Advanced options", and enable "Receive updates for other Microsoft products". Please check additional updates by "Chek for update" button.&lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Scan options", and choose "Full scan", then click "Scan now".&lt;span c&lt;span class="check"&gt;check-5&lt;span&gt;&lt;/span&gt;&lt;/span&gt;lass="check"&gt;check-6&lt;span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1477,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,7 +1496,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -1506,18 +1504,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -1525,31 +1523,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1946,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
@@ -1956,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
@@ -1972,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
@@ -1981,13 +1979,13 @@
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>32</v>
@@ -1998,24 +1996,24 @@
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>32</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>32</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="19.149999999999999" ph="1" x14ac:dyDescent="0.25">
@@ -2210,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2309,13 +2307,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,7 +2333,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2400,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2411,12 +2409,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2438,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2449,7 +2447,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>136</v>
@@ -2460,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2469,12 +2467,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2488,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>139</v>
@@ -2521,7 +2519,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2537,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2572,12 +2570,12 @@
       <c r="B5" s="1"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2597,21 +2595,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2619,37 +2617,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2725,7 +2723,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2748,7 +2746,7 @@
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>117</v>
@@ -2759,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2773,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2787,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2801,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,18 +2810,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2831,10 +2829,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2842,18 +2840,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2861,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2880,7 +2878,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2888,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -2902,10 +2900,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,18 +2911,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
         <v>118</v>
@@ -2932,18 +2930,18 @@
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2957,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -2971,7 +2969,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -2985,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -2996,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -3007,10 +3005,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -3029,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -3068,7 +3066,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3084,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,7 +3117,7 @@
     </row>
     <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3127,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3138,7 +3136,7 @@
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -3149,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3163,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3172,12 +3170,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3196,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3221,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3242,12 +3240,12 @@
     </row>
     <row r="6" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3283,13 +3281,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3297,42 +3295,42 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -3340,12 +3338,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="191.25" x14ac:dyDescent="0.25">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD2DCA1-8327-4778-AD21-23BD80B3AF0F}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089B83CE-37EE-4EFB-9E5D-E78313FBEE2B}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-15450" windowWidth="18225" windowHeight="11880" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="-12585" windowWidth="21600" windowHeight="11595" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="265">
   <si>
     <t>header1</t>
   </si>
@@ -67,31 +67,16 @@
     <t>win10-4-07.svg</t>
   </si>
   <si>
-    <t>Set up Windows Update so that your Windows10 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
-  </si>
-  <si>
     <t>Automatic update and software setup</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Set up Windows Update&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>win10-6-11.svg</t>
-  </si>
-  <si>
     <t>win10-6-12.svg</t>
   </si>
   <si>
-    <t>win10-6-13.svg</t>
-  </si>
-  <si>
-    <t>win10-6-14.svg</t>
-  </si>
-  <si>
     <t>win10-6-16.svg</t>
-  </si>
-  <si>
-    <t>win10-6-17.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
@@ -434,14 +419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11en chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11en chap.2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -492,10 +469,6 @@
   </si>
   <si>
     <t>hirodaiID-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>moodle-top.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -630,17 +603,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please input "Hirodai ID", password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win11 chap.6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-15.svg</t>
-  </si>
-  <si>
     <t>win11en-momiji-before-login0.png</t>
   </si>
   <si>
@@ -682,10 +648,6 @@
     <t>win11en-wifi-connected.png</t>
   </si>
   <si>
-    <t>Office365 for Web (Outlook and OneDrive), Momiji, Bb9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Online services (student ID is required)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -710,54 +672,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h2&gt;Office365 (Outlook and OneDrive)&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Momiji&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The syllabus, the selection of the lectures are maganed by "Momiji" website. Please search "Hiroshima University momiji", in web search, and visit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click the "Login to MyMOMIJI"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please enter your HIRODAI ID and password.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please click "logout" button at the upper right corner.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Bb9&lt;/h2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The web site looks like this. This is non-personal page, which is often called as "Momiji top page". There are some links at the right sides.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click the "Blackboard learn" button.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bb9 is a previous learning management system. Within 2022, some teachers would use it. Please visit "Bb9" from the links at the right side buttons on the "Momiji Top Page"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please enter Hirodai ID and password.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Your personal page looks like this.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please open "start menu" and search "Excel" (or "Word" or "PowerPoint") icon. If you have preinstalled one, it might be pinned. If you cannot find such, please install Office365 app from Microsoft365 web page (which you have visited for Outlook and OneDrive), and return to the following process.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -782,15 +700,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter.&lt;br&gt;Hiroshima University provides Office365 license uptp 5 devices per single student, but it would be expired as soon as your graduation.&lt;br&gt;To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fresta_en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win11 chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -883,28 +793,6 @@
   </si>
   <si>
     <t>Hiroshima University provides several online services for the student. For first, please login the "Hirodai moodle", and configure your account for the multifactor authentication (MFA).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Through following URL, please access to the home page of the "Hirodai moodle".
-&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;
-Please click green button titled "広大IDでログイン".</t>
-    <rPh sb="231" eb="233">
-      <t>ヒロダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When you login Hirodai moodle, such page would be shown.&lt;span class="check"&gt;check-8&lt;/span&gt;
-"Course overview" would list the courses which you can register.
-For the freshman students, following 2 courses (and more) would be listed.
-&lt;dl&gt;
-&lt;dt&gt;Laptop checklist 2021&lt;/dt&gt;
-&lt;dd&gt;You need to submit a checklist which declares that your PC is capable of your study life in Hiroshima University. You can submit the checklist in this course. Access to this course after finishing this lecture.
-Introduction to University Education (the screenshot is older one, but you would find new one)&lt;/dd&gt;
-&lt;dt&gt;MFA21 Guidance for Multi-Factor Authentication&lt;/dt&gt;
-&lt;dd&gt;All members of Hiroshima University are requested to configure the multi-factor authentication for the accounts provided by the university, to prevent the password phising. If your account is left without MFA configuration, your account would be locked by 90 days later. Detailed process is described in this course.&lt;/dd&gt; &lt;/dl&gt;
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -964,14 +852,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Your personal status of the lectures you choosed are displayed like this.&lt;span class="check"&gt;check-13&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In next login to Bb9, you would see the list of the courses which the lecturer invited you for their courses. Please note that some lecturer would use Bb9, others would use Hirodai moodle.&lt;span class="check"&gt;check-14&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Please install Google Chrome on your PC.
 &lt;ul&gt;
 &lt;li&gt;&lt;a href="#chrome"&gt;Install Google Chrome&lt;/a&gt;
@@ -986,6 +866,253 @@
   </si>
   <si>
     <t>Please click "Scan options", and choose "Full scan", then click "Scan now".&lt;span c&lt;span class="check"&gt;check-5&lt;span&gt;&lt;/span&gt;&lt;/span&gt;lass="check"&gt;check-6&lt;span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win11en chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set up Windows Update so that your Windows11 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win11en chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2022 Win11 chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;If you bought your own Microsoft Office, independently from Hiroshima University, you can skip this chapter.&lt;br&gt;Hiroshima University provides Office365 license upto 5 devices per single student, but it would be expired as soon as your graduation.&lt;br&gt;To minimize the trouble of the unexpected loss of your license, please do not overwrite your own license and keep it if you have bought it.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Momiji, Hirodai moodle, Office365 for Web (Outlook and OneDrive), MyMomiji, Bb9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;You need your Hirodai ID(student ID) and Hirodai Password to go on this chapter.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;MOMIJI: Student portal&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t>win10-6-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "Hirodai moodle"(MFA)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the banner "Bb9/moodle" at right side.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-bb9moodle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click the banner "HIRODAI moodle" and goto login page. 
+(*) You may access "HIRODAI moodle" directly from this link.
+&lt;a href="https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/" target="_blank" rel="noreferrer"&gt;https://moodle.vle.hiroshima-u.ac.jp/local/hulogin/&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lms-moodle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "Login by Hirodai ID"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input Hirodai ID(your student number) to the "User Name" box, and input your Hirodai password to the "Password" box.
+ (*) This login form may be skipped. This is a normal behavier, so please go on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that you can see "Dashboard" similar to this pic.&lt;span class="check"&gt;check-8&lt;/span&gt;
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-dashboard-en.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mfa"&gt;&lt;/a&gt;setup multi-factor authentication(MFA)&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "MFA configuration guide", and you can see the top page of "MFA21" course.Please read comment sheet.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-top.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "IMCアカウントのMFA設定" below.</t>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-imc.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "Practice setting up MFA use of IMC accounts" below, and follow instruction to setup MFA. See PDF documents for details.&lt;span class="check"&gt;check-9&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfaimc-below.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "広大IDのMFA設定" below.</t>
+    <rPh sb="7" eb="9">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfa-hirodai.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "Practice setting up MFA use of Hirodai ID" below, and follow instruction to setup MFA. See PDF documents for details.&lt;span class="check"&gt;check-10&lt;/span&gt;
+(*) You may need to use VPN to setup Hirodai ID MFA from outside of the campus. To use VPN, you can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;IMC web site&lt;/a&gt;.
+Even though the information, you may setup MFA later from inside the campus.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-mfahirodai-below.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let us access to the student portal "MOMIJI", login to the learning management system "Hirodai moodle" and setup MFA. By the way, you can access several online services provided by Hiroshima University.
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mail"&gt;Office365: Web mail service and online storage&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mymomiji"&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#bb9"&gt;Bb9: Learning management system&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#omake"&gt;Others&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-webmail.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "Web Mail" banner on the MOMIJI top page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You can see a web page &lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/" target="_blank" rel="noreferrer"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt; in the media center, there is a link (a waterblue button) to &lt;a href="https://portal.office.com/" target="_blank"&gt;https://portal.office.com/&lt;/a&gt;. Please visit.there.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please enter your IMC account with "@hiroshima-u.ac.jp", and password.
+(*) If you are outside the campus, MFA procedures may be inserted here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My Momiji&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Various information for Hiroshima University students are collected into student portal, MOMIJI. Please search "Hiroshima University momiji", in web search, and visit.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The web site looks like this. This is non-personal page, which is often called as "Momiji top page". There are some links at the right sides.
+&lt;strong&gt;
+(*) We recommend that you add this page to Favorite of your browser.
+&lt;/strong&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click the "Login to MyMOMIJI" on the MOMIJI top page.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-13&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-11a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Learning management system&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-topintro.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the link "to Bb9"("Bb9へ") .
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymomiji-intro.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For your first login to Bb9, this page will be shown. Click &amp;quot;Close&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>So, you can see the Bb9 course "Introduction to University Education".&lt;span class="check"&gt;check-14&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+(*) Screenshot here is under construction.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-32.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us try to go to a Bb9 study course from My Momiji. 
+Click the course link "Introduction to University Education"("大学教育入門") in the time table.
+</t>
+    <rPh sb="118" eb="124">
+      <t>ダイガクキョウイクニュウモン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1408,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -1424,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1438,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1475,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,12 +1618,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -1504,18 +1631,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -1523,31 +1650,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1587,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1595,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1603,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="267.75" ph="1" x14ac:dyDescent="0.25">
@@ -1611,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1625,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
@@ -1639,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1651,21 +1778,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s" ph="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.25">
@@ -1673,13 +1800,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1687,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
@@ -1701,13 +1828,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
@@ -1715,24 +1842,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s" ph="1">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.25">
@@ -1740,13 +1867,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1754,24 +1881,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="76.5" ph="1" x14ac:dyDescent="0.25">
@@ -1779,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1793,13 +1920,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.25">
@@ -1807,112 +1934,112 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="76.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="95.65" ph="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s" ph="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.25">
@@ -1946,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
@@ -1954,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
@@ -1962,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
@@ -1970,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
@@ -1979,41 +2106,41 @@
     <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="19.149999999999999" ph="1" x14ac:dyDescent="0.25">
@@ -2021,156 +2148,156 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s" ph="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s" ph="1">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s" ph="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="19.149999999999999" ph="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s" ph="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s" ph="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s" ph="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="76.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s" ph="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="57.4" ph="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s" ph="1">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2225,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2249,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -2257,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2271,21 +2398,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
@@ -2293,13 +2420,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2307,13 +2434,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,7 +2460,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -2381,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2392,7 +2519,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2400,13 +2527,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2414,13 +2541,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,21 +2563,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,13 +2585,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -2472,13 +2599,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,10 +2613,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,7 +2646,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2553,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
     </row>
@@ -2562,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2575,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2595,21 +2722,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2617,37 +2744,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2723,162 +2850,171 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>225</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C21" t="s">
         <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2886,96 +3022,96 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>183</v>
+      <c r="B25" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>222</v>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2983,76 +3119,190 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
+      <c r="C36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
+      <c r="B37" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
-      <c r="D39" ph="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
-      <c r="D55" ph="1"/>
+      <c r="B38" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+      <c r="D52" ph="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+      <c r="D68" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3066,7 +3316,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3117,7 +3367,7 @@
     </row>
     <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3125,21 +3375,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,13 +3397,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,13 +3411,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3175,13 +3425,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3194,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3219,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,17 +3485,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3253,7 +3503,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3267,7 +3517,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3281,13 +3531,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3295,13 +3545,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3309,46 +3559,46 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="191.25" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089B83CE-37EE-4EFB-9E5D-E78313FBEE2B}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="-12585" windowWidth="21600" windowHeight="11595" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="-15765" windowWidth="21600" windowHeight="11595" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2801,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3444,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089B83CE-37EE-4EFB-9E5D-E78313FBEE2B}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142A50B4-C115-4315-BE36-F69B97F2C032}"/>
   <bookViews>
     <workbookView xWindow="6030" yWindow="-15765" windowWidth="21600" windowHeight="11595" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,12 +986,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Click "Practice setting up MFA use of Hirodai ID" below, and follow instruction to setup MFA. See PDF documents for details.&lt;span class="check"&gt;check-10&lt;/span&gt;
-(*) You may need to use VPN to setup Hirodai ID MFA from outside of the campus. To use VPN, you can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;IMC web site&lt;/a&gt;.
-Even though the information, you may setup MFA later from inside the campus.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>moodle-mfahirodai-below.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1113,6 +1107,11 @@
     <rPh sb="118" eb="124">
       <t>ダイガクキョウイクニュウモン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Practice setting up MFA use of Hirodai ID" below, and follow instruction to setup MFA. See PDF documents for details.&lt;span class="check"&gt;check-10&lt;/span&gt;
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2801,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2864,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2907,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2921,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
         <v>150</v>
@@ -3039,18 +3038,18 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>241</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3061,7 +3060,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3075,13 +3074,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -3089,7 +3088,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
         <v>186</v>
@@ -3100,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
         <v>151</v>
@@ -3168,7 +3167,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -3206,34 +3205,34 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>253</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" t="s">
         <v>257</v>
-      </c>
-      <c r="D45" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3241,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -3252,7 +3251,7 @@
     </row>
     <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -3260,13 +3259,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
         <v>261</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -3274,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142A50B4-C115-4315-BE36-F69B97F2C032}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E577C6-32AD-45C0-A5DC-D0BCFDF7F411}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="-15765" windowWidth="21600" windowHeight="11595" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="-15090" windowWidth="21600" windowHeight="11595" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="266">
   <si>
     <t>header1</t>
   </si>
@@ -1112,6 +1112,10 @@
   <si>
     <t xml:space="preserve">Click "Practice setting up MFA use of Hirodai ID" below, and follow instruction to setup MFA. See PDF documents for details.&lt;span class="check"&gt;check-10&lt;/span&gt;
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle-checklist.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2800,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -3443,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3585,17 +3589,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/kishiba_hiroshima-u_ac_jp/Documents/Documents/fresta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{D06988E3-F0AA-4255-A775-1B19CC0DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E577C6-32AD-45C0-A5DC-D0BCFDF7F411}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E82B36-02E5-4B23-B623-5C37A9186B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="-15090" windowWidth="21600" windowHeight="11595" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -235,22 +235,6 @@
     <t>win11en-setting-account.png</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2022 Win11 chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows11&lt;/h3&gt;
-Mar. 2022&lt;br&gt;
- Information Media Center, Hiroshima University&lt;br&gt;
- Hiroshima Univesity Coop shop 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>For first, choose the regional culture which your computer is configured for.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,10 +693,6 @@
   </si>
   <si>
     <t>win11en-account-type-check.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win11 chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -869,19 +849,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2022 Win11en chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Set up Windows Update so that your Windows11 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win11en chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2022 Win11 chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1117,6 +1085,31 @@
   <si>
     <t>moodle-checklist.svg</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2023 Win11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows11&lt;/h3&gt;
+Mar. 2023&lt;br&gt;
+ Information Media Center, Hiroshima University&lt;br&gt;
+ Hiroshima Univesity Coop shop 
+ </t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2023 Win11 chap.0</t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2023 Win11 chap.1</t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2023 Win11en chap.3</t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2023 Win11en chap.4</t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2023 Win11 chap.5</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1510,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1525,7 +1518,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1541,20 +1534,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1563,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1585,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -1600,15 +1593,15 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1616,68 +1609,68 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
         <v>187</v>
       </c>
-      <c r="D6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1695,16 +1688,16 @@
       <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="74.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="27.53125" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.796875" phonetic="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
@@ -1712,15 +1705,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
@@ -1728,68 +1721,68 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s" ph="1">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" ph="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s" ph="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s" ph="1">
         <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="267.75" ph="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s" ph="1">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" ph="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ph="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s" ph="1">
-        <v>54</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s" ph="1">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
@@ -1798,12 +1791,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1812,12 +1805,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
@@ -1826,12 +1819,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
@@ -1840,12 +1833,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
@@ -1854,9 +1847,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -1865,12 +1858,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
@@ -1879,12 +1872,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
@@ -1893,9 +1886,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
@@ -1904,12 +1897,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="76.5" ph="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
@@ -1918,12 +1911,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
@@ -1932,12 +1925,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
@@ -1946,9 +1939,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -1957,9 +1950,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
@@ -1968,9 +1961,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
@@ -1979,9 +1972,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
@@ -1990,9 +1983,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
@@ -2001,9 +1994,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
@@ -2012,9 +2005,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="76.5" ph="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
@@ -2023,9 +2016,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
@@ -2034,9 +2027,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="95.65" ph="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>27</v>
@@ -2045,7 +2038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" ph="1"/>
     </row>
   </sheetData>
@@ -2063,31 +2056,31 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s" ph="1">
         <v>2</v>
       </c>
@@ -2095,27 +2088,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A5" ph="1"/>
     </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>27</v>
@@ -2124,34 +2117,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>27</v>
       </c>
       <c r="D8" t="s" ph="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>27</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" customFormat="1" ht="19.149999999999999" ph="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>27</v>
@@ -2160,150 +2153,150 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s" ph="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s" ph="1">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s" ph="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s" ph="1">
         <v>75</v>
       </c>
-      <c r="C12" t="s" ph="1">
+      <c r="C14" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s" ph="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s" ph="1">
         <v>76</v>
       </c>
-      <c r="D12" t="s" ph="1">
+      <c r="C15" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s" ph="1">
+    <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s" ph="1">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s" ph="1">
         <v>77</v>
       </c>
-      <c r="C13" t="s" ph="1">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s" ph="1">
+    </row>
+    <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s" ph="1">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s" ph="1">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s" ph="1">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s" ph="1">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s" ph="1">
+    <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s" ph="1">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s" ph="1">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" ht="57.4" ph="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s" ph="1">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s" ph="1">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s" ph="1">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s" ph="1">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s" ph="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s" ph="1">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s" ph="1">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s" ph="1">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s" ph="1">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s" ph="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" customFormat="1" ht="19.149999999999999" ph="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s" ph="1">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s" ph="1">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s" ph="1">
+    <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s" ph="1">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s" ph="1">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s" ph="1">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s" ph="1">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s" ph="1">
+    <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s" ph="1">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s" ph="1">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s" ph="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s" ph="1">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s" ph="1">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s" ph="1">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s" ph="1">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s" ph="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" customFormat="1" ht="38.25" ph="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s" ph="1">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s" ph="1">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s" ph="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s" ph="1">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s" ph="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" customFormat="1" ht="76.5" ph="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s" ph="1">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s" ph="1">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s" ph="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" customFormat="1" ht="25.5" ph="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" t="s" ph="1">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s" ph="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" customFormat="1" ht="57.4" ph="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s" ph="1">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2342,15 +2335,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.53125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.46484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2358,15 +2351,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2374,15 +2367,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2396,29 +2389,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="97.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="97.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2429,24 +2422,24 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2459,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -2474,15 +2467,15 @@
     <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +2483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2498,15 +2491,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2520,119 +2513,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2652,24 +2645,24 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.53125" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2671,7 @@
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2687,25 +2680,25 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2714,73 +2707,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2783,7 @@
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
@@ -2808,52 +2801,52 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="76.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2862,12 +2855,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="250.8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2876,375 +2869,375 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D45" t="s">
         <v>250</v>
       </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -3253,31 +3246,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -3286,25 +3279,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D52" ph="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="19.149999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D68" ph="1"/>
     </row>
   </sheetData>
@@ -3322,7 +3315,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
@@ -3330,111 +3323,111 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3447,11 +3440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
@@ -3459,7 +3452,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3467,15 +3460,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3483,25 +3476,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3515,7 +3508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3529,80 +3522,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>158</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>159</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="191.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E82B36-02E5-4B23-B623-5C37A9186B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC2E076-AAEE-4798-B772-58831289DFA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="265">
   <si>
     <t>header1</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>win10-4-01.svg</t>
-  </si>
-  <si>
-    <t>win10-4-07.svg</t>
   </si>
   <si>
     <t>Automatic update and software setup</t>
@@ -90,11 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You can connect to Wi-Fi called &amp;quot;HINET Wi-Fi&amp;quot; in shared facilities in Hiroshima University campus. Here you will set up your PC to connect to the internal network and the internet via Wi-Fi. As far as you connect to the same access point, you do not need to do this again.
-This map shows which &amp;quot;HU-CUPxx&amp;quot; you may find in the campus.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -615,14 +607,6 @@
     <t>win11en-momiji-before-login.png</t>
   </si>
   <si>
-    <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUPxx" station (xx would be 2 digit numbers).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you can find HU-CUPxx station, please click it, and proceed to "connect" process. Please enter your IMC account (without @hiroshima-u.ac.jp) and password. Then click "connect" again.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win11en-wifi-select.png</t>
   </si>
   <si>
@@ -816,11 +800,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="helpdesk"&gt;&lt;/a&gt;Helpdesk&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.&lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;&lt;/span&gt;
-When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUPxx" icon, and choose "forget" menu to clear it.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1110,6 +1089,23 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2023 Win11 chap.5</t>
+  </si>
+  <si>
+    <t>You can connect to Wi-Fi called &amp;quot;HINET Wi-Fi&amp;quot; in shared facilities in Hiroshima University campus. Here you will set up your PC to connect to the internal network and the internet via Wi-Fi. As far as you connect to the same access point, you do not need to do this again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUP" (or "HU-CUPxx", xx would be 2 digit numbers).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you can find HU-CUP station, please click it, and proceed to "connect" process. Please enter your IMC account (without @hiroshima-u.ac.jp) and password. Then click "connect" again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.&lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;&lt;/span&gt;
+When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUP" icon, and choose "forget" menu to clear it.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1531,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1547,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1561,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1598,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1606,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1614,12 +1610,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1627,18 +1623,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1646,31 +1642,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1710,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1718,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1726,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1734,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1748,13 +1744,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1762,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1774,21 +1770,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1796,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1810,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1824,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1838,24 +1834,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1863,13 +1859,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1877,24 +1873,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -1902,13 +1898,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1916,13 +1912,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1930,112 +1926,112 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
@@ -2069,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2077,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2085,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2093,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2102,41 +2098,41 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2144,156 +2140,156 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s" ph="1">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s" ph="1">
         <v>86</v>
-      </c>
-      <c r="D22" t="s" ph="1">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2356,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2364,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2372,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2380,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2394,21 +2390,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2416,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2430,13 +2426,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2472,7 +2468,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2496,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2504,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2515,7 +2511,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2523,13 +2519,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2537,13 +2533,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,21 +2555,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2581,13 +2577,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2595,13 +2591,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2609,10 +2605,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2658,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2676,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3"/>
     </row>
@@ -2685,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2698,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2718,21 +2714,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2740,37 +2736,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2814,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2830,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2838,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2846,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2860,7 +2856,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2876,12 +2872,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2903,13 +2899,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2917,15 +2913,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2933,29 +2929,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2963,13 +2959,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2977,18 +2973,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2996,21 +2992,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3018,21 +3014,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3040,13 +3036,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,7 +3053,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3071,13 +3067,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3085,10 +3081,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3096,18 +3092,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3115,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3126,18 +3122,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3145,13 +3141,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,7 +3160,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3172,29 +3168,29 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3202,34 +3198,34 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3237,18 +3233,18 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3256,13 +3252,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3270,13 +3266,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3328,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3336,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3344,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3363,7 +3359,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3371,21 +3367,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3393,13 +3389,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3407,13 +3403,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3421,13 +3417,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3440,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3465,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3473,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3481,31 +3477,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -3513,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3527,13 +3520,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3541,13 +3534,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3555,53 +3548,54 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC2E076-AAEE-4798-B772-58831289DFA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC8689-EA99-4895-81FA-C0355C7796E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -76,16 +76,6 @@
     <t>win10-6-16.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
-&amp;quot;Edition&amp;quot; entry under &amp;quot;Windows Specifications&amp;quot; tells you what kind of Windows your PC is running. In this case, your PC is running &amp;quot;Windows 10 Pro&amp;quot;. And &amp;quot;Version&amp;quot; entry gives you the detailed version number of your Windows10.&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-&amp;quot;System type&amp;quot; entry under &amp;quot;Device Specifications&amp;quot; tells you that your PC is running &amp;quot;64-bit operating system&amp;quot;. It means your OS can handle 64-binary-digit data.&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-&amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -803,10 +793,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.&lt;span class="check"&gt;check-12&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>You would be able to check the messages addressed to your email address assigned by Hiroshima University.&lt;span class="check"&gt;check-11&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -817,14 +803,6 @@
 &lt;/li&gt;
  &lt;/ul&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>After the installation of the available update, click "Advanced options", and enable "Receive updates for other Microsoft products". Please check additional updates by "Chek for update" button.&lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please click "Scan options", and choose "Full scan", then click "Scan now".&lt;span c&lt;span class="check"&gt;check-5&lt;span&gt;&lt;/span&gt;&lt;/span&gt;lass="check"&gt;check-6&lt;span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;&lt;/span&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1103,7 +1081,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.&lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;&lt;/span&gt;
+    <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
+&amp;quot;Edition&amp;quot; entry under &amp;quot;Windows Specifications&amp;quot; tells you what kind of Windows your PC is running. In this case, your PC is running &amp;quot;Windows 11&amp;quot;. And &amp;quot;Version&amp;quot; entry gives you the detailed version number of your Windows11.&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+&amp;quot;System type&amp;quot; entry under &amp;quot;Device Specifications&amp;quot; tells you that your PC is running &amp;quot;64-bit operating system&amp;quot;. It means your OS can handle 64-binary-digit data.&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+&amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After the installation of the available update, click "Advanced options", and enable "Receive updates for other Microsoft products". Please check additional updates by "Chek for update" button.&lt;span class="check"&gt;check-4&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please click "Scan options", and choose "Full scan", then click "Scan now".&lt;span c&lt;span class="check"&gt;check-5&lt;/span&gt;lass="check"&gt;check-5&lt;/span&gt;&lt;span class="check"&gt;check-6&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click "accept". You can read the license agreement from "File &gt; Account" menu in later.&lt;span class="check"&gt;check-12&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.&lt;span class="check"&gt;check-14&lt;/span&gt;
 When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUP" icon, and choose "forget" menu to clear it.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1543,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1557,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1610,12 +1610,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1623,18 +1623,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1642,31 +1642,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
         <v>180</v>
-      </c>
-      <c r="D9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
         <v>182</v>
-      </c>
-      <c r="D10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1722,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1744,13 +1744,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1770,21 +1770,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1792,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1806,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1820,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1834,24 +1834,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1859,13 +1859,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1873,24 +1873,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -1898,13 +1898,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1912,13 +1912,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1926,112 +1926,112 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
@@ -2065,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2098,41 +2098,41 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2140,156 +2140,156 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" ph="1">
         <v>70</v>
       </c>
-      <c r="C12" t="s" ph="1">
-        <v>71</v>
-      </c>
       <c r="D12" t="s" ph="1">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s" ph="1">
         <v>83</v>
       </c>
-      <c r="C20" t="s" ph="1">
-        <v>84</v>
-      </c>
       <c r="D20" t="s" ph="1">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2360,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2376,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2390,21 +2390,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2412,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2426,13 +2426,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2451,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2468,7 +2468,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2492,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2519,27 +2519,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2555,21 +2555,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2577,27 +2577,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2605,10 +2605,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2654,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2672,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3"/>
     </row>
@@ -2681,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2694,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2714,21 +2714,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2736,37 +2736,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2793,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2856,7 +2856,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2872,12 +2872,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2899,13 +2899,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2913,15 +2913,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2929,29 +2929,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2959,13 +2959,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2973,18 +2973,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2992,21 +2992,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3014,21 +3014,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3036,13 +3036,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,7 +3053,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3067,13 +3067,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3081,10 +3081,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3092,18 +3092,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3111,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3122,18 +3122,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3141,13 +3141,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,29 +3168,29 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3198,34 +3198,34 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3233,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3252,13 +3252,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -3307,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45722500-6D63-48B1-B48D-DE8F55297416}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3324,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3340,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3348,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3359,7 +3359,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3367,21 +3367,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3389,13 +3389,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3403,13 +3403,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3417,13 +3417,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3436,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3477,17 +3477,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3495,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3506,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3520,13 +3520,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3534,13 +3534,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3554,43 +3554,43 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC8689-EA99-4895-81FA-C0355C7796E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE13F91-B123-4890-AE95-4A0C04222C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -814,10 +814,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Momiji, Hirodai moodle, Office365 for Web (Outlook and OneDrive), MyMomiji, Bb9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;strong&gt;You need your Hirodai ID(student ID) and Hirodai Password to go on this chapter.&lt;/strong&gt;</t>
   </si>
   <si>
@@ -828,15 +824,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="moodle"&gt;&lt;/a&gt;login to "Hirodai moodle"(MFA)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the banner "Bb9/moodle" at right side.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>momiji-bb9moodle.png</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Click the banner "HIRODAI moodle" and goto login page. 
@@ -915,26 +902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Let us access to the student portal "MOMIJI", login to the learning management system "Hirodai moodle" and setup MFA. By the way, you can access several online services provided by Hiroshima University.
- &lt;ul&gt;
-&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mail"&gt;Office365: Web mail service and online storage&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#mymomiji"&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#bb9"&gt;Bb9: Learning management system&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#omake"&gt;Others&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>momiji-webmail.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1105,6 +1072,31 @@
   <si>
     <t>If the button is changed as "disconnect", the connection with the WiFi in Hiroshima University succeeded.&lt;span class="check"&gt;check-14&lt;/span&gt;
 When you change your password, the cached password should be cleared. Please right-click the icon of "HU-CUP" icon, and choose "forget" menu to clear it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Momiji, Hirodai moodle, Office365 for Web (Outlook and OneDrive), MyMomiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let us access to the student portal "MOMIJI", login to the learning management system "Hirodai moodle" and setup MFA. By the way, you can access several online services provided by Hiroshima University.
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#momiji"&gt;MOMIJI: Student Portal&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;login to "Hirodai moodle"&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mfa"&gt;setup multi-factor authentication(MFA)&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mail"&gt;Office365: Web mail service and online storage&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#mymomiji"&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#omake"&gt;Others&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the banner "Moodle" at right side.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momiji-moodle.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1128,12 +1120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1148,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1161,6 +1159,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1543,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1722,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2327,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2412,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2492,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2533,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2591,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2681,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2793,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="A48:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2851,12 +2853,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="250.8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2872,12 +2874,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2899,13 +2901,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2913,7 +2915,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
         <v>144</v>
@@ -2921,7 +2923,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2929,26 +2931,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -2959,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2973,18 +2975,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2992,21 +2994,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3014,21 +3016,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3036,13 +3038,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3067,13 +3069,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3081,7 +3083,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -3092,7 +3094,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -3160,7 +3162,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -3198,80 +3200,90 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3417,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3495,7 +3507,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3520,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3534,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3548,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3580,7 +3592,7 @@
         <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE13F91-B123-4890-AE95-4A0C04222C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01ACA09-F2DA-4205-90C6-FDB17EB0BA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,12 +1091,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Click the banner "Moodle" at right side.
+    <t>momiji-moodle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the banner "HIRODAI moodle" at right side.
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>momiji-moodle.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2795,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="A48:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2931,13 +2931,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>263</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01ACA09-F2DA-4205-90C6-FDB17EB0BA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2743F7-5633-4D38-8AC8-DE932B092788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="253">
   <si>
     <t>header1</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Set up Windows Update&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>win10-6-12.svg</t>
-  </si>
-  <si>
-    <t>win10-6-16.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
@@ -948,57 +942,6 @@
   </si>
   <si>
     <t>win10-6-11a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Learning management system&lt;/h2&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mymomiji-topintro.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the link "to Bb9"("Bb9へ") .
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mymomiji-intro.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">For your first login to Bb9, this page will be shown. Click &amp;quot;Close&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>So, you can see the Bb9 course "Introduction to University Education".&lt;span class="check"&gt;check-14&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-(*) Screenshot here is under construction.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the contents  and choose &amp;quot;Save as&amp;quot; in the displayed menu.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-32.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let us try to go to a Bb9 study course from My Momiji. 
-Click the course link "Introduction to University Education"("大学教育入門") in the time table.
-</t>
-    <rPh sb="118" eb="124">
-      <t>ダイガクキョウイクニュウモン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1120,18 +1063,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1146,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1159,10 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1545,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1559,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1596,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,12 +1545,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1625,18 +1558,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1644,31 +1577,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1708,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1716,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1724,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1732,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1746,13 +1679,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1760,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1772,21 +1705,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1794,13 +1727,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1808,13 +1741,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1822,13 +1755,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1836,24 +1769,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1861,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1875,24 +1808,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -1900,13 +1833,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1914,13 +1847,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1928,112 +1861,112 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
@@ -2067,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2075,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2083,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2091,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2100,41 +2033,41 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2142,156 +2075,156 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s" ph="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s" ph="1">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s" ph="1">
         <v>83</v>
-      </c>
-      <c r="D22" t="s" ph="1">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2346,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2362,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2370,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2378,7 +2311,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2392,21 +2325,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2414,13 +2347,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2428,13 +2361,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2470,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2502,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2521,13 +2454,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2535,13 +2468,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2557,21 +2490,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,13 +2512,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2593,13 +2526,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,10 +2540,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,7 +2589,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2674,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3"/>
     </row>
@@ -2683,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2696,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2716,21 +2649,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2738,37 +2671,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2795,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2812,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2820,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2836,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2844,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2858,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2874,12 +2807,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,13 +2834,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2915,15 +2848,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2931,29 +2864,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2961,13 +2894,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2975,18 +2908,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2994,21 +2927,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3016,21 +2949,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3038,13 +2971,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3055,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3069,13 +3002,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3083,10 +3016,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3094,18 +3027,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3113,10 +3046,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3124,18 +3057,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3143,13 +3076,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3162,7 +3095,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3170,29 +3103,29 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3200,112 +3133,37 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D52" ph="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D45" ph="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D61" ph="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" ph="1"/>
     </row>
   </sheetData>
@@ -3336,7 +3194,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3344,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3360,7 +3218,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,7 +3229,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3379,21 +3237,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3401,13 +3259,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3415,13 +3273,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3429,13 +3287,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3473,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3481,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3489,17 +3347,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3507,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3518,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3532,13 +3390,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3546,13 +3404,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3560,49 +3418,49 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2743F7-5633-4D38-8AC8-DE932B092788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16353D-6950-4255-B9D3-DB12A6B4EC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -983,10 +983,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUP" (or "HU-CUPxx", xx would be 2 digit numbers).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>If you can find HU-CUP station, please click it, and proceed to "connect" process. Please enter your IMC account (without @hiroshima-u.ac.jp) and password. Then click "connect" again.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1040,6 +1036,10 @@
   <si>
     <t xml:space="preserve">Click the banner "HIRODAI moodle" at right side.
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUP".</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2468,7 +2468,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2526,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2728,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD49"/>
     </sheetView>
   </sheetViews>
@@ -2745,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2864,13 +2864,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
     <row r="61" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D61" ph="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D68" ph="1"/>
     </row>
   </sheetData>
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3306,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3404,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3418,7 +3418,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16353D-6950-4255-B9D3-DB12A6B4EC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B778371-D9F3-4DAC-8583-EF45BDE40FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -447,10 +447,6 @@
     <t>win11en-office-license-agreement.png</t>
   </si>
   <si>
-    <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet. When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>You would be asked about the default backup throught the network (designed for the computer owned by the organization). Please choose "Set up for personal use".</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1040,6 +1036,11 @@
   </si>
   <si>
     <t>Please bring your computer in the campus of Hiroshima University. Maybe your computer would be off-line, and the indicator shows the "Earth" icon instead of the wave icon. Please click it and expand the WiFi menu. Then, search "HU-CUP".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet. When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.
+If you do not have your own network environment, please visit our university, and connect to "HU-CUP" access point by the instruction described in the &lt;a href="../ch7.html"&gt;the chapter 7&lt;/a&gt;.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1470,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1478,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1529,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1550,7 +1551,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1558,18 +1559,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1577,31 +1578,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
         <v>177</v>
-      </c>
-      <c r="D9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
         <v>179</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1615,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1727,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1780,7 +1781,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -2000,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2008,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2024,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2033,13 +2034,13 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>22</v>
@@ -2050,24 +2051,24 @@
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>22</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>22</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2207,7 +2208,7 @@
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>81</v>
@@ -2218,7 +2219,7 @@
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>81</v>
@@ -2325,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2336,10 +2337,10 @@
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2347,13 +2348,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2361,13 +2362,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2403,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2427,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2454,13 +2455,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2468,13 +2469,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2490,21 +2491,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2512,13 +2513,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2526,13 +2527,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2540,10 +2541,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2589,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2616,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2629,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2649,21 +2650,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2671,37 +2672,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2753,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2777,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2791,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2807,12 +2808,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,13 +2835,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2848,15 +2849,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2864,26 +2865,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" t="s">
         <v>205</v>
-      </c>
-      <c r="D16" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -2894,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2908,18 +2909,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>209</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2927,21 +2928,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" t="s">
         <v>214</v>
-      </c>
-      <c r="D22" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2949,21 +2950,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>216</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
         <v>218</v>
-      </c>
-      <c r="D24" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2971,13 +2972,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2988,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3002,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3016,10 +3017,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3027,18 +3028,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3046,10 +3047,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3057,18 +3058,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3076,13 +3077,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3095,7 +3096,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3103,18 +3104,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
         <v>103</v>
@@ -3122,10 +3123,10 @@
     </row>
     <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3133,13 +3134,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>230</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3194,7 +3195,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3202,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3218,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3229,7 +3230,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3237,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3248,7 +3249,7 @@
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
         <v>105</v>
@@ -3259,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3273,7 +3274,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3287,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3306,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3331,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,12 +3353,12 @@
     </row>
     <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3365,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3390,13 +3391,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3404,13 +3405,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3418,28 +3419,28 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
@@ -3447,15 +3448,15 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="198" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B778371-D9F3-4DAC-8583-EF45BDE40FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311F8D9-51E2-4375-8EDB-BC3BC3B64737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,7 +1040,7 @@
   </si>
   <si>
     <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet. When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.
-If you do not have your own network environment, please visit our university, and connect to "HU-CUP" access point by the instruction described in the &lt;a href="../ch7.html"&gt;the chapter 7&lt;/a&gt;.</t>
+If you do not have your own network environment, please visit our university, and connect to "HU-CUP" access point by the instruction described in the &lt;a href="ch7.html"&gt;the chapter 7&lt;/a&gt;.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311F8D9-51E2-4375-8EDB-BC3BC3B64737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D634D-A1BC-44EB-821D-2ADE80532F5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please set the password for the account.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please set the full name of your account.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1041,6 +1037,10 @@
   <si>
     <t>You can find that the "Next" button is grayed out. Except of early revision of Windows11 Pro, Windows11 requires the network connectivity to proceed the initialization. Please connect to the Internet. When the Internet connectivity is confirmed, the "Next" button is changed to blue clickable button. Please click it and proceed for the next step.
 If you do not have your own network environment, please visit our university, and connect to "HU-CUP" access point by the instruction described in the &lt;a href="ch7.html"&gt;the chapter 7&lt;/a&gt;.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please set the password for the account. The password should be different from the passwords for other services provided by Hiroshima University.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1471,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1546,12 +1546,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1559,18 +1559,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1578,31 +1578,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
         <v>176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
         <v>178</v>
-      </c>
-      <c r="D10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1686,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
@@ -1843,12 +1843,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s" ph="1">
         <v>22</v>
@@ -2001,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2034,13 +2034,13 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>22</v>
@@ -2051,24 +2051,24 @@
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>22</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>22</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2076,7 +2076,7 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>22</v>
@@ -2087,142 +2087,142 @@
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" ph="1">
         <v>67</v>
       </c>
-      <c r="C12" t="s" ph="1">
-        <v>68</v>
-      </c>
       <c r="D12" t="s" ph="1">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s" ph="1">
         <v>80</v>
       </c>
-      <c r="C20" t="s" ph="1">
-        <v>81</v>
-      </c>
       <c r="D20" t="s" ph="1">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s" ph="1">
         <v>40</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2326,21 +2326,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2348,13 +2348,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2362,13 +2362,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2404,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2455,13 +2455,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2469,13 +2469,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,21 +2491,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2513,13 +2513,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2527,13 +2527,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2541,10 +2541,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2617,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2630,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2650,21 +2650,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2672,37 +2672,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2770,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2778,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2792,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2808,12 +2808,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2835,13 +2835,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2849,15 +2849,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2865,29 +2865,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
         <v>204</v>
-      </c>
-      <c r="D16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2895,13 +2895,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2909,18 +2909,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>208</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2928,21 +2928,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" t="s">
         <v>213</v>
-      </c>
-      <c r="D22" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2950,21 +2950,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>215</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" t="s">
         <v>217</v>
-      </c>
-      <c r="D24" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2972,13 +2972,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3003,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3017,10 +3017,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3028,18 +3028,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3047,10 +3047,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3058,18 +3058,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3077,13 +3077,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3096,7 +3096,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3104,29 +3104,29 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3134,13 +3134,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>229</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3238,21 +3238,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3260,13 +3260,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3274,13 +3274,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3288,13 +3288,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3348,17 +3348,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3391,13 +3391,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3405,13 +3405,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3419,44 +3419,44 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="198" x14ac:dyDescent="0.2">

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D634D-A1BC-44EB-821D-2ADE80532F5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A82B7E-4A49-48A6-9BB3-062D5EDAD7B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Set up your PC to connect to HINET Wi-Fi.</t>
   </si>
   <si>
-    <t>win10-4-01.svg</t>
-  </si>
-  <si>
     <t>Automatic update and software setup</t>
   </si>
   <si>
@@ -1041,6 +1038,10 @@
   </si>
   <si>
     <t>Please set the password for the account. The password should be different from the passwords for other services provided by Hiroshima University.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-01.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1463,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1471,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1479,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1493,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1530,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1538,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1546,12 +1547,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1559,18 +1560,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1578,31 +1579,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
         <v>175</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
         <v>177</v>
-      </c>
-      <c r="D10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1634,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1642,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1650,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1658,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1666,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -1680,13 +1681,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1694,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>5</v>
@@ -1706,21 +1707,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.6" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1728,13 +1729,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1742,13 +1743,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1756,13 +1757,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -1770,24 +1771,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -1795,13 +1796,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1809,24 +1810,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -1834,13 +1835,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -1848,13 +1849,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1862,112 +1863,112 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s" ph="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s" ph="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s" ph="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D26" t="s" ph="1">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s" ph="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D27" t="s" ph="1">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s" ph="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D28" t="s" ph="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s" ph="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s" ph="1">
         <v>5</v>
       </c>
       <c r="D29" t="s" ph="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s" ph="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s" ph="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s" ph="1">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:2" ph="1" x14ac:dyDescent="0.2">
@@ -2001,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2009,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2017,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2025,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2034,41 +2035,41 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s" ph="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s" ph="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s" ph="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2076,156 +2077,156 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" ph="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s" ph="1">
         <v>66</v>
       </c>
-      <c r="C12" t="s" ph="1">
-        <v>67</v>
-      </c>
       <c r="D12" t="s" ph="1">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s" ph="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s" ph="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s" ph="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s" ph="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s" ph="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:4" customFormat="1" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s" ph="1">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s" ph="1">
         <v>79</v>
       </c>
-      <c r="C20" t="s" ph="1">
-        <v>80</v>
-      </c>
       <c r="D20" t="s" ph="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s" ph="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:4" customFormat="1" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s" ph="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s" ph="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:4" customFormat="1" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s" ph="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:4" customFormat="1" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s" ph="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2280,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2288,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2296,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2312,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2326,21 +2327,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s" ph="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="4" t="s" ph="1">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -2348,13 +2349,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2362,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2404,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2412,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2420,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2428,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2436,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2447,7 +2448,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2455,13 +2456,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2469,13 +2470,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,21 +2492,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2513,13 +2514,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2527,13 +2528,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2541,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2608,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3"/>
     </row>
@@ -2617,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2630,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2650,21 +2651,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2672,37 +2673,37 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,7 +2747,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2754,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2770,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2778,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2792,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2808,12 +2809,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2835,13 +2836,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2849,15 +2850,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2865,29 +2866,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
         <v>203</v>
-      </c>
-      <c r="D16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2895,13 +2896,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2909,18 +2910,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>207</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2928,21 +2929,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>210</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
         <v>212</v>
-      </c>
-      <c r="D22" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2950,21 +2951,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>214</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" t="s">
         <v>216</v>
-      </c>
-      <c r="D24" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2972,13 +2973,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3003,13 +3004,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3017,10 +3018,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3028,18 +3029,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3047,10 +3048,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3058,18 +3059,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3077,13 +3078,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3096,7 +3097,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3104,29 +3105,29 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3134,13 +3135,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>228</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3195,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,7 +3231,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3238,21 +3239,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3260,13 +3261,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3274,13 +3275,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3288,13 +3289,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3307,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3340,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3348,17 +3349,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3366,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3377,13 +3378,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3391,13 +3392,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3405,13 +3406,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3419,49 +3420,49 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/win11_en.xlsx
+++ b/win11_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fresta\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A82B7E-4A49-48A6-9BB3-062D5EDAD7B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E142DB56-3809-4754-B54A-1D11EF54AAB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6708" yWindow="-15096" windowWidth="21600" windowHeight="11592" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The size of "OneDrive" for Hiroshima University students is 1TB. Please backup your important files here. It is also useful to share it with your teacher, classmates, etc in the university.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Please enter your HIRODAI ID and password.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1042,6 +1038,10 @@
   </si>
   <si>
     <t>win10-4-01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The size of "OneDrive" for Hiroshima University students is 3TB. Please backup your important files here. It is also useful to share it with your teacher, classmates, etc in the university.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1472,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1480,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -1560,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,23 +1587,23 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
         <v>174</v>
-      </c>
-      <c r="D9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
         <v>176</v>
-      </c>
-      <c r="D10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="285.60000000000002" ph="1" x14ac:dyDescent="0.2">
@@ -1729,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>5</v>
@@ -1849,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>5</v>
@@ -2002,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2035,13 +2035,13 @@
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" ph="1"/>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81.599999999999994" x14ac:dyDescent="0.2">
       <c r="A7" ph="1"/>
       <c r="B7" s="1" t="s" ph="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>21</v>
@@ -2052,24 +2052,24 @@
     </row>
     <row r="8" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>21</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>21</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" ht="20.399999999999999" ph="1" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2363,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2528,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2591,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2618,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2730,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2747,7 +2747,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2763,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2779,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2793,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2809,12 +2809,12 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2836,13 +2836,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDesc